--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ju &amp; Hoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B4E3D9-16C9-415E-93AF-0E4964E13A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFCB7AC-6082-4394-B9E6-2AED092DADE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1320" windowWidth="24000" windowHeight="11700" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>equipId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Equip000101</t>
-  </si>
-  <si>
-    <t>Equip000101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,6 +165,13 @@
   </si>
   <si>
     <t>EquipName_PickAxe</t>
+  </si>
+  <si>
+    <t>Equip010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipGachaWeight|Float</t>
   </si>
 </sst>
 </file>
@@ -534,7 +538,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -542,9 +546,10 @@
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="9" collapsed="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="14.5" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="9" collapsed="1"/>
   </cols>
   <sheetData>
@@ -553,42 +558,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
-        <v>35</v>
+      <c r="J1" t="s">
+        <v>40</v>
       </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2" ca="1" si="0">VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -601,20 +609,23 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G15" si="1">COUNTIF(F:F,F2)</f>
+        <f t="shared" ref="G2:G8" si="1">COUNTIF(F:F,F2)</f>
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -622,36 +633,39 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C15" ca="1" si="2">VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -659,36 +673,39 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -696,36 +713,39 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -733,36 +753,39 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -770,36 +793,39 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>600</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -807,36 +833,39 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>700</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -844,10 +873,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
@@ -860,19 +889,22 @@
         <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -883,32 +915,35 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -919,29 +954,32 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>301</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -949,29 +987,32 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>401</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -979,94 +1020,103 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>501</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>601</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>701</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15" xr:uid="{5A0C6A56-06C4-409A-9688-67CF5E80A796}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E935E73-21E0-4887-AF7B-D4F229A4AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6D8E7D-657E-4724-A2AE-BE3D11F1676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
+    <sheet name="EquipCompositeTable" sheetId="2" r:id="rId2"/>
+    <sheet name="EquipGradeTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipTable!$X$1:$X$463</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="128">
   <si>
     <t>equipId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +420,46 @@
     <t>DarkNpcSword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>grade|int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compositeLevelMax|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compositeLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last4digitSame|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialGrade|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialRarity|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compositeDone|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyPartsPossible|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -782,11 +824,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECD02AC-A572-4237-AAB5-CDCD8164017D}">
   <dimension ref="A1:AD463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -23982,7 +24024,7 @@
         <v>111</v>
       </c>
       <c r="J450">
-        <f t="shared" ref="J450:J513" si="122">COUNTIF(I:I,I450)</f>
+        <f t="shared" ref="J450:J463" si="122">COUNTIF(I:I,I450)</f>
         <v>7</v>
       </c>
       <c r="K450" t="str">
@@ -24661,4 +24703,2403 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4B2944-7E28-40FF-BA5C-A421EEFD2227}">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f ca="1">VLOOKUP(B2,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <f>IF(AND(C2=6,D2=5),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>IF(C2=6,C2-1,C2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <f ca="1">VLOOKUP(H2,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f ca="1">VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E58" si="0">IF(AND(C3=6,D3=5),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G58" si="1">IF(C3=6,C3-1,C3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I52" ca="1" si="2">VLOOKUP(H3,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f ca="1">VLOOKUP(B4,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f ca="1">VLOOKUP(B5,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f ca="1">VLOOKUP(B6,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f ca="1">VLOOKUP(B7,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f ca="1">VLOOKUP(B8,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f ca="1">VLOOKUP(B9,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f ca="1">VLOOKUP(B10,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f ca="1">VLOOKUP(B11,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f ca="1">VLOOKUP(B12,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f ca="1">VLOOKUP(B13,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f ca="1">VLOOKUP(B14,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" ref="A15:A52" ca="1" si="3">VLOOKUP(B15,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" ref="A53:A58" ca="1" si="4">VLOOKUP(B53,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ref="I53:I58" ca="1" si="5">VLOOKUP(H53,OFFSET(INDIRECT("$A:$B"),0,MATCH(H$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 H53 B2:B43 H2:H46 H48:H51" xr:uid="{A8BFF03D-0B28-460F-BFBA-955D27698617}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10362FC-4F9D-41C0-866C-C43B2892ADA3}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD20F144-CDB7-46A2-A6BA-B2A54E5FCCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14127D75-EE3C-481A-B06E-2AA6827C5A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="135">
   <si>
     <t>equipId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,6 +479,14 @@
     <t>atk|Int!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Weapon0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -844,10 +852,10 @@
   <dimension ref="A1:AL346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I8" ca="1" si="8">J6&amp;
+        <f t="shared" ref="I6" ca="1" si="8">J6&amp;
 IF(LEN(K6)=0,"",", "&amp;K6)&amp;
 IF(LEN(L6)=0,"",", "&amp;L6)&amp;
 IF(LEN(M6)=0,"",", "&amp;M6)&amp;
@@ -11787,6 +11795,12 @@
       <c r="T117">
         <v>1</v>
       </c>
+      <c r="AC117" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD117">
+        <v>4</v>
+      </c>
       <c r="AE117">
         <v>0</v>
       </c>
@@ -11875,6 +11889,12 @@
       <c r="T118">
         <v>1</v>
       </c>
+      <c r="AC118" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD118">
+        <v>4</v>
+      </c>
       <c r="AE118">
         <v>0</v>
       </c>
@@ -11962,6 +11982,12 @@
       </c>
       <c r="T119">
         <v>1</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD119">
+        <v>4</v>
       </c>
       <c r="AE119">
         <v>0</v>
@@ -12051,6 +12077,12 @@
       <c r="T120">
         <v>1</v>
       </c>
+      <c r="AC120" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD120">
+        <v>4</v>
+      </c>
       <c r="AE120">
         <v>0</v>
       </c>
@@ -12139,6 +12171,12 @@
       <c r="T121">
         <v>1</v>
       </c>
+      <c r="AC121" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD121">
+        <v>4</v>
+      </c>
       <c r="AE121">
         <v>0</v>
       </c>
@@ -12227,6 +12265,12 @@
       <c r="T122">
         <v>1</v>
       </c>
+      <c r="AC122" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD122">
+        <v>4</v>
+      </c>
       <c r="AE122">
         <v>0</v>
       </c>
@@ -12314,6 +12358,12 @@
       </c>
       <c r="T123">
         <v>1</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD123">
+        <v>4</v>
       </c>
       <c r="AE123">
         <v>0</v>
@@ -15048,6 +15098,12 @@
       <c r="T154">
         <v>1</v>
       </c>
+      <c r="AC154" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD154">
+        <v>4</v>
+      </c>
       <c r="AE154">
         <v>0</v>
       </c>
@@ -15136,6 +15192,12 @@
       <c r="T155">
         <v>1</v>
       </c>
+      <c r="AC155" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD155">
+        <v>4</v>
+      </c>
       <c r="AE155">
         <v>0</v>
       </c>
@@ -15223,6 +15285,12 @@
       </c>
       <c r="T156">
         <v>1</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD156">
+        <v>4</v>
       </c>
       <c r="AE156">
         <v>0</v>
@@ -15312,6 +15380,12 @@
       <c r="T157">
         <v>1</v>
       </c>
+      <c r="AC157" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD157">
+        <v>4</v>
+      </c>
       <c r="AE157">
         <v>0</v>
       </c>
@@ -15400,6 +15474,12 @@
       <c r="T158">
         <v>1</v>
       </c>
+      <c r="AC158" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD158">
+        <v>4</v>
+      </c>
       <c r="AE158">
         <v>0</v>
       </c>
@@ -15488,6 +15568,12 @@
       <c r="T159">
         <v>1</v>
       </c>
+      <c r="AC159" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD159">
+        <v>4</v>
+      </c>
       <c r="AE159">
         <v>0</v>
       </c>
@@ -15575,6 +15661,12 @@
       </c>
       <c r="T160">
         <v>1</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD160">
+        <v>4</v>
       </c>
       <c r="AE160">
         <v>0</v>
@@ -29764,7 +29856,7 @@
         <v>Equip058002</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" ref="B322:B385" ca="1" si="111">RIGHT(A322,4)</f>
+        <f t="shared" ref="B322:B346" ca="1" si="111">RIGHT(A322,4)</f>
         <v>8002</v>
       </c>
       <c r="C322">
@@ -29833,7 +29925,7 @@
         <v>109</v>
       </c>
       <c r="Q322">
-        <f t="shared" ref="Q322:Q385" si="113">COUNTIF(P:P,P322)</f>
+        <f t="shared" ref="Q322:Q346" si="113">COUNTIF(P:P,P322)</f>
         <v>7</v>
       </c>
       <c r="R322" t="str">
@@ -33093,7 +33185,7 @@
         <v>22</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" ca="1" si="4">VLOOKUP(F34,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="G34:G58" ca="1" si="4">VLOOKUP(F34,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="H34">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5479F886-189B-4D64-BE24-0CB9C63A0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83CF572-4D78-41D5-8BDE-9DD3E3BC2594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="216">
   <si>
     <t>equipId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,6 +708,40 @@
     <t>option4|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CriticalRate</t>
+  </si>
+  <si>
+    <t>CriticalDamageAddRate</t>
+  </si>
+  <si>
+    <t>NormalMonsterDamageIncreaseAddRate</t>
+  </si>
+  <si>
+    <t>BossMonsterDamageIncreaseAddRate</t>
+  </si>
+  <si>
+    <t>NormalMonsterHpDecreaseAddRate</t>
+  </si>
+  <si>
+    <t>BossMonsterHpDecreaseAddRate</t>
+  </si>
+  <si>
+    <t>StrikeRate</t>
+  </si>
+  <si>
+    <t>StrikeDamageAddRate</t>
+  </si>
+  <si>
+    <t>InstantDeathRate</t>
+  </si>
+  <si>
+    <t>KnockbackRate</t>
+  </si>
+  <si>
+    <t>optionType_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1070,15 +1104,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECD02AC-A572-4237-AAB5-CDCD8164017D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1094,9 +1127,11 @@
     <col min="22" max="22" width="9" customWidth="1" outlineLevel="1"/>
     <col min="24" max="25" width="9" customWidth="1" outlineLevel="1"/>
     <col min="27" max="28" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="37.25" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1175,8 +1210,14 @@
       <c r="AB1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A33" ca="1" si="0">"E"&amp;TEXT(C2,"0")&amp;TEXT(E2,"0")&amp;TEXT(F2,"00")</f>
         <v>E0001</v>
@@ -1202,22 +1243,22 @@
         <v>201</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="3">COUNTIF(G:G,G2)</f>
+        <f>COUNTIF(G:G,G2)</f>
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I11" si="4">"Shot_"&amp;G2</f>
+        <f t="shared" ref="I2:I11" si="3">"Shot_"&amp;G2</f>
         <v>Shot_FairyAxe</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J11" si="5">"EquipName_"&amp;G2</f>
+        <f t="shared" ref="J2:J11" si="4">"EquipName_"&amp;G2</f>
         <v>EquipName_FairyAxe</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2">
         <v>5.0000000000000001E-3</v>
@@ -1261,8 +1302,14 @@
       <c r="AB2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E0002</v>
@@ -1271,14 +1318,14 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" ca="1" si="6">VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C3:C5" ca="1" si="5">VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" ca="1" si="7">VLOOKUP(D3,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E3:E5" ca="1" si="6">VLOOKUP(D3,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1288,15 +1335,15 @@
         <v>29</v>
       </c>
       <c r="H3">
+        <f>COUNTIF(G:G,G3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
+        <v>Shot_StAxe</v>
+      </c>
+      <c r="J3" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_StAxe</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_StAxe</v>
       </c>
       <c r="K3">
@@ -1317,8 +1364,14 @@
       <c r="AB3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E0003</v>
@@ -1327,14 +1380,14 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -1344,15 +1397,15 @@
         <v>202</v>
       </c>
       <c r="H4">
+        <f>COUNTIF(G:G,G4)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I4" t="str">
+        <v>Shot_SlicerAxe</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_SlicerAxe</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_SlicerAxe</v>
       </c>
       <c r="K4">
@@ -1373,8 +1426,14 @@
       <c r="AB4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E0101</v>
@@ -1383,14 +1442,14 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -1400,22 +1459,22 @@
         <v>203</v>
       </c>
       <c r="H5">
+        <f>COUNTIF(G:G,G5)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I5" t="str">
+        <v>Shot_StylizedAxe</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_StylizedAxe</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_StylizedAxe</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5">
         <v>1E-3</v>
@@ -1447,8 +1506,14 @@
       <c r="Y5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E0102</v>
@@ -1457,14 +1522,14 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C12" ca="1" si="8">VLOOKUP(B6,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C6:C12" ca="1" si="7">VLOOKUP(B6,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E12" ca="1" si="9">VLOOKUP(D6,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E6:E12" ca="1" si="8">VLOOKUP(D6,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -1474,15 +1539,15 @@
         <v>48</v>
       </c>
       <c r="H6">
+        <f>COUNTIF(G:G,G6)</f>
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I6" t="str">
+        <v>Shot_RunicAxe</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_RunicAxe</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_RunicAxe</v>
       </c>
       <c r="K6">
@@ -1497,8 +1562,14 @@
       <c r="Y6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E0201</v>
@@ -1507,14 +1578,14 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="F7">
@@ -1524,15 +1595,15 @@
         <v>49</v>
       </c>
       <c r="H7">
+        <f>COUNTIF(G:G,G7)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I7" t="str">
+        <v>Shot_ElvenAxe</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_ElvenAxe</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_ElvenAxe</v>
       </c>
       <c r="K7">
@@ -1547,8 +1618,14 @@
       <c r="Y7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E0202</v>
@@ -1557,14 +1634,14 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8" ca="1" si="10">VLOOKUP(B8,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C8" ca="1" si="9">VLOOKUP(B8,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" ca="1" si="11">VLOOKUP(D8,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E8" ca="1" si="10">VLOOKUP(D8,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F8">
@@ -1574,15 +1651,15 @@
         <v>50</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G8)</f>
         <v>1</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ref="I8" si="12">"Shot_"&amp;G8</f>
+        <f t="shared" ref="I8" si="11">"Shot_"&amp;G8</f>
         <v>Shot_ArsenalAxe</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8" si="13">"EquipName_"&amp;G8</f>
+        <f t="shared" ref="J8" si="12">"EquipName_"&amp;G8</f>
         <v>EquipName_ArsenalAxe</v>
       </c>
       <c r="K8">
@@ -1597,8 +1674,14 @@
       <c r="Y8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1001</v>
@@ -1607,14 +1690,14 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -1624,15 +1707,15 @@
         <v>51</v>
       </c>
       <c r="H9">
+        <f>COUNTIF(G:G,G9)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I9" t="str">
+        <v>Shot_FourMaker31</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_FourMaker31</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_FourMaker31</v>
       </c>
       <c r="K9">
@@ -1647,8 +1730,14 @@
       <c r="Y9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1002</v>
@@ -1657,14 +1746,14 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -1674,15 +1763,15 @@
         <v>52</v>
       </c>
       <c r="H10">
+        <f>COUNTIF(G:G,G10)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I10" t="str">
+        <v>Shot_FourMaker84</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_FourMaker84</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_FourMaker84</v>
       </c>
       <c r="K10">
@@ -1697,8 +1786,14 @@
       <c r="Y10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1003</v>
@@ -1707,14 +1802,14 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -1724,15 +1819,15 @@
         <v>53</v>
       </c>
       <c r="H11">
+        <f>COUNTIF(G:G,G11)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I11" t="str">
+        <v>Shot_FourMaker97</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="4"/>
-        <v>Shot_FourMaker97</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="5"/>
         <v>EquipName_FourMaker97</v>
       </c>
       <c r="K11">
@@ -1741,8 +1836,14 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1101</v>
@@ -1751,14 +1852,14 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="F12">
@@ -1768,15 +1869,15 @@
         <v>54</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G12)</f>
         <v>1</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ref="I12:I22" si="14">"Shot_"&amp;G12</f>
+        <f t="shared" ref="I12:I22" si="13">"Shot_"&amp;G12</f>
         <v>Shot_FourMaker83</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:J22" si="15">"EquipName_"&amp;G12</f>
+        <f t="shared" ref="J12:J22" si="14">"EquipName_"&amp;G12</f>
         <v>EquipName_FourMaker83</v>
       </c>
       <c r="K12">
@@ -1786,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1102</v>
@@ -1795,14 +1896,14 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C20" ca="1" si="16">VLOOKUP(B13,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C13:C20" ca="1" si="15">VLOOKUP(B13,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E20" ca="1" si="17">VLOOKUP(D13,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E13:E20" ca="1" si="16">VLOOKUP(D13,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F13">
@@ -1812,15 +1913,15 @@
         <v>55</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G13)</f>
         <v>1</v>
       </c>
       <c r="I13" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_FourMaker94</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_FourMaker94</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_FourMaker94</v>
       </c>
       <c r="K13">
@@ -1830,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1201</v>
@@ -1839,14 +1940,14 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="F14">
@@ -1856,15 +1957,15 @@
         <v>56</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G14)</f>
         <v>1</v>
       </c>
       <c r="I14" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_FourMaker129</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_FourMaker129</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_FourMaker129</v>
       </c>
       <c r="K14">
@@ -1874,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1202</v>
@@ -1883,14 +1984,14 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15" ca="1" si="18">VLOOKUP(B15,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C15" ca="1" si="17">VLOOKUP(B15,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" ca="1" si="19">VLOOKUP(D15,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E15" ca="1" si="18">VLOOKUP(D15,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F15">
@@ -1900,15 +2001,15 @@
         <v>57</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G15)</f>
         <v>1</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15" si="20">"Shot_"&amp;G15</f>
+        <f t="shared" ref="I15" si="19">"Shot_"&amp;G15</f>
         <v>Shot_FourMaker22</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15" si="21">"EquipName_"&amp;G15</f>
+        <f t="shared" ref="J15" si="20">"EquipName_"&amp;G15</f>
         <v>EquipName_FourMaker22</v>
       </c>
       <c r="K15">
@@ -1918,7 +2019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E1203</v>
@@ -1927,14 +2028,14 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16" ca="1" si="22">VLOOKUP(B16,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C16" ca="1" si="21">VLOOKUP(B16,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" ca="1" si="23">VLOOKUP(D16,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E16" ca="1" si="22">VLOOKUP(D16,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F16">
@@ -1944,15 +2045,15 @@
         <v>58</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G16)</f>
         <v>1</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ref="I16" si="24">"Shot_"&amp;G16</f>
+        <f t="shared" ref="I16" si="23">"Shot_"&amp;G16</f>
         <v>Shot_FourMaker75</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16" si="25">"EquipName_"&amp;G16</f>
+        <f t="shared" ref="J16" si="24">"EquipName_"&amp;G16</f>
         <v>EquipName_FourMaker75</v>
       </c>
       <c r="K16">
@@ -1971,14 +2072,14 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -1988,22 +2089,22 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G17)</f>
         <v>1</v>
       </c>
       <c r="I17" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_JimHdBow6</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_JimHdBow6</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_JimHdBow6</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M17">
         <v>5.0000000000000001E-3</v>
@@ -2045,14 +2146,14 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -2062,15 +2163,15 @@
         <v>60</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G18)</f>
         <v>1</v>
       </c>
       <c r="I18" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_JimHdBow9</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_JimHdBow9</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_JimHdBow9</v>
       </c>
       <c r="K18">
@@ -2089,14 +2190,14 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -2106,15 +2207,15 @@
         <v>61</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G19)</f>
         <v>1</v>
       </c>
       <c r="I19" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_GoldenBow2</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_GoldenBow2</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_GoldenBow2</v>
       </c>
       <c r="K19">
@@ -2133,14 +2234,14 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="F20">
@@ -2150,15 +2251,15 @@
         <v>62</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G20)</f>
         <v>1</v>
       </c>
       <c r="I20" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_IchkaBow</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_IchkaBow</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_IchkaBow</v>
       </c>
       <c r="K20">
@@ -2177,14 +2278,14 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C27" ca="1" si="26">VLOOKUP(B21,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C21:C27" ca="1" si="25">VLOOKUP(B21,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E27" ca="1" si="27">VLOOKUP(D21,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E21:E27" ca="1" si="26">VLOOKUP(D21,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F21">
@@ -2194,15 +2295,15 @@
         <v>63</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G21)</f>
         <v>1</v>
       </c>
       <c r="I21" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_GoldenBow3</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_GoldenBow3</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_GoldenBow3</v>
       </c>
       <c r="K21">
@@ -2221,16 +2322,16 @@
         <v>31</v>
       </c>
       <c r="C22">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
         <f t="shared" ca="1" si="26"/>
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="27"/>
-        <v>2</v>
-      </c>
       <c r="F22">
         <v>1</v>
       </c>
@@ -2238,15 +2339,15 @@
         <v>64</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G22)</f>
         <v>1</v>
       </c>
       <c r="I22" t="str">
+        <f t="shared" si="13"/>
+        <v>Shot_ElvenBow</v>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="14"/>
-        <v>Shot_ElvenBow</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="15"/>
         <v>EquipName_ElvenBow</v>
       </c>
       <c r="K22">
@@ -2256,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E2202</v>
@@ -2265,14 +2366,14 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23" ca="1" si="28">VLOOKUP(B23,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C23" ca="1" si="27">VLOOKUP(B23,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" ca="1" si="29">VLOOKUP(D23,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E23" ca="1" si="28">VLOOKUP(D23,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F23">
@@ -2282,15 +2383,15 @@
         <v>65</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G23)</f>
         <v>1</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23" si="30">"Shot_"&amp;G23</f>
+        <f t="shared" ref="I23" si="29">"Shot_"&amp;G23</f>
         <v>Shot_FantasySetBow1</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23" si="31">"EquipName_"&amp;G23</f>
+        <f t="shared" ref="J23" si="30">"EquipName_"&amp;G23</f>
         <v>EquipName_FantasySetBow1</v>
       </c>
       <c r="K23">
@@ -2309,14 +2410,14 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="25"/>
         <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -2326,15 +2427,15 @@
         <v>66</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G24)</f>
         <v>1</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" ref="I24:I33" si="32">"Shot_"&amp;G24</f>
+        <f t="shared" ref="I24:I33" si="31">"Shot_"&amp;G24</f>
         <v>Shot_ArmoryAngSpear</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24:J33" si="33">"EquipName_"&amp;G24</f>
+        <f t="shared" ref="J24:J33" si="32">"EquipName_"&amp;G24</f>
         <v>EquipName_ArmoryAngSpear</v>
       </c>
       <c r="K24">
@@ -2359,14 +2460,14 @@
         <v>42</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="25"/>
         <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -2376,15 +2477,15 @@
         <v>67</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G25)</f>
         <v>1</v>
       </c>
       <c r="I25" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_FantasySetStaff1</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_FantasySetStaff1</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_FantasySetStaff1</v>
       </c>
       <c r="K25">
@@ -2403,14 +2504,14 @@
         <v>42</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="25"/>
         <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="F26">
@@ -2420,15 +2521,15 @@
         <v>68</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G26)</f>
         <v>1</v>
       </c>
       <c r="I26" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_FantasySetStaff4</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_FantasySetStaff4</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_FantasySetStaff4</v>
       </c>
       <c r="K26">
@@ -2447,14 +2548,14 @@
         <v>42</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="25"/>
         <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="F27">
@@ -2464,15 +2565,15 @@
         <v>69</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G27)</f>
         <v>1</v>
       </c>
       <c r="I27" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_ArmoryWand1</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_ArmoryWand1</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_ArmoryWand1</v>
       </c>
       <c r="K27">
@@ -2491,14 +2592,14 @@
         <v>42</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C36" ca="1" si="34">VLOOKUP(B28,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C28:C36" ca="1" si="33">VLOOKUP(B28,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E36" ca="1" si="35">VLOOKUP(D28,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E28:E36" ca="1" si="34">VLOOKUP(D28,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F28">
@@ -2508,15 +2609,15 @@
         <v>70</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G28)</f>
         <v>1</v>
       </c>
       <c r="I28" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_MetalStaff</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_MetalStaff</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_MetalStaff</v>
       </c>
       <c r="K28">
@@ -2535,14 +2636,14 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>2</v>
       </c>
       <c r="F29">
@@ -2552,15 +2653,15 @@
         <v>71</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G29)</f>
         <v>1</v>
       </c>
       <c r="I29" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_HqStaff</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_HqStaff</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_HqStaff</v>
       </c>
       <c r="K29">
@@ -2570,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>E3202</v>
@@ -2579,14 +2680,14 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30" ca="1" si="36">VLOOKUP(B30,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C30" ca="1" si="35">VLOOKUP(B30,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" ca="1" si="37">VLOOKUP(D30,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E30" ca="1" si="36">VLOOKUP(D30,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F30">
@@ -2596,15 +2697,15 @@
         <v>72</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G30)</f>
         <v>1</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" ref="I30" si="38">"Shot_"&amp;G30</f>
+        <f t="shared" ref="I30" si="37">"Shot_"&amp;G30</f>
         <v>Shot_ArsenalStaff</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ref="J30" si="39">"EquipName_"&amp;G30</f>
+        <f t="shared" ref="J30" si="38">"EquipName_"&amp;G30</f>
         <v>EquipName_ArsenalStaff</v>
       </c>
       <c r="K30">
@@ -2623,14 +2724,14 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>4</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="F31">
@@ -2640,15 +2741,15 @@
         <v>73</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G31)</f>
         <v>1</v>
       </c>
       <c r="I31" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_RunicHammer</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_RunicHammer</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_RunicHammer</v>
       </c>
       <c r="K31">
@@ -2673,14 +2774,14 @@
         <v>44</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -2690,15 +2791,15 @@
         <v>74</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G32)</f>
         <v>1</v>
       </c>
       <c r="I32" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_MorningStar</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_MorningStar</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_MorningStar</v>
       </c>
       <c r="K32">
@@ -2717,14 +2818,14 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -2734,15 +2835,15 @@
         <v>75</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(G:G,G33)</f>
         <v>1</v>
       </c>
       <c r="I33" t="str">
+        <f t="shared" si="31"/>
+        <v>Shot_StrongMaul</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="32"/>
-        <v>Shot_StrongMaul</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="33"/>
         <v>EquipName_StrongMaul</v>
       </c>
       <c r="K33">
@@ -2754,21 +2855,21 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:A67" ca="1" si="40">"E"&amp;TEXT(C34,"0")&amp;TEXT(E34,"0")&amp;TEXT(F34,"00")</f>
+        <f t="shared" ref="A34:A67" ca="1" si="39">"E"&amp;TEXT(C34,"0")&amp;TEXT(E34,"0")&amp;TEXT(F34,"00")</f>
         <v>E4101</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
       <c r="F34">
@@ -2778,15 +2879,15 @@
         <v>76</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="41">COUNTIF(G:G,G34)</f>
+        <f>COUNTIF(G:G,G34)</f>
         <v>1</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" ref="I34:I41" si="42">"Shot_"&amp;G34</f>
+        <f t="shared" ref="I34:I41" si="40">"Shot_"&amp;G34</f>
         <v>Shot_ArmoryHammer11</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J41" si="43">"EquipName_"&amp;G34</f>
+        <f t="shared" ref="J34:J41" si="41">"EquipName_"&amp;G34</f>
         <v>EquipName_ArmoryHammer11</v>
       </c>
       <c r="K34">
@@ -2798,21 +2899,21 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E4102</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>1</v>
       </c>
       <c r="F35">
@@ -2822,15 +2923,15 @@
         <v>77</v>
       </c>
       <c r="H35">
+        <f>COUNTIF(G:G,G35)</f>
+        <v>1</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="40"/>
+        <v>Shot_MeleeHammer</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="42"/>
-        <v>Shot_MeleeHammer</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="43"/>
         <v>EquipName_MeleeHammer</v>
       </c>
       <c r="K35">
@@ -2842,21 +2943,21 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E4201</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="33"/>
         <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="34"/>
         <v>2</v>
       </c>
       <c r="F36">
@@ -2866,15 +2967,15 @@
         <v>78</v>
       </c>
       <c r="H36">
+        <f>COUNTIF(G:G,G36)</f>
+        <v>1</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="40"/>
+        <v>Shot_DwarfHammer</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="42"/>
-        <v>Shot_DwarfHammer</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="43"/>
         <v>EquipName_DwarfHammer</v>
       </c>
       <c r="K36">
@@ -2884,23 +2985,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E4202</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37" ca="1" si="44">VLOOKUP(B37,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C37" ca="1" si="42">VLOOKUP(B37,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" ca="1" si="45">VLOOKUP(D37,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E37" ca="1" si="43">VLOOKUP(D37,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F37">
@@ -2910,15 +3011,15 @@
         <v>79</v>
       </c>
       <c r="H37">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G37)</f>
         <v>1</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37" si="46">"Shot_"&amp;G37</f>
+        <f t="shared" ref="I37" si="44">"Shot_"&amp;G37</f>
         <v>Shot_ArsenalGoldHammer</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37" si="47">"EquipName_"&amp;G37</f>
+        <f t="shared" ref="J37" si="45">"EquipName_"&amp;G37</f>
         <v>EquipName_ArsenalGoldHammer</v>
       </c>
       <c r="K37">
@@ -2928,23 +3029,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E4203</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38" ca="1" si="48">VLOOKUP(B38,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C38" ca="1" si="46">VLOOKUP(B38,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" ca="1" si="49">VLOOKUP(D38,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E38" ca="1" si="47">VLOOKUP(D38,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F38">
@@ -2954,15 +3055,15 @@
         <v>80</v>
       </c>
       <c r="H38">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G38)</f>
         <v>1</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" ref="I38" si="50">"Shot_"&amp;G38</f>
+        <f t="shared" ref="I38" si="48">"Shot_"&amp;G38</f>
         <v>Shot_ArsenalHammer</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38" si="51">"EquipName_"&amp;G38</f>
+        <f t="shared" ref="J38" si="49">"EquipName_"&amp;G38</f>
         <v>EquipName_ArsenalHammer</v>
       </c>
       <c r="K38">
@@ -2974,21 +3075,21 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E5001</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C48" ca="1" si="52">VLOOKUP(B39,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C39:C48" ca="1" si="50">VLOOKUP(B39,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>5</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E48" ca="1" si="53">VLOOKUP(D39,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E39:E48" ca="1" si="51">VLOOKUP(D39,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="F39">
@@ -2998,15 +3099,15 @@
         <v>81</v>
       </c>
       <c r="H39">
+        <f>COUNTIF(G:G,G39)</f>
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="40"/>
+        <v>Shot_SciFantasyRapier</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="42"/>
-        <v>Shot_SciFantasyRapier</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="43"/>
         <v>EquipName_SciFantasyRapier</v>
       </c>
       <c r="K39">
@@ -3018,21 +3119,21 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E5002</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>5</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -3042,15 +3143,15 @@
         <v>82</v>
       </c>
       <c r="H40">
+        <f>COUNTIF(G:G,G40)</f>
+        <v>1</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="40"/>
+        <v>Shot_JimHdAssassin12</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="42"/>
-        <v>Shot_JimHdAssassin12</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="43"/>
         <v>EquipName_JimHdAssassin12</v>
       </c>
       <c r="K40">
@@ -3062,21 +3163,21 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E5003</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>5</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -3086,15 +3187,15 @@
         <v>83</v>
       </c>
       <c r="H41">
+        <f>COUNTIF(G:G,G41)</f>
+        <v>1</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="40"/>
+        <v>Shot_StylizedSword</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="42"/>
-        <v>Shot_StylizedSword</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="43"/>
         <v>EquipName_StylizedSword</v>
       </c>
       <c r="K41">
@@ -3106,21 +3207,21 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E5101</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1</v>
       </c>
       <c r="F42">
@@ -3130,15 +3231,15 @@
         <v>84</v>
       </c>
       <c r="H42">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G42)</f>
         <v>1</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" ref="I42:I51" si="54">"Shot_"&amp;G42</f>
+        <f t="shared" ref="I42:I51" si="52">"Shot_"&amp;G42</f>
         <v>Shot_JimHdAssassin11</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ref="J42:J51" si="55">"EquipName_"&amp;G42</f>
+        <f t="shared" ref="J42:J51" si="53">"EquipName_"&amp;G42</f>
         <v>EquipName_JimHdAssassin11</v>
       </c>
       <c r="K42">
@@ -3150,21 +3251,21 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E5102</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1</v>
       </c>
       <c r="F43">
@@ -3174,15 +3275,15 @@
         <v>85</v>
       </c>
       <c r="H43">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G43)</f>
         <v>1</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_FourMaker152</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_FourMaker152</v>
       </c>
       <c r="K43">
@@ -3194,21 +3295,21 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E5201</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>5</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>2</v>
       </c>
       <c r="F44">
@@ -3218,15 +3319,15 @@
         <v>86</v>
       </c>
       <c r="H44">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G44)</f>
         <v>1</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_FourMaker140</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_FourMaker140</v>
       </c>
       <c r="K44">
@@ -3236,23 +3337,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E5202</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45" ca="1" si="56">VLOOKUP(B45,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C45" ca="1" si="54">VLOOKUP(B45,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>5</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" ca="1" si="57">VLOOKUP(D45,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E45" ca="1" si="55">VLOOKUP(D45,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F45">
@@ -3262,15 +3363,15 @@
         <v>87</v>
       </c>
       <c r="H45">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G45)</f>
         <v>1</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45" si="58">"Shot_"&amp;G45</f>
+        <f t="shared" ref="I45" si="56">"Shot_"&amp;G45</f>
         <v>Shot_ArsenalSword</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45" si="59">"EquipName_"&amp;G45</f>
+        <f t="shared" ref="J45" si="57">"EquipName_"&amp;G45</f>
         <v>EquipName_ArsenalSword</v>
       </c>
       <c r="K45">
@@ -3282,21 +3383,21 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E6001</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>6</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -3306,15 +3407,15 @@
         <v>88</v>
       </c>
       <c r="H46">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G46)</f>
         <v>1</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_SMG31</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_SMG31</v>
       </c>
       <c r="K46">
@@ -3326,21 +3427,21 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E6002</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="F47">
@@ -3350,15 +3451,15 @@
         <v>89</v>
       </c>
       <c r="H47">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G47)</f>
         <v>1</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_SciFiWarriorGun</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_SciFiWarriorGun</v>
       </c>
       <c r="K47">
@@ -3370,21 +3471,21 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E6003</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="50"/>
         <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -3394,15 +3495,15 @@
         <v>90</v>
       </c>
       <c r="H48">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G48)</f>
         <v>1</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_SciFiGun</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_SciFiGun</v>
       </c>
       <c r="K48">
@@ -3414,21 +3515,21 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E6101</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C58" ca="1" si="60">VLOOKUP(B49,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C49:C58" ca="1" si="58">VLOOKUP(B49,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E58" ca="1" si="61">VLOOKUP(D49,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E49:E58" ca="1" si="59">VLOOKUP(D49,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F49">
@@ -3438,15 +3539,15 @@
         <v>91</v>
       </c>
       <c r="H49">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G49)</f>
         <v>1</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_SciFiRifle3</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_SciFiRifle3</v>
       </c>
       <c r="K49">
@@ -3458,21 +3559,21 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E6102</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>6</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>1</v>
       </c>
       <c r="F50">
@@ -3482,15 +3583,15 @@
         <v>92</v>
       </c>
       <c r="H50">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G50)</f>
         <v>1</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_SciFiRifle4</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_SciFiRifle4</v>
       </c>
       <c r="K50">
@@ -3502,21 +3603,21 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E6201</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>2</v>
       </c>
       <c r="F51">
@@ -3526,15 +3627,15 @@
         <v>93</v>
       </c>
       <c r="H51">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G51)</f>
         <v>1</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>Shot_SciFiRocketLauncher</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>EquipName_SciFiRocketLauncher</v>
       </c>
       <c r="K51">
@@ -3544,23 +3645,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E6202</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52" ca="1" si="62">VLOOKUP(B52,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C52" ca="1" si="60">VLOOKUP(B52,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52" ca="1" si="63">VLOOKUP(D52,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E52" ca="1" si="61">VLOOKUP(D52,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F52">
@@ -3570,15 +3671,15 @@
         <v>94</v>
       </c>
       <c r="H52">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G52)</f>
         <v>1</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" ref="I52" si="64">"Shot_"&amp;G52</f>
+        <f t="shared" ref="I52" si="62">"Shot_"&amp;G52</f>
         <v>Shot_SciFiPlasmaRifle</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" ref="J52" si="65">"EquipName_"&amp;G52</f>
+        <f t="shared" ref="J52" si="63">"EquipName_"&amp;G52</f>
         <v>EquipName_SciFiPlasmaRifle</v>
       </c>
       <c r="K52">
@@ -3590,21 +3691,21 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7001</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>7</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -3614,15 +3715,15 @@
         <v>95</v>
       </c>
       <c r="H53">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G53)</f>
         <v>1</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" ref="I53:I58" si="66">"Shot_"&amp;G53</f>
+        <f t="shared" ref="I53:I58" si="64">"Shot_"&amp;G53</f>
         <v>Shot_ArmorySet53</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" ref="J53:J58" si="67">"EquipName_"&amp;G53</f>
+        <f t="shared" ref="J53:J58" si="65">"EquipName_"&amp;G53</f>
         <v>EquipName_ArmorySet53</v>
       </c>
       <c r="K53">
@@ -3634,21 +3735,21 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7002</v>
       </c>
       <c r="B54" t="s">
         <v>46</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -3658,15 +3759,15 @@
         <v>96</v>
       </c>
       <c r="H54">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G54)</f>
         <v>1</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>Shot_CelticShield</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>EquipName_CelticShield</v>
       </c>
       <c r="K54">
@@ -3678,21 +3779,21 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7003</v>
       </c>
       <c r="B55" t="s">
         <v>46</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>0</v>
       </c>
       <c r="F55">
@@ -3702,15 +3803,15 @@
         <v>97</v>
       </c>
       <c r="H55">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G55)</f>
         <v>1</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>Shot_FantasyShield</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>EquipName_FantasyShield</v>
       </c>
       <c r="K55">
@@ -3722,21 +3823,21 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7101</v>
       </c>
       <c r="B56" t="s">
         <v>46</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>1</v>
       </c>
       <c r="F56">
@@ -3746,15 +3847,15 @@
         <v>98</v>
       </c>
       <c r="H56">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G56)</f>
         <v>1</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>Shot_ArsenalShield</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>EquipName_ArsenalShield</v>
       </c>
       <c r="K56">
@@ -3766,21 +3867,21 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7102</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>21</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>1</v>
       </c>
       <c r="F57">
@@ -3790,15 +3891,15 @@
         <v>99</v>
       </c>
       <c r="H57">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G57)</f>
         <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>Shot_SpikeShield</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>EquipName_SpikeShield</v>
       </c>
       <c r="K57">
@@ -3810,21 +3911,21 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7201</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="58"/>
         <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="59"/>
         <v>2</v>
       </c>
       <c r="F58">
@@ -3834,15 +3935,15 @@
         <v>100</v>
       </c>
       <c r="H58">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G58)</f>
         <v>1</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>Shot_ChainShield</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>EquipName_ChainShield</v>
       </c>
       <c r="K58">
@@ -3852,23 +3953,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7202</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59" ca="1" si="68">VLOOKUP(B59,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C59" ca="1" si="66">VLOOKUP(B59,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59" ca="1" si="69">VLOOKUP(D59,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E59" ca="1" si="67">VLOOKUP(D59,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F59">
@@ -3878,15 +3979,15 @@
         <v>101</v>
       </c>
       <c r="H59">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G59)</f>
         <v>1</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" ref="I59" si="70">"Shot_"&amp;G59</f>
+        <f t="shared" ref="I59" si="68">"Shot_"&amp;G59</f>
         <v>Shot_OrcShield</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" ref="J59" si="71">"EquipName_"&amp;G59</f>
+        <f t="shared" ref="J59" si="69">"EquipName_"&amp;G59</f>
         <v>EquipName_OrcShield</v>
       </c>
       <c r="K59">
@@ -3896,23 +3997,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E7203</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60" ca="1" si="72">VLOOKUP(B60,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C60" ca="1" si="70">VLOOKUP(B60,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60" ca="1" si="73">VLOOKUP(D60,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E60" ca="1" si="71">VLOOKUP(D60,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F60">
@@ -3922,15 +4023,15 @@
         <v>102</v>
       </c>
       <c r="H60">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G60)</f>
         <v>1</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" ref="I60" si="74">"Shot_"&amp;G60</f>
+        <f t="shared" ref="I60" si="72">"Shot_"&amp;G60</f>
         <v>Shot_ArsenalBigShield</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" ref="J60" si="75">"EquipName_"&amp;G60</f>
+        <f t="shared" ref="J60" si="73">"EquipName_"&amp;G60</f>
         <v>EquipName_ArsenalBigShield</v>
       </c>
       <c r="K60">
@@ -3942,21 +4043,21 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E8001</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:C66" ca="1" si="76">VLOOKUP(B61,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C61:C66" ca="1" si="74">VLOOKUP(B61,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:E66" ca="1" si="77">VLOOKUP(D61,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E61:E66" ca="1" si="75">VLOOKUP(D61,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="F61">
@@ -3966,15 +4067,15 @@
         <v>103</v>
       </c>
       <c r="H61">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G61)</f>
         <v>1</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" ref="I61:I66" si="78">"Shot_"&amp;G61</f>
+        <f t="shared" ref="I61:I66" si="76">"Shot_"&amp;G61</f>
         <v>Shot_StylizedFantasySword</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" ref="J61:J66" si="79">"EquipName_"&amp;G61</f>
+        <f t="shared" ref="J61:J66" si="77">"EquipName_"&amp;G61</f>
         <v>EquipName_StylizedFantasySword</v>
       </c>
       <c r="K61">
@@ -3986,21 +4087,21 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E8002</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="74"/>
         <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
       <c r="F62">
@@ -4010,15 +4111,15 @@
         <v>104</v>
       </c>
       <c r="H62">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G62)</f>
         <v>1</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>Shot_TwoHandSeven</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>EquipName_TwoHandSeven</v>
       </c>
       <c r="K62">
@@ -4030,21 +4131,21 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E8003</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="74"/>
         <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="75"/>
         <v>0</v>
       </c>
       <c r="F63">
@@ -4054,15 +4155,15 @@
         <v>110</v>
       </c>
       <c r="H63">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G63)</f>
         <v>1</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>Shot_FullMetalSword</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>EquipName_FullMetalSword</v>
       </c>
       <c r="K63">
@@ -4074,21 +4175,21 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E8101</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="74"/>
         <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>21</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="75"/>
         <v>1</v>
       </c>
       <c r="F64">
@@ -4098,15 +4199,15 @@
         <v>109</v>
       </c>
       <c r="H64">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G64)</f>
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>Shot_MorfusSword</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>EquipName_MorfusSword</v>
       </c>
       <c r="K64">
@@ -4118,21 +4219,21 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E8102</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="74"/>
         <v>8</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="75"/>
         <v>1</v>
       </c>
       <c r="F65">
@@ -4142,15 +4243,15 @@
         <v>111</v>
       </c>
       <c r="H65">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(G:G,G65)</f>
         <v>1</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>Shot_DarkNpcSword</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>EquipName_DarkNpcSword</v>
       </c>
       <c r="K65">
@@ -4162,21 +4263,21 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E8201</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="74"/>
         <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="75"/>
         <v>2</v>
       </c>
       <c r="F66">
@@ -4186,15 +4287,15 @@
         <v>105</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H67" si="80">COUNTIF(G:G,G66)</f>
+        <f>COUNTIF(G:G,G66)</f>
         <v>1</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>Shot_JimHdSword2</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>EquipName_JimHdSword2</v>
       </c>
       <c r="K66">
@@ -4204,23 +4305,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="39"/>
         <v>E8202</v>
       </c>
       <c r="B67" t="s">
         <v>47</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67" ca="1" si="81">VLOOKUP(B67,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C67" ca="1" si="78">VLOOKUP(B67,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67" ca="1" si="82">VLOOKUP(D67,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E67" ca="1" si="79">VLOOKUP(D67,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F67">
@@ -4230,15 +4331,15 @@
         <v>106</v>
       </c>
       <c r="H67">
-        <f t="shared" si="80"/>
+        <f>COUNTIF(G:G,G67)</f>
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67" si="83">"Shot_"&amp;G67</f>
+        <f t="shared" ref="I67" si="80">"Shot_"&amp;G67</f>
         <v>Shot_ArsenalBigSword</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67" si="84">"EquipName_"&amp;G67</f>
+        <f t="shared" ref="J67" si="81">"EquipName_"&amp;G67</f>
         <v>EquipName_ArsenalBigSword</v>
       </c>
       <c r="K67">
@@ -4249,13 +4350,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="V1:V67" xr:uid="{BECD02AC-A572-4237-AAB5-CDCD8164017D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="V1:V67" xr:uid="{BECD02AC-A572-4237-AAB5-CDCD8164017D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D66 B2:B66" xr:uid="{5A0C6A56-06C4-409A-9688-67CF5E80A796}">
@@ -4270,9 +4365,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926ABF49-53C7-4B32-8065-340AACB1F81C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q346"/>
+  <dimension ref="A1:P346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
@@ -4283,11 +4378,10 @@
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" collapsed="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83CF572-4D78-41D5-8BDE-9DD3E3BC2594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C5BC48-AF3E-4129-909E-C0F814D44572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1243,15 +1243,15 @@
         <v>201</v>
       </c>
       <c r="H2">
-        <f>COUNTIF(G:G,G2)</f>
+        <f t="shared" ref="H2:H33" si="3">COUNTIF(G:G,G2)</f>
         <v>1</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I11" si="3">"Shot_"&amp;G2</f>
+        <f t="shared" ref="I2:I11" si="4">"Shot_"&amp;G2</f>
         <v>Shot_FairyAxe</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J11" si="4">"EquipName_"&amp;G2</f>
+        <f t="shared" ref="J2:J11" si="5">"EquipName_"&amp;G2</f>
         <v>EquipName_FairyAxe</v>
       </c>
       <c r="K2">
@@ -1264,19 +1264,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2">
         <v>0.5</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>0.1</v>
       </c>
       <c r="R2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S2">
         <v>0.15</v>
@@ -1318,14 +1318,14 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" ca="1" si="5">VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C3:C5" ca="1" si="6">VLOOKUP(B3,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" ca="1" si="6">VLOOKUP(D3,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E3:E5" ca="1" si="7">VLOOKUP(D3,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1335,15 +1335,15 @@
         <v>29</v>
       </c>
       <c r="H3">
-        <f>COUNTIF(G:G,G3)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_StAxe</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_StAxe</v>
       </c>
       <c r="K3">
@@ -1380,14 +1380,14 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F4">
@@ -1397,15 +1397,15 @@
         <v>202</v>
       </c>
       <c r="H4">
-        <f>COUNTIF(G:G,G4)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_SlicerAxe</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_SlicerAxe</v>
       </c>
       <c r="K4">
@@ -1442,14 +1442,14 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -1459,15 +1459,15 @@
         <v>203</v>
       </c>
       <c r="H5">
-        <f>COUNTIF(G:G,G5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_StylizedAxe</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_StylizedAxe</v>
       </c>
       <c r="K5">
@@ -1480,19 +1480,19 @@
         <v>1E-3</v>
       </c>
       <c r="N5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O5">
         <v>0.1</v>
       </c>
       <c r="P5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q5">
         <v>1E-3</v>
       </c>
       <c r="R5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S5">
         <v>0.03</v>
@@ -1522,14 +1522,14 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C12" ca="1" si="7">VLOOKUP(B6,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C6:C12" ca="1" si="8">VLOOKUP(B6,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E12" ca="1" si="8">VLOOKUP(D6,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E6:E12" ca="1" si="9">VLOOKUP(D6,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F6">
@@ -1539,15 +1539,15 @@
         <v>48</v>
       </c>
       <c r="H6">
-        <f>COUNTIF(G:G,G6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_RunicAxe</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_RunicAxe</v>
       </c>
       <c r="K6">
@@ -1578,14 +1578,14 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="F7">
@@ -1595,15 +1595,15 @@
         <v>49</v>
       </c>
       <c r="H7">
-        <f>COUNTIF(G:G,G7)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_ElvenAxe</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_ElvenAxe</v>
       </c>
       <c r="K7">
@@ -1634,14 +1634,14 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8" ca="1" si="9">VLOOKUP(B8,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C8" ca="1" si="10">VLOOKUP(B8,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" ca="1" si="10">VLOOKUP(D8,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E8" ca="1" si="11">VLOOKUP(D8,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F8">
@@ -1651,15 +1651,15 @@
         <v>50</v>
       </c>
       <c r="H8">
-        <f>COUNTIF(G:G,G8)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ref="I8" si="11">"Shot_"&amp;G8</f>
+        <f t="shared" ref="I8" si="12">"Shot_"&amp;G8</f>
         <v>Shot_ArsenalAxe</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8" si="12">"EquipName_"&amp;G8</f>
+        <f t="shared" ref="J8" si="13">"EquipName_"&amp;G8</f>
         <v>EquipName_ArsenalAxe</v>
       </c>
       <c r="K8">
@@ -1690,14 +1690,14 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -1707,15 +1707,15 @@
         <v>51</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(G:G,G9)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_FourMaker31</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_FourMaker31</v>
       </c>
       <c r="K9">
@@ -1746,14 +1746,14 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="F10">
@@ -1763,15 +1763,15 @@
         <v>52</v>
       </c>
       <c r="H10">
-        <f>COUNTIF(G:G,G10)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_FourMaker84</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_FourMaker84</v>
       </c>
       <c r="K10">
@@ -1802,14 +1802,14 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="F11">
@@ -1819,15 +1819,15 @@
         <v>53</v>
       </c>
       <c r="H11">
-        <f>COUNTIF(G:G,G11)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Shot_FourMaker97</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EquipName_FourMaker97</v>
       </c>
       <c r="K11">
@@ -1852,14 +1852,14 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="F12">
@@ -1869,15 +1869,15 @@
         <v>54</v>
       </c>
       <c r="H12">
-        <f>COUNTIF(G:G,G12)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ref="I12:I22" si="13">"Shot_"&amp;G12</f>
+        <f t="shared" ref="I12:I22" si="14">"Shot_"&amp;G12</f>
         <v>Shot_FourMaker83</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:J22" si="14">"EquipName_"&amp;G12</f>
+        <f t="shared" ref="J12:J22" si="15">"EquipName_"&amp;G12</f>
         <v>EquipName_FourMaker83</v>
       </c>
       <c r="K12">
@@ -1896,14 +1896,14 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C20" ca="1" si="15">VLOOKUP(B13,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C13:C20" ca="1" si="16">VLOOKUP(B13,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E20" ca="1" si="16">VLOOKUP(D13,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E13:E20" ca="1" si="17">VLOOKUP(D13,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F13">
@@ -1913,15 +1913,15 @@
         <v>55</v>
       </c>
       <c r="H13">
-        <f>COUNTIF(G:G,G13)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_FourMaker94</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_FourMaker94</v>
       </c>
       <c r="K13">
@@ -1940,14 +1940,14 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="F14">
@@ -1957,15 +1957,15 @@
         <v>56</v>
       </c>
       <c r="H14">
-        <f>COUNTIF(G:G,G14)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_FourMaker129</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_FourMaker129</v>
       </c>
       <c r="K14">
@@ -1984,14 +1984,14 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15" ca="1" si="17">VLOOKUP(B15,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C15" ca="1" si="18">VLOOKUP(B15,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" ca="1" si="18">VLOOKUP(D15,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E15" ca="1" si="19">VLOOKUP(D15,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F15">
@@ -2001,15 +2001,15 @@
         <v>57</v>
       </c>
       <c r="H15">
-        <f>COUNTIF(G:G,G15)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ref="I15" si="19">"Shot_"&amp;G15</f>
+        <f t="shared" ref="I15" si="20">"Shot_"&amp;G15</f>
         <v>Shot_FourMaker22</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15" si="20">"EquipName_"&amp;G15</f>
+        <f t="shared" ref="J15" si="21">"EquipName_"&amp;G15</f>
         <v>EquipName_FourMaker22</v>
       </c>
       <c r="K15">
@@ -2028,14 +2028,14 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16" ca="1" si="21">VLOOKUP(B16,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C16" ca="1" si="22">VLOOKUP(B16,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" ca="1" si="22">VLOOKUP(D16,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E16" ca="1" si="23">VLOOKUP(D16,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F16">
@@ -2045,15 +2045,15 @@
         <v>58</v>
       </c>
       <c r="H16">
-        <f>COUNTIF(G:G,G16)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ref="I16" si="23">"Shot_"&amp;G16</f>
+        <f t="shared" ref="I16" si="24">"Shot_"&amp;G16</f>
         <v>Shot_FourMaker75</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16" si="24">"EquipName_"&amp;G16</f>
+        <f t="shared" ref="J16" si="25">"EquipName_"&amp;G16</f>
         <v>EquipName_FourMaker75</v>
       </c>
       <c r="K16">
@@ -2072,14 +2072,14 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="F17">
@@ -2089,15 +2089,15 @@
         <v>59</v>
       </c>
       <c r="H17">
-        <f>COUNTIF(G:G,G17)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_JimHdBow6</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_JimHdBow6</v>
       </c>
       <c r="K17">
@@ -2110,19 +2110,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17">
         <v>0.5</v>
       </c>
       <c r="P17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q17">
         <v>1E-3</v>
       </c>
       <c r="R17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S17">
         <v>0.03</v>
@@ -2146,14 +2146,14 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="F18">
@@ -2163,15 +2163,15 @@
         <v>60</v>
       </c>
       <c r="H18">
-        <f>COUNTIF(G:G,G18)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_JimHdBow9</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_JimHdBow9</v>
       </c>
       <c r="K18">
@@ -2190,14 +2190,14 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="F19">
@@ -2207,15 +2207,15 @@
         <v>61</v>
       </c>
       <c r="H19">
-        <f>COUNTIF(G:G,G19)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_GoldenBow2</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_GoldenBow2</v>
       </c>
       <c r="K19">
@@ -2234,14 +2234,14 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="F20">
@@ -2251,15 +2251,15 @@
         <v>62</v>
       </c>
       <c r="H20">
-        <f>COUNTIF(G:G,G20)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_IchkaBow</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_IchkaBow</v>
       </c>
       <c r="K20">
@@ -2278,14 +2278,14 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C27" ca="1" si="25">VLOOKUP(B21,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C21:C27" ca="1" si="26">VLOOKUP(B21,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E27" ca="1" si="26">VLOOKUP(D21,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E21:E27" ca="1" si="27">VLOOKUP(D21,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F21">
@@ -2295,15 +2295,15 @@
         <v>63</v>
       </c>
       <c r="H21">
-        <f>COUNTIF(G:G,G21)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_GoldenBow3</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_GoldenBow3</v>
       </c>
       <c r="K21">
@@ -2322,14 +2322,14 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>2</v>
       </c>
       <c r="F22">
@@ -2339,15 +2339,15 @@
         <v>64</v>
       </c>
       <c r="H22">
-        <f>COUNTIF(G:G,G22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Shot_ElvenBow</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>EquipName_ElvenBow</v>
       </c>
       <c r="K22">
@@ -2366,14 +2366,14 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23" ca="1" si="27">VLOOKUP(B23,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C23" ca="1" si="28">VLOOKUP(B23,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" ca="1" si="28">VLOOKUP(D23,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E23" ca="1" si="29">VLOOKUP(D23,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F23">
@@ -2383,15 +2383,15 @@
         <v>65</v>
       </c>
       <c r="H23">
-        <f>COUNTIF(G:G,G23)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ref="I23" si="29">"Shot_"&amp;G23</f>
+        <f t="shared" ref="I23" si="30">"Shot_"&amp;G23</f>
         <v>Shot_FantasySetBow1</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23" si="30">"EquipName_"&amp;G23</f>
+        <f t="shared" ref="J23" si="31">"EquipName_"&amp;G23</f>
         <v>EquipName_FantasySetBow1</v>
       </c>
       <c r="K23">
@@ -2410,14 +2410,14 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="F24">
@@ -2427,15 +2427,15 @@
         <v>66</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(G:G,G24)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" ref="I24:I33" si="31">"Shot_"&amp;G24</f>
+        <f t="shared" ref="I24:I33" si="32">"Shot_"&amp;G24</f>
         <v>Shot_ArmoryAngSpear</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24:J33" si="32">"EquipName_"&amp;G24</f>
+        <f t="shared" ref="J24:J33" si="33">"EquipName_"&amp;G24</f>
         <v>EquipName_ArmoryAngSpear</v>
       </c>
       <c r="K24">
@@ -2460,14 +2460,14 @@
         <v>42</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -2477,15 +2477,15 @@
         <v>67</v>
       </c>
       <c r="H25">
-        <f>COUNTIF(G:G,G25)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_FantasySetStaff1</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_FantasySetStaff1</v>
       </c>
       <c r="K25">
@@ -2504,14 +2504,14 @@
         <v>42</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="F26">
@@ -2521,15 +2521,15 @@
         <v>68</v>
       </c>
       <c r="H26">
-        <f>COUNTIF(G:G,G26)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_FantasySetStaff4</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_FantasySetStaff4</v>
       </c>
       <c r="K26">
@@ -2548,14 +2548,14 @@
         <v>42</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1</v>
       </c>
       <c r="F27">
@@ -2565,15 +2565,15 @@
         <v>69</v>
       </c>
       <c r="H27">
-        <f>COUNTIF(G:G,G27)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_ArmoryWand1</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_ArmoryWand1</v>
       </c>
       <c r="K27">
@@ -2592,14 +2592,14 @@
         <v>42</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C36" ca="1" si="33">VLOOKUP(B28,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C28:C36" ca="1" si="34">VLOOKUP(B28,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E36" ca="1" si="34">VLOOKUP(D28,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E28:E36" ca="1" si="35">VLOOKUP(D28,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F28">
@@ -2609,15 +2609,15 @@
         <v>70</v>
       </c>
       <c r="H28">
-        <f>COUNTIF(G:G,G28)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_MetalStaff</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_MetalStaff</v>
       </c>
       <c r="K28">
@@ -2636,14 +2636,14 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>2</v>
       </c>
       <c r="F29">
@@ -2653,15 +2653,15 @@
         <v>71</v>
       </c>
       <c r="H29">
-        <f>COUNTIF(G:G,G29)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_HqStaff</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_HqStaff</v>
       </c>
       <c r="K29">
@@ -2680,14 +2680,14 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30" ca="1" si="35">VLOOKUP(B30,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C30" ca="1" si="36">VLOOKUP(B30,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" ca="1" si="36">VLOOKUP(D30,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E30" ca="1" si="37">VLOOKUP(D30,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F30">
@@ -2697,15 +2697,15 @@
         <v>72</v>
       </c>
       <c r="H30">
-        <f>COUNTIF(G:G,G30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" ref="I30" si="37">"Shot_"&amp;G30</f>
+        <f t="shared" ref="I30" si="38">"Shot_"&amp;G30</f>
         <v>Shot_ArsenalStaff</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ref="J30" si="38">"EquipName_"&amp;G30</f>
+        <f t="shared" ref="J30" si="39">"EquipName_"&amp;G30</f>
         <v>EquipName_ArsenalStaff</v>
       </c>
       <c r="K30">
@@ -2724,14 +2724,14 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="F31">
@@ -2741,15 +2741,15 @@
         <v>73</v>
       </c>
       <c r="H31">
-        <f>COUNTIF(G:G,G31)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_RunicHammer</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_RunicHammer</v>
       </c>
       <c r="K31">
@@ -2774,14 +2774,14 @@
         <v>44</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -2791,15 +2791,15 @@
         <v>74</v>
       </c>
       <c r="H32">
-        <f>COUNTIF(G:G,G32)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_MorningStar</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_MorningStar</v>
       </c>
       <c r="K32">
@@ -2818,14 +2818,14 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -2835,15 +2835,15 @@
         <v>75</v>
       </c>
       <c r="H33">
-        <f>COUNTIF(G:G,G33)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Shot_StrongMaul</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>EquipName_StrongMaul</v>
       </c>
       <c r="K33">
@@ -2855,21 +2855,21 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" ref="A34:A67" ca="1" si="39">"E"&amp;TEXT(C34,"0")&amp;TEXT(E34,"0")&amp;TEXT(F34,"00")</f>
+        <f t="shared" ref="A34:A67" ca="1" si="40">"E"&amp;TEXT(C34,"0")&amp;TEXT(E34,"0")&amp;TEXT(F34,"00")</f>
         <v>E4101</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
       <c r="F34">
@@ -2879,15 +2879,15 @@
         <v>76</v>
       </c>
       <c r="H34">
-        <f>COUNTIF(G:G,G34)</f>
+        <f t="shared" ref="H34:H65" si="41">COUNTIF(G:G,G34)</f>
         <v>1</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" ref="I34:I41" si="40">"Shot_"&amp;G34</f>
+        <f t="shared" ref="I34:I41" si="42">"Shot_"&amp;G34</f>
         <v>Shot_ArmoryHammer11</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J41" si="41">"EquipName_"&amp;G34</f>
+        <f t="shared" ref="J34:J41" si="43">"EquipName_"&amp;G34</f>
         <v>EquipName_ArmoryHammer11</v>
       </c>
       <c r="K34">
@@ -2899,21 +2899,21 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E4102</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>1</v>
       </c>
       <c r="F35">
@@ -2923,15 +2923,15 @@
         <v>77</v>
       </c>
       <c r="H35">
-        <f>COUNTIF(G:G,G35)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Shot_MeleeHammer</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>EquipName_MeleeHammer</v>
       </c>
       <c r="K35">
@@ -2943,21 +2943,21 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E4201</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>2</v>
       </c>
       <c r="F36">
@@ -2967,15 +2967,15 @@
         <v>78</v>
       </c>
       <c r="H36">
-        <f>COUNTIF(G:G,G36)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Shot_DwarfHammer</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>EquipName_DwarfHammer</v>
       </c>
       <c r="K36">
@@ -2987,21 +2987,21 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E4202</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37" ca="1" si="42">VLOOKUP(B37,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C37" ca="1" si="44">VLOOKUP(B37,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" ca="1" si="43">VLOOKUP(D37,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E37" ca="1" si="45">VLOOKUP(D37,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F37">
@@ -3011,15 +3011,15 @@
         <v>79</v>
       </c>
       <c r="H37">
-        <f>COUNTIF(G:G,G37)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37" si="44">"Shot_"&amp;G37</f>
+        <f t="shared" ref="I37" si="46">"Shot_"&amp;G37</f>
         <v>Shot_ArsenalGoldHammer</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37" si="45">"EquipName_"&amp;G37</f>
+        <f t="shared" ref="J37" si="47">"EquipName_"&amp;G37</f>
         <v>EquipName_ArsenalGoldHammer</v>
       </c>
       <c r="K37">
@@ -3031,21 +3031,21 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E4203</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38" ca="1" si="46">VLOOKUP(B38,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C38" ca="1" si="48">VLOOKUP(B38,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" ca="1" si="47">VLOOKUP(D38,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E38" ca="1" si="49">VLOOKUP(D38,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F38">
@@ -3055,15 +3055,15 @@
         <v>80</v>
       </c>
       <c r="H38">
-        <f>COUNTIF(G:G,G38)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" ref="I38" si="48">"Shot_"&amp;G38</f>
+        <f t="shared" ref="I38" si="50">"Shot_"&amp;G38</f>
         <v>Shot_ArsenalHammer</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38" si="49">"EquipName_"&amp;G38</f>
+        <f t="shared" ref="J38" si="51">"EquipName_"&amp;G38</f>
         <v>EquipName_ArsenalHammer</v>
       </c>
       <c r="K38">
@@ -3075,21 +3075,21 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E5001</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:C48" ca="1" si="50">VLOOKUP(B39,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C39:C48" ca="1" si="52">VLOOKUP(B39,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>5</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E48" ca="1" si="51">VLOOKUP(D39,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E39:E48" ca="1" si="53">VLOOKUP(D39,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="F39">
@@ -3099,15 +3099,15 @@
         <v>81</v>
       </c>
       <c r="H39">
-        <f>COUNTIF(G:G,G39)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Shot_SciFantasyRapier</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>EquipName_SciFantasyRapier</v>
       </c>
       <c r="K39">
@@ -3119,21 +3119,21 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E5002</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>5</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -3143,15 +3143,15 @@
         <v>82</v>
       </c>
       <c r="H40">
-        <f>COUNTIF(G:G,G40)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Shot_JimHdAssassin12</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>EquipName_JimHdAssassin12</v>
       </c>
       <c r="K40">
@@ -3163,21 +3163,21 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E5003</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>5</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -3187,15 +3187,15 @@
         <v>83</v>
       </c>
       <c r="H41">
-        <f>COUNTIF(G:G,G41)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>Shot_StylizedSword</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>EquipName_StylizedSword</v>
       </c>
       <c r="K41">
@@ -3207,21 +3207,21 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E5101</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>1</v>
       </c>
       <c r="F42">
@@ -3231,15 +3231,15 @@
         <v>84</v>
       </c>
       <c r="H42">
-        <f>COUNTIF(G:G,G42)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" ref="I42:I51" si="52">"Shot_"&amp;G42</f>
+        <f t="shared" ref="I42:I51" si="54">"Shot_"&amp;G42</f>
         <v>Shot_JimHdAssassin11</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ref="J42:J51" si="53">"EquipName_"&amp;G42</f>
+        <f t="shared" ref="J42:J51" si="55">"EquipName_"&amp;G42</f>
         <v>EquipName_JimHdAssassin11</v>
       </c>
       <c r="K42">
@@ -3251,21 +3251,21 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E5102</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>1</v>
       </c>
       <c r="F43">
@@ -3275,15 +3275,15 @@
         <v>85</v>
       </c>
       <c r="H43">
-        <f>COUNTIF(G:G,G43)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_FourMaker152</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_FourMaker152</v>
       </c>
       <c r="K43">
@@ -3295,21 +3295,21 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E5201</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>5</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>2</v>
       </c>
       <c r="F44">
@@ -3319,15 +3319,15 @@
         <v>86</v>
       </c>
       <c r="H44">
-        <f>COUNTIF(G:G,G44)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_FourMaker140</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_FourMaker140</v>
       </c>
       <c r="K44">
@@ -3339,21 +3339,21 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E5202</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45" ca="1" si="54">VLOOKUP(B45,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C45" ca="1" si="56">VLOOKUP(B45,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>5</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" ca="1" si="55">VLOOKUP(D45,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E45" ca="1" si="57">VLOOKUP(D45,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F45">
@@ -3363,15 +3363,15 @@
         <v>87</v>
       </c>
       <c r="H45">
-        <f>COUNTIF(G:G,G45)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45" si="56">"Shot_"&amp;G45</f>
+        <f t="shared" ref="I45" si="58">"Shot_"&amp;G45</f>
         <v>Shot_ArsenalSword</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45" si="57">"EquipName_"&amp;G45</f>
+        <f t="shared" ref="J45" si="59">"EquipName_"&amp;G45</f>
         <v>EquipName_ArsenalSword</v>
       </c>
       <c r="K45">
@@ -3383,21 +3383,21 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E6001</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>6</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -3407,15 +3407,15 @@
         <v>88</v>
       </c>
       <c r="H46">
-        <f>COUNTIF(G:G,G46)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_SMG31</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_SMG31</v>
       </c>
       <c r="K46">
@@ -3427,21 +3427,21 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E6002</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="F47">
@@ -3451,15 +3451,15 @@
         <v>89</v>
       </c>
       <c r="H47">
-        <f>COUNTIF(G:G,G47)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_SciFiWarriorGun</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_SciFiWarriorGun</v>
       </c>
       <c r="K47">
@@ -3471,21 +3471,21 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E6003</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -3495,15 +3495,15 @@
         <v>90</v>
       </c>
       <c r="H48">
-        <f>COUNTIF(G:G,G48)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_SciFiGun</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_SciFiGun</v>
       </c>
       <c r="K48">
@@ -3515,21 +3515,21 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E6101</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C58" ca="1" si="58">VLOOKUP(B49,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C49:C58" ca="1" si="60">VLOOKUP(B49,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E58" ca="1" si="59">VLOOKUP(D49,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E49:E58" ca="1" si="61">VLOOKUP(D49,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="F49">
@@ -3539,15 +3539,15 @@
         <v>91</v>
       </c>
       <c r="H49">
-        <f>COUNTIF(G:G,G49)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_SciFiRifle3</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_SciFiRifle3</v>
       </c>
       <c r="K49">
@@ -3559,21 +3559,21 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E6102</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>6</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>1</v>
       </c>
       <c r="F50">
@@ -3583,15 +3583,15 @@
         <v>92</v>
       </c>
       <c r="H50">
-        <f>COUNTIF(G:G,G50)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_SciFiRifle4</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_SciFiRifle4</v>
       </c>
       <c r="K50">
@@ -3603,21 +3603,21 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E6201</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>2</v>
       </c>
       <c r="F51">
@@ -3627,15 +3627,15 @@
         <v>93</v>
       </c>
       <c r="H51">
-        <f>COUNTIF(G:G,G51)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Shot_SciFiRocketLauncher</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>EquipName_SciFiRocketLauncher</v>
       </c>
       <c r="K51">
@@ -3647,21 +3647,21 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E6202</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52" ca="1" si="60">VLOOKUP(B52,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C52" ca="1" si="62">VLOOKUP(B52,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52" ca="1" si="61">VLOOKUP(D52,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E52" ca="1" si="63">VLOOKUP(D52,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F52">
@@ -3671,15 +3671,15 @@
         <v>94</v>
       </c>
       <c r="H52">
-        <f>COUNTIF(G:G,G52)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" ref="I52" si="62">"Shot_"&amp;G52</f>
+        <f t="shared" ref="I52" si="64">"Shot_"&amp;G52</f>
         <v>Shot_SciFiPlasmaRifle</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" ref="J52" si="63">"EquipName_"&amp;G52</f>
+        <f t="shared" ref="J52" si="65">"EquipName_"&amp;G52</f>
         <v>EquipName_SciFiPlasmaRifle</v>
       </c>
       <c r="K52">
@@ -3691,21 +3691,21 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7001</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>7</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -3715,15 +3715,15 @@
         <v>95</v>
       </c>
       <c r="H53">
-        <f>COUNTIF(G:G,G53)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" ref="I53:I58" si="64">"Shot_"&amp;G53</f>
+        <f t="shared" ref="I53:I58" si="66">"Shot_"&amp;G53</f>
         <v>Shot_ArmorySet53</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" ref="J53:J58" si="65">"EquipName_"&amp;G53</f>
+        <f t="shared" ref="J53:J58" si="67">"EquipName_"&amp;G53</f>
         <v>EquipName_ArmorySet53</v>
       </c>
       <c r="K53">
@@ -3735,21 +3735,21 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7002</v>
       </c>
       <c r="B54" t="s">
         <v>46</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -3759,15 +3759,15 @@
         <v>96</v>
       </c>
       <c r="H54">
-        <f>COUNTIF(G:G,G54)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>Shot_CelticShield</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>EquipName_CelticShield</v>
       </c>
       <c r="K54">
@@ -3779,21 +3779,21 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7003</v>
       </c>
       <c r="B55" t="s">
         <v>46</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0</v>
       </c>
       <c r="F55">
@@ -3803,15 +3803,15 @@
         <v>97</v>
       </c>
       <c r="H55">
-        <f>COUNTIF(G:G,G55)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>Shot_FantasyShield</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>EquipName_FantasyShield</v>
       </c>
       <c r="K55">
@@ -3823,21 +3823,21 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7101</v>
       </c>
       <c r="B56" t="s">
         <v>46</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>1</v>
       </c>
       <c r="F56">
@@ -3847,15 +3847,15 @@
         <v>98</v>
       </c>
       <c r="H56">
-        <f>COUNTIF(G:G,G56)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>Shot_ArsenalShield</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>EquipName_ArsenalShield</v>
       </c>
       <c r="K56">
@@ -3867,21 +3867,21 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7102</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>21</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>1</v>
       </c>
       <c r="F57">
@@ -3891,15 +3891,15 @@
         <v>99</v>
       </c>
       <c r="H57">
-        <f>COUNTIF(G:G,G57)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>Shot_SpikeShield</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>EquipName_SpikeShield</v>
       </c>
       <c r="K57">
@@ -3911,21 +3911,21 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7201</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>2</v>
       </c>
       <c r="F58">
@@ -3935,15 +3935,15 @@
         <v>100</v>
       </c>
       <c r="H58">
-        <f>COUNTIF(G:G,G58)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>Shot_ChainShield</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>EquipName_ChainShield</v>
       </c>
       <c r="K58">
@@ -3955,21 +3955,21 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7202</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59" ca="1" si="66">VLOOKUP(B59,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C59" ca="1" si="68">VLOOKUP(B59,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59" ca="1" si="67">VLOOKUP(D59,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E59" ca="1" si="69">VLOOKUP(D59,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F59">
@@ -3979,15 +3979,15 @@
         <v>101</v>
       </c>
       <c r="H59">
-        <f>COUNTIF(G:G,G59)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" ref="I59" si="68">"Shot_"&amp;G59</f>
+        <f t="shared" ref="I59" si="70">"Shot_"&amp;G59</f>
         <v>Shot_OrcShield</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" ref="J59" si="69">"EquipName_"&amp;G59</f>
+        <f t="shared" ref="J59" si="71">"EquipName_"&amp;G59</f>
         <v>EquipName_OrcShield</v>
       </c>
       <c r="K59">
@@ -3999,21 +3999,21 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E7203</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60" ca="1" si="70">VLOOKUP(B60,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C60" ca="1" si="72">VLOOKUP(B60,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60" ca="1" si="71">VLOOKUP(D60,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E60" ca="1" si="73">VLOOKUP(D60,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F60">
@@ -4023,15 +4023,15 @@
         <v>102</v>
       </c>
       <c r="H60">
-        <f>COUNTIF(G:G,G60)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" ref="I60" si="72">"Shot_"&amp;G60</f>
+        <f t="shared" ref="I60" si="74">"Shot_"&amp;G60</f>
         <v>Shot_ArsenalBigShield</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" ref="J60" si="73">"EquipName_"&amp;G60</f>
+        <f t="shared" ref="J60" si="75">"EquipName_"&amp;G60</f>
         <v>EquipName_ArsenalBigShield</v>
       </c>
       <c r="K60">
@@ -4043,21 +4043,21 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E8001</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:C66" ca="1" si="74">VLOOKUP(B61,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C61:C66" ca="1" si="76">VLOOKUP(B61,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:E66" ca="1" si="75">VLOOKUP(D61,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E61:E66" ca="1" si="77">VLOOKUP(D61,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>0</v>
       </c>
       <c r="F61">
@@ -4067,15 +4067,15 @@
         <v>103</v>
       </c>
       <c r="H61">
-        <f>COUNTIF(G:G,G61)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" ref="I61:I66" si="76">"Shot_"&amp;G61</f>
+        <f t="shared" ref="I61:I66" si="78">"Shot_"&amp;G61</f>
         <v>Shot_StylizedFantasySword</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" ref="J61:J66" si="77">"EquipName_"&amp;G61</f>
+        <f t="shared" ref="J61:J66" si="79">"EquipName_"&amp;G61</f>
         <v>EquipName_StylizedFantasySword</v>
       </c>
       <c r="K61">
@@ -4087,21 +4087,21 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E8002</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="76"/>
         <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="77"/>
         <v>0</v>
       </c>
       <c r="F62">
@@ -4111,15 +4111,15 @@
         <v>104</v>
       </c>
       <c r="H62">
-        <f>COUNTIF(G:G,G62)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>Shot_TwoHandSeven</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>EquipName_TwoHandSeven</v>
       </c>
       <c r="K62">
@@ -4131,21 +4131,21 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E8003</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="76"/>
         <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="77"/>
         <v>0</v>
       </c>
       <c r="F63">
@@ -4155,15 +4155,15 @@
         <v>110</v>
       </c>
       <c r="H63">
-        <f>COUNTIF(G:G,G63)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>Shot_FullMetalSword</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>EquipName_FullMetalSword</v>
       </c>
       <c r="K63">
@@ -4175,21 +4175,21 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E8101</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="76"/>
         <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>21</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="77"/>
         <v>1</v>
       </c>
       <c r="F64">
@@ -4199,15 +4199,15 @@
         <v>109</v>
       </c>
       <c r="H64">
-        <f>COUNTIF(G:G,G64)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>Shot_MorfusSword</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>EquipName_MorfusSword</v>
       </c>
       <c r="K64">
@@ -4219,21 +4219,21 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E8102</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="76"/>
         <v>8</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="77"/>
         <v>1</v>
       </c>
       <c r="F65">
@@ -4243,15 +4243,15 @@
         <v>111</v>
       </c>
       <c r="H65">
-        <f>COUNTIF(G:G,G65)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>Shot_DarkNpcSword</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>EquipName_DarkNpcSword</v>
       </c>
       <c r="K65">
@@ -4263,21 +4263,21 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E8201</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="76"/>
         <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="77"/>
         <v>2</v>
       </c>
       <c r="F66">
@@ -4287,15 +4287,15 @@
         <v>105</v>
       </c>
       <c r="H66">
-        <f>COUNTIF(G:G,G66)</f>
+        <f t="shared" ref="H66:H97" si="80">COUNTIF(G:G,G66)</f>
         <v>1</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>Shot_JimHdSword2</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>EquipName_JimHdSword2</v>
       </c>
       <c r="K66">
@@ -4307,21 +4307,21 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>E8202</v>
       </c>
       <c r="B67" t="s">
         <v>47</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67" ca="1" si="78">VLOOKUP(B67,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="C67" ca="1" si="81">VLOOKUP(B67,OFFSET(INDIRECT("$A:$B"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67" ca="1" si="79">VLOOKUP(D67,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="E67" ca="1" si="82">VLOOKUP(D67,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>2</v>
       </c>
       <c r="F67">
@@ -4331,15 +4331,15 @@
         <v>106</v>
       </c>
       <c r="H67">
-        <f>COUNTIF(G:G,G67)</f>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67" si="80">"Shot_"&amp;G67</f>
+        <f t="shared" ref="I67" si="83">"Shot_"&amp;G67</f>
         <v>Shot_ArsenalBigSword</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67" si="81">"EquipName_"&amp;G67</f>
+        <f t="shared" ref="J67" si="84">"EquipName_"&amp;G67</f>
         <v>EquipName_ArsenalBigSword</v>
       </c>
       <c r="K67">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BFABB-E470-4ADB-9DBF-D240A1B5EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552F94B-BE4B-4A93-99AC-D6EC9E28012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
@@ -261,16 +261,10 @@
     <t>FantasySetBow1</t>
   </si>
   <si>
-    <t>ArmoryAngSpear</t>
-  </si>
-  <si>
     <t>FantasySetStaff1</t>
   </si>
   <si>
     <t>FantasySetStaff4</t>
-  </si>
-  <si>
-    <t>ArmoryWand1</t>
   </si>
   <si>
     <t>MetalStaff</t>
@@ -816,6 +810,14 @@
     <t>넉백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ArmoryAngSpear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmoryWand1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1182,11 +1184,11 @@
   <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1214,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1245,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
@@ -1254,16 +1256,16 @@
         <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
         <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S1" t="s">
         <v>35</v>
@@ -1272,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="U1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V1" t="s">
         <v>37</v>
@@ -1287,7 +1289,7 @@
         <v>40</v>
       </c>
       <c r="Z1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB1" t="s">
         <v>4</v>
@@ -1302,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="AI1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AJ1" t="s">
         <v>5</v>
@@ -1331,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H33" si="3">COUNTIF(G:G,G2)</f>
@@ -1349,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M65" ca="1" si="6">VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1359,7 +1361,7 @@
         <v>0.05</v>
       </c>
       <c r="O2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P65" ca="1" si="7">VLOOKUP(O2,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1369,7 +1371,7 @@
         <v>0.03</v>
       </c>
       <c r="R2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S65" ca="1" si="8">VLOOKUP(R2,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1379,7 +1381,7 @@
         <v>0.2</v>
       </c>
       <c r="U2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V65" ca="1" si="9">VLOOKUP(U2,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1410,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AJ2">
         <v>12</v>
@@ -1460,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="6"/>
@@ -1470,7 +1472,7 @@
         <v>0.2</v>
       </c>
       <c r="O3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="7"/>
@@ -1480,7 +1482,7 @@
         <v>0.03</v>
       </c>
       <c r="R3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="8"/>
@@ -1490,7 +1492,7 @@
         <v>0.01</v>
       </c>
       <c r="U3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="9"/>
@@ -1515,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AI3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AJ3">
         <v>13</v>
@@ -1547,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
@@ -1565,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="6"/>
@@ -1575,7 +1577,7 @@
         <v>0.01</v>
       </c>
       <c r="O4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="7"/>
@@ -1585,7 +1587,7 @@
         <v>0.2</v>
       </c>
       <c r="R4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="8"/>
@@ -1595,7 +1597,7 @@
         <v>0.05</v>
       </c>
       <c r="U4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="9"/>
@@ -1620,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="AH4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AI4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AJ4">
         <v>15</v>
@@ -1652,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
@@ -1670,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="6"/>
@@ -1680,7 +1682,7 @@
         <v>0.02</v>
       </c>
       <c r="O5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="7"/>
@@ -1690,7 +1692,7 @@
         <v>0.05</v>
       </c>
       <c r="R5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="8"/>
@@ -1700,7 +1702,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="U5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="9"/>
@@ -1719,10 +1721,10 @@
         <v>3</v>
       </c>
       <c r="AH5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AI5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ5">
         <v>17</v>
@@ -1769,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="6"/>
@@ -1779,7 +1781,7 @@
         <v>0.1</v>
       </c>
       <c r="O6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="7"/>
@@ -1789,7 +1791,7 @@
         <v>0.05</v>
       </c>
       <c r="R6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="8"/>
@@ -1799,7 +1801,7 @@
         <v>0.02</v>
       </c>
       <c r="U6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="9"/>
@@ -1818,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="AH6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AI6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AJ6">
         <v>19</v>
@@ -1868,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="6"/>
@@ -1878,7 +1880,7 @@
         <v>0.25</v>
       </c>
       <c r="O7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="7"/>
@@ -1888,7 +1890,7 @@
         <v>0.02</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="8"/>
@@ -1898,7 +1900,7 @@
         <v>0.05</v>
       </c>
       <c r="U7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="9"/>
@@ -1917,10 +1919,10 @@
         <v>5</v>
       </c>
       <c r="AH7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AI7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AJ7">
         <v>20</v>
@@ -1992,10 +1994,10 @@
         <v>6</v>
       </c>
       <c r="AH8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AI8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AJ8">
         <v>21</v>
@@ -2042,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="6"/>
@@ -2052,7 +2054,7 @@
         <v>0.1</v>
       </c>
       <c r="O9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="7"/>
@@ -2062,7 +2064,7 @@
         <v>0.01</v>
       </c>
       <c r="R9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="8"/>
@@ -2072,7 +2074,7 @@
         <v>0.01</v>
       </c>
       <c r="U9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="9"/>
@@ -2091,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="AH9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AI9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AJ9">
         <v>22</v>
@@ -2141,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="6"/>
@@ -2151,7 +2153,7 @@
         <v>0.03</v>
       </c>
       <c r="O10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="7"/>
@@ -2161,7 +2163,7 @@
         <v>0.01</v>
       </c>
       <c r="R10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="8"/>
@@ -2171,7 +2173,7 @@
         <v>0.1</v>
       </c>
       <c r="U10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="9"/>
@@ -2190,10 +2192,10 @@
         <v>8</v>
       </c>
       <c r="AH10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AJ10">
         <v>23</v>
@@ -2240,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="6"/>
@@ -2250,7 +2252,7 @@
         <v>0.01</v>
       </c>
       <c r="O11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="7"/>
@@ -2260,7 +2262,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="8"/>
@@ -2270,7 +2272,7 @@
         <v>0.01</v>
       </c>
       <c r="U11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="9"/>
@@ -2283,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AI11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AJ11">
         <v>24</v>
@@ -2333,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="6"/>
@@ -2343,7 +2345,7 @@
         <v>0.1</v>
       </c>
       <c r="O12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="7"/>
@@ -2353,7 +2355,7 @@
         <v>0.15</v>
       </c>
       <c r="R12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="8"/>
@@ -2363,7 +2365,7 @@
         <v>0.05</v>
       </c>
       <c r="U12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="9"/>
@@ -2417,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="6"/>
@@ -2427,7 +2429,7 @@
         <v>0.15</v>
       </c>
       <c r="O13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="7"/>
@@ -2437,7 +2439,7 @@
         <v>0.05</v>
       </c>
       <c r="R13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="8"/>
@@ -2447,7 +2449,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="9"/>
@@ -2501,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="6"/>
@@ -2511,7 +2513,7 @@
         <v>0.05</v>
       </c>
       <c r="O14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="7"/>
@@ -2521,7 +2523,7 @@
         <v>0.2</v>
       </c>
       <c r="R14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="8"/>
@@ -2531,7 +2533,7 @@
         <v>0.2</v>
       </c>
       <c r="U14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="9"/>
@@ -2705,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="6"/>
@@ -2715,7 +2717,7 @@
         <v>0.01</v>
       </c>
       <c r="O17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="7"/>
@@ -2725,7 +2727,7 @@
         <v>0.05</v>
       </c>
       <c r="R17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="8"/>
@@ -2735,7 +2737,7 @@
         <v>0.01</v>
       </c>
       <c r="U17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="9"/>
@@ -2745,7 +2747,7 @@
         <v>0.05</v>
       </c>
       <c r="X17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y17">
         <v>4</v>
@@ -2795,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="6"/>
@@ -2805,7 +2807,7 @@
         <v>0.05</v>
       </c>
       <c r="O18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="7"/>
@@ -2815,7 +2817,7 @@
         <v>0.05</v>
       </c>
       <c r="R18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="8"/>
@@ -2825,7 +2827,7 @@
         <v>0.1</v>
       </c>
       <c r="U18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="9"/>
@@ -2879,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="6"/>
@@ -2889,7 +2891,7 @@
         <v>0.01</v>
       </c>
       <c r="O19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="7"/>
@@ -2899,7 +2901,7 @@
         <v>0.01</v>
       </c>
       <c r="R19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="8"/>
@@ -2909,7 +2911,7 @@
         <v>0.05</v>
       </c>
       <c r="U19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="9"/>
@@ -2963,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="6"/>
@@ -2973,7 +2975,7 @@
         <v>0.2</v>
       </c>
       <c r="O20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="7"/>
@@ -2983,7 +2985,7 @@
         <v>0.06</v>
       </c>
       <c r="R20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="8"/>
@@ -2993,7 +2995,7 @@
         <v>0.1</v>
       </c>
       <c r="U20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="9"/>
@@ -3047,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="6"/>
@@ -3057,7 +3059,7 @@
         <v>0.06</v>
       </c>
       <c r="O21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="7"/>
@@ -3067,7 +3069,7 @@
         <v>0.1</v>
       </c>
       <c r="R21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="8"/>
@@ -3077,7 +3079,7 @@
         <v>0.02</v>
       </c>
       <c r="U21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="9"/>
@@ -3131,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="6"/>
@@ -3141,7 +3143,7 @@
         <v>0.02</v>
       </c>
       <c r="O22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="7"/>
@@ -3151,7 +3153,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="8"/>
@@ -3161,7 +3163,7 @@
         <v>0.2</v>
       </c>
       <c r="U22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="9"/>
@@ -3257,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
@@ -3265,17 +3267,17 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ref="I24:I33" si="36">"Shot_"&amp;G24</f>
-        <v>Shot_ArmoryAngSpear</v>
+        <v>Shot_ArmoryWand1</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" ref="J24:J33" si="37">"EquipName_"&amp;G24</f>
-        <v>EquipName_ArmoryAngSpear</v>
+        <v>EquipName_ArmoryWand1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="6"/>
@@ -3285,7 +3287,7 @@
         <v>0.01</v>
       </c>
       <c r="O24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="7"/>
@@ -3295,7 +3297,7 @@
         <v>0.01</v>
       </c>
       <c r="R24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="8"/>
@@ -3305,7 +3307,7 @@
         <v>0.05</v>
       </c>
       <c r="U24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="9"/>
@@ -3315,7 +3317,7 @@
         <v>0.02</v>
       </c>
       <c r="X24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y24">
         <v>4</v>
@@ -3347,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
@@ -3365,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="6"/>
@@ -3375,7 +3377,7 @@
         <v>0.1</v>
       </c>
       <c r="O25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="7"/>
@@ -3385,7 +3387,7 @@
         <v>0.05</v>
       </c>
       <c r="R25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="8"/>
@@ -3395,7 +3397,7 @@
         <v>0.02</v>
       </c>
       <c r="U25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="9"/>
@@ -3431,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
@@ -3449,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="6"/>
@@ -3459,7 +3461,7 @@
         <v>0.03</v>
       </c>
       <c r="O26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="7"/>
@@ -3469,7 +3471,7 @@
         <v>0.02</v>
       </c>
       <c r="R26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="8"/>
@@ -3479,7 +3481,7 @@
         <v>0.01</v>
       </c>
       <c r="U26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="9"/>
@@ -3515,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
@@ -3523,17 +3525,17 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="36"/>
-        <v>Shot_ArmoryWand1</v>
+        <v>Shot_ArmoryAngSpear</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="37"/>
-        <v>EquipName_ArmoryWand1</v>
+        <v>EquipName_ArmoryAngSpear</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="6"/>
@@ -3543,34 +3545,34 @@
         <v>0.1</v>
       </c>
       <c r="O27" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q27">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="R27" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T27">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="U27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W27">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3599,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
@@ -3617,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="6"/>
@@ -3627,7 +3629,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="O28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="7"/>
@@ -3637,7 +3639,7 @@
         <v>0.05</v>
       </c>
       <c r="R28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="8"/>
@@ -3647,7 +3649,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="9"/>
@@ -3683,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
@@ -3701,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="6"/>
@@ -3711,7 +3713,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="7"/>
@@ -3721,7 +3723,7 @@
         <v>0.02</v>
       </c>
       <c r="R29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="8"/>
@@ -3731,7 +3733,7 @@
         <v>0.03</v>
       </c>
       <c r="U29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="9"/>
@@ -3767,7 +3769,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
@@ -3827,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
@@ -3845,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="6"/>
@@ -3855,7 +3857,7 @@
         <v>0.03</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="7"/>
@@ -3865,7 +3867,7 @@
         <v>0.1</v>
       </c>
       <c r="R31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="8"/>
@@ -3875,7 +3877,7 @@
         <v>0.01</v>
       </c>
       <c r="U31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="9"/>
@@ -3885,7 +3887,7 @@
         <v>0.1</v>
       </c>
       <c r="X31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y31">
         <v>4</v>
@@ -3917,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
@@ -3935,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="6"/>
@@ -3945,7 +3947,7 @@
         <v>0.05</v>
       </c>
       <c r="O32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="7"/>
@@ -3955,7 +3957,7 @@
         <v>0.01</v>
       </c>
       <c r="R32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="8"/>
@@ -3965,7 +3967,7 @@
         <v>0.1</v>
       </c>
       <c r="U32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="9"/>
@@ -4001,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
@@ -4019,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="6"/>
@@ -4029,7 +4031,7 @@
         <v>0.1</v>
       </c>
       <c r="O33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="7"/>
@@ -4039,7 +4041,7 @@
         <v>0.03</v>
       </c>
       <c r="R33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="8"/>
@@ -4049,7 +4051,7 @@
         <v>0.05</v>
       </c>
       <c r="U33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="9"/>
@@ -4085,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H34">
         <f t="shared" ref="H34:H65" si="45">COUNTIF(G:G,G34)</f>
@@ -4103,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="6"/>
@@ -4113,7 +4115,7 @@
         <v>0.1</v>
       </c>
       <c r="O34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="7"/>
@@ -4123,7 +4125,7 @@
         <v>0.15</v>
       </c>
       <c r="R34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S34">
         <f t="shared" ca="1" si="8"/>
@@ -4133,7 +4135,7 @@
         <v>0.05</v>
       </c>
       <c r="U34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="9"/>
@@ -4169,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H35">
         <f t="shared" si="45"/>
@@ -4187,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="6"/>
@@ -4197,7 +4199,7 @@
         <v>0.15</v>
       </c>
       <c r="O35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="7"/>
@@ -4207,7 +4209,7 @@
         <v>0.2</v>
       </c>
       <c r="R35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="8"/>
@@ -4217,7 +4219,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="9"/>
@@ -4253,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H36">
         <f t="shared" si="45"/>
@@ -4271,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="6"/>
@@ -4281,7 +4283,7 @@
         <v>0.2</v>
       </c>
       <c r="O36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="7"/>
@@ -4291,7 +4293,7 @@
         <v>0.2</v>
       </c>
       <c r="R36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="8"/>
@@ -4301,7 +4303,7 @@
         <v>0.02</v>
       </c>
       <c r="U36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="9"/>
@@ -4337,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H37">
         <f t="shared" si="45"/>
@@ -4397,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H38">
         <f t="shared" si="45"/>
@@ -4457,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H39">
         <f t="shared" si="45"/>
@@ -4475,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="6"/>
@@ -4485,7 +4487,7 @@
         <v>0.03</v>
       </c>
       <c r="O39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="7"/>
@@ -4495,7 +4497,7 @@
         <v>0.05</v>
       </c>
       <c r="R39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="8"/>
@@ -4505,7 +4507,7 @@
         <v>0.01</v>
       </c>
       <c r="U39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="9"/>
@@ -4541,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H40">
         <f t="shared" si="45"/>
@@ -4559,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="6"/>
@@ -4569,7 +4571,7 @@
         <v>0.01</v>
       </c>
       <c r="O40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="7"/>
@@ -4579,7 +4581,7 @@
         <v>0.01</v>
       </c>
       <c r="R40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="8"/>
@@ -4589,7 +4591,7 @@
         <v>0.01</v>
       </c>
       <c r="U40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="9"/>
@@ -4625,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H41">
         <f t="shared" si="45"/>
@@ -4643,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="6"/>
@@ -4653,7 +4655,7 @@
         <v>0.05</v>
       </c>
       <c r="O41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="7"/>
@@ -4663,7 +4665,7 @@
         <v>0.05</v>
       </c>
       <c r="R41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="8"/>
@@ -4673,7 +4675,7 @@
         <v>0.03</v>
       </c>
       <c r="U41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="9"/>
@@ -4709,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H42">
         <f t="shared" si="45"/>
@@ -4727,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="6"/>
@@ -4737,7 +4739,7 @@
         <v>0.1</v>
       </c>
       <c r="O42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="7"/>
@@ -4747,7 +4749,7 @@
         <v>0.02</v>
       </c>
       <c r="R42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="8"/>
@@ -4757,7 +4759,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="9"/>
@@ -4793,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H43">
         <f t="shared" si="45"/>
@@ -4811,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="6"/>
@@ -4821,7 +4823,7 @@
         <v>0.1</v>
       </c>
       <c r="O43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="7"/>
@@ -4831,7 +4833,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="8"/>
@@ -4841,7 +4843,7 @@
         <v>0.02</v>
       </c>
       <c r="U43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="9"/>
@@ -4877,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H44">
         <f t="shared" si="45"/>
@@ -4895,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="6"/>
@@ -4905,7 +4907,7 @@
         <v>0.2</v>
       </c>
       <c r="O44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="7"/>
@@ -4915,7 +4917,7 @@
         <v>0.02</v>
       </c>
       <c r="R44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S44">
         <f t="shared" ca="1" si="8"/>
@@ -4925,7 +4927,7 @@
         <v>0.03</v>
       </c>
       <c r="U44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V44">
         <f t="shared" ca="1" si="9"/>
@@ -4961,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H45">
         <f t="shared" si="45"/>
@@ -5021,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H46">
         <f t="shared" si="45"/>
@@ -5039,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="6"/>
@@ -5049,7 +5051,7 @@
         <v>0.01</v>
       </c>
       <c r="O46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="7"/>
@@ -5059,7 +5061,7 @@
         <v>0.01</v>
       </c>
       <c r="R46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="8"/>
@@ -5069,7 +5071,7 @@
         <v>0.2</v>
       </c>
       <c r="U46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="9"/>
@@ -5105,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H47">
         <f t="shared" si="45"/>
@@ -5123,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="6"/>
@@ -5133,7 +5135,7 @@
         <v>0.03</v>
       </c>
       <c r="O47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="7"/>
@@ -5143,7 +5145,7 @@
         <v>0.05</v>
       </c>
       <c r="R47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="8"/>
@@ -5153,7 +5155,7 @@
         <v>0.05</v>
       </c>
       <c r="U47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="9"/>
@@ -5189,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H48">
         <f t="shared" si="45"/>
@@ -5207,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="6"/>
@@ -5217,7 +5219,7 @@
         <v>0.05</v>
       </c>
       <c r="O48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="7"/>
@@ -5227,7 +5229,7 @@
         <v>0.2</v>
       </c>
       <c r="R48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="8"/>
@@ -5237,7 +5239,7 @@
         <v>0.01</v>
       </c>
       <c r="U48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="9"/>
@@ -5273,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H49">
         <f t="shared" si="45"/>
@@ -5291,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="6"/>
@@ -5301,7 +5303,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O49" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="7"/>
@@ -5311,7 +5313,7 @@
         <v>0.02</v>
       </c>
       <c r="R49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S49">
         <f t="shared" ca="1" si="8"/>
@@ -5321,7 +5323,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="U49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="9"/>
@@ -5357,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H50">
         <f t="shared" si="45"/>
@@ -5375,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="6"/>
@@ -5385,7 +5387,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="O50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P50">
         <f t="shared" ca="1" si="7"/>
@@ -5395,7 +5397,7 @@
         <v>0.1</v>
       </c>
       <c r="R50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S50">
         <f t="shared" ca="1" si="8"/>
@@ -5405,7 +5407,7 @@
         <v>0.01</v>
       </c>
       <c r="U50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="9"/>
@@ -5441,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H51">
         <f t="shared" si="45"/>
@@ -5459,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="6"/>
@@ -5469,7 +5471,7 @@
         <v>0.05</v>
       </c>
       <c r="O51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P51">
         <f t="shared" ca="1" si="7"/>
@@ -5479,7 +5481,7 @@
         <v>0.1</v>
       </c>
       <c r="R51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S51">
         <f t="shared" ca="1" si="8"/>
@@ -5489,7 +5491,7 @@
         <v>0.25</v>
       </c>
       <c r="U51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="9"/>
@@ -5525,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H52">
         <f t="shared" si="45"/>
@@ -5585,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H53">
         <f t="shared" si="45"/>
@@ -5603,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="6"/>
@@ -5613,7 +5615,7 @@
         <v>0.05</v>
       </c>
       <c r="O53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="7"/>
@@ -5623,7 +5625,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S53">
         <f t="shared" ca="1" si="8"/>
@@ -5633,7 +5635,7 @@
         <v>0.05</v>
       </c>
       <c r="U53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="9"/>
@@ -5669,7 +5671,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H54">
         <f t="shared" si="45"/>
@@ -5687,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="6"/>
@@ -5697,7 +5699,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P54">
         <f t="shared" ca="1" si="7"/>
@@ -5707,7 +5709,7 @@
         <v>0.03</v>
       </c>
       <c r="R54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S54">
         <f t="shared" ca="1" si="8"/>
@@ -5717,7 +5719,7 @@
         <v>0.05</v>
       </c>
       <c r="U54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="9"/>
@@ -5753,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H55">
         <f t="shared" si="45"/>
@@ -5771,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="6"/>
@@ -5781,7 +5783,7 @@
         <v>0.05</v>
       </c>
       <c r="O55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P55">
         <f t="shared" ca="1" si="7"/>
@@ -5791,7 +5793,7 @@
         <v>0.01</v>
       </c>
       <c r="R55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S55">
         <f t="shared" ca="1" si="8"/>
@@ -5801,7 +5803,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="V55">
         <f t="shared" ca="1" si="9"/>
@@ -5837,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H56">
         <f t="shared" si="45"/>
@@ -5855,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="6"/>
@@ -5865,7 +5867,7 @@
         <v>0.05</v>
       </c>
       <c r="O56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P56">
         <f t="shared" ca="1" si="7"/>
@@ -5875,7 +5877,7 @@
         <v>0.1</v>
       </c>
       <c r="R56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S56">
         <f t="shared" ca="1" si="8"/>
@@ -5885,7 +5887,7 @@
         <v>0.02</v>
       </c>
       <c r="U56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="V56">
         <f t="shared" ca="1" si="9"/>
@@ -5921,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H57">
         <f t="shared" si="45"/>
@@ -5939,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="6"/>
@@ -5949,7 +5951,7 @@
         <v>0.02</v>
       </c>
       <c r="O57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P57">
         <f t="shared" ca="1" si="7"/>
@@ -5959,7 +5961,7 @@
         <v>0.1</v>
       </c>
       <c r="R57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S57">
         <f t="shared" ca="1" si="8"/>
@@ -5969,7 +5971,7 @@
         <v>0.05</v>
       </c>
       <c r="U57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="9"/>
@@ -6005,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H58">
         <f t="shared" si="45"/>
@@ -6023,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="6"/>
@@ -6033,7 +6035,7 @@
         <v>0.1</v>
       </c>
       <c r="O58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P58">
         <f t="shared" ca="1" si="7"/>
@@ -6043,7 +6045,7 @@
         <v>0.03</v>
       </c>
       <c r="R58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S58">
         <f t="shared" ca="1" si="8"/>
@@ -6053,7 +6055,7 @@
         <v>0.02</v>
       </c>
       <c r="U58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="9"/>
@@ -6089,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H59">
         <f t="shared" si="45"/>
@@ -6149,7 +6151,7 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H60">
         <f t="shared" si="45"/>
@@ -6209,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H61">
         <f t="shared" si="45"/>
@@ -6227,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="6"/>
@@ -6237,7 +6239,7 @@
         <v>0.01</v>
       </c>
       <c r="O61" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P61">
         <f t="shared" ca="1" si="7"/>
@@ -6247,7 +6249,7 @@
         <v>0.1</v>
       </c>
       <c r="R61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S61">
         <f t="shared" ca="1" si="8"/>
@@ -6257,7 +6259,7 @@
         <v>0.05</v>
       </c>
       <c r="U61" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="9"/>
@@ -6293,7 +6295,7 @@
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H62">
         <f t="shared" si="45"/>
@@ -6311,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="6"/>
@@ -6321,7 +6323,7 @@
         <v>0.05</v>
       </c>
       <c r="O62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P62">
         <f t="shared" ca="1" si="7"/>
@@ -6331,7 +6333,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S62">
         <f t="shared" ca="1" si="8"/>
@@ -6341,7 +6343,7 @@
         <v>0.03</v>
       </c>
       <c r="U62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="9"/>
@@ -6377,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H63">
         <f t="shared" si="45"/>
@@ -6395,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="6"/>
@@ -6405,7 +6407,7 @@
         <v>0.05</v>
       </c>
       <c r="O63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P63">
         <f t="shared" ca="1" si="7"/>
@@ -6415,7 +6417,7 @@
         <v>0.03</v>
       </c>
       <c r="R63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S63">
         <f t="shared" ca="1" si="8"/>
@@ -6425,7 +6427,7 @@
         <v>0.01</v>
       </c>
       <c r="U63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="9"/>
@@ -6461,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H64">
         <f t="shared" si="45"/>
@@ -6479,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="6"/>
@@ -6489,7 +6491,7 @@
         <v>0.1</v>
       </c>
       <c r="O64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P64">
         <f t="shared" ca="1" si="7"/>
@@ -6499,7 +6501,7 @@
         <v>0.05</v>
       </c>
       <c r="R64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S64">
         <f t="shared" ca="1" si="8"/>
@@ -6509,7 +6511,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="9"/>
@@ -6545,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H65">
         <f t="shared" si="45"/>
@@ -6563,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="6"/>
@@ -6573,7 +6575,7 @@
         <v>0.02</v>
       </c>
       <c r="O65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="7"/>
@@ -6583,7 +6585,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S65">
         <f t="shared" ca="1" si="8"/>
@@ -6593,7 +6595,7 @@
         <v>0.02</v>
       </c>
       <c r="U65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="9"/>
@@ -6629,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H67" si="84">COUNTIF(G:G,G66)</f>
@@ -6647,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M66">
         <f t="shared" ref="M66:M67" ca="1" si="85">VLOOKUP(L66,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6657,7 +6659,7 @@
         <v>0.03</v>
       </c>
       <c r="O66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P66">
         <f t="shared" ref="P66:P67" ca="1" si="86">VLOOKUP(O66,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6667,7 +6669,7 @@
         <v>0.02</v>
       </c>
       <c r="R66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S66">
         <f t="shared" ref="S66:S67" ca="1" si="87">VLOOKUP(R66,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6677,7 +6679,7 @@
         <v>0.2</v>
       </c>
       <c r="U66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V66">
         <f t="shared" ref="V66:V67" ca="1" si="88">VLOOKUP(U66,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6713,7 +6715,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H67">
         <f t="shared" si="84"/>
@@ -6775,11 +6777,11 @@
   <dimension ref="A1:P346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -6796,49 +6798,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
-      </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" t="s">
-        <v>124</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -6847,7 +6849,7 @@
         <v>Equip000001</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" ca="1" si="1">IF(B2&lt;&gt;OFFSET(B2,-1,0),
@@ -6928,7 +6930,7 @@
         <v>Equip010001</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
@@ -7002,7 +7004,7 @@
         <v>Equip020001</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
@@ -7076,7 +7078,7 @@
         <v>Equip030001</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
@@ -7150,7 +7152,7 @@
         <v>Equip040001</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
@@ -7224,7 +7226,7 @@
         <v>Equip050001</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
@@ -7298,7 +7300,7 @@
         <v>Equip060001</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
@@ -7372,7 +7374,7 @@
         <v>Equip000002</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
@@ -7446,7 +7448,7 @@
         <v>Equip010002</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
@@ -7520,7 +7522,7 @@
         <v>Equip020002</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
@@ -7594,7 +7596,7 @@
         <v>Equip030002</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
@@ -7668,7 +7670,7 @@
         <v>Equip040002</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
@@ -7742,7 +7744,7 @@
         <v>Equip050002</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
@@ -7816,7 +7818,7 @@
         <v>Equip060002</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
@@ -7890,7 +7892,7 @@
         <v>Equip000003</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
@@ -7964,7 +7966,7 @@
         <v>Equip010003</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
@@ -8038,7 +8040,7 @@
         <v>Equip020003</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
@@ -8112,7 +8114,7 @@
         <v>Equip030003</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
@@ -8186,7 +8188,7 @@
         <v>Equip040003</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
@@ -8260,7 +8262,7 @@
         <v>Equip050003</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
@@ -8334,7 +8336,7 @@
         <v>Equip060003</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
@@ -8408,7 +8410,7 @@
         <v>Equip030101</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
@@ -8482,7 +8484,7 @@
         <v>Equip040101</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
@@ -8556,7 +8558,7 @@
         <v>Equip050101</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
@@ -8630,7 +8632,7 @@
         <v>Equip060101</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
@@ -8704,7 +8706,7 @@
         <v>Equip030102</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
@@ -8778,7 +8780,7 @@
         <v>Equip040102</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
@@ -8852,7 +8854,7 @@
         <v>Equip050102</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
@@ -8926,7 +8928,7 @@
         <v>Equip060102</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
@@ -9000,7 +9002,7 @@
         <v>Equip030201</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
@@ -9074,7 +9076,7 @@
         <v>Equip040201</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
@@ -9148,7 +9150,7 @@
         <v>Equip050201</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
@@ -9222,7 +9224,7 @@
         <v>Equip060201</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
@@ -9296,7 +9298,7 @@
         <v>Equip030202</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
@@ -9370,7 +9372,7 @@
         <v>Equip040202</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
@@ -9444,7 +9446,7 @@
         <v>Equip050202</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
@@ -9518,7 +9520,7 @@
         <v>Equip060202</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
@@ -9592,7 +9594,7 @@
         <v>Equip001001</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
@@ -9666,7 +9668,7 @@
         <v>Equip011001</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
@@ -9740,7 +9742,7 @@
         <v>Equip021001</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
@@ -9814,7 +9816,7 @@
         <v>Equip031001</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
@@ -9888,7 +9890,7 @@
         <v>Equip041001</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
@@ -9962,7 +9964,7 @@
         <v>Equip051001</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
@@ -10036,7 +10038,7 @@
         <v>Equip061001</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
@@ -10110,7 +10112,7 @@
         <v>Equip001002</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
@@ -10184,7 +10186,7 @@
         <v>Equip011002</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
@@ -10258,7 +10260,7 @@
         <v>Equip021002</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
@@ -10332,7 +10334,7 @@
         <v>Equip031002</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
@@ -10406,7 +10408,7 @@
         <v>Equip041002</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
@@ -10480,7 +10482,7 @@
         <v>Equip051002</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
@@ -10554,7 +10556,7 @@
         <v>Equip061002</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
@@ -10628,7 +10630,7 @@
         <v>Equip001003</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
@@ -10702,7 +10704,7 @@
         <v>Equip011003</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
@@ -10776,7 +10778,7 @@
         <v>Equip021003</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
@@ -10850,7 +10852,7 @@
         <v>Equip031003</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
@@ -10924,7 +10926,7 @@
         <v>Equip041003</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
@@ -10998,7 +11000,7 @@
         <v>Equip051003</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
@@ -11072,7 +11074,7 @@
         <v>Equip061003</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
@@ -11146,7 +11148,7 @@
         <v>Equip031101</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
@@ -11220,7 +11222,7 @@
         <v>Equip041101</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
@@ -11294,7 +11296,7 @@
         <v>Equip051101</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
@@ -11368,7 +11370,7 @@
         <v>Equip061101</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
@@ -11442,7 +11444,7 @@
         <v>Equip031102</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
@@ -11516,7 +11518,7 @@
         <v>Equip041102</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
@@ -11590,7 +11592,7 @@
         <v>Equip051102</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C129" ca="1" si="5">IF(B66&lt;&gt;OFFSET(B66,-1,0),
@@ -11671,7 +11673,7 @@
         <v>Equip061102</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
@@ -11745,7 +11747,7 @@
         <v>Equip031201</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
@@ -11819,7 +11821,7 @@
         <v>Equip041201</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
@@ -11893,7 +11895,7 @@
         <v>Equip051201</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
@@ -11967,7 +11969,7 @@
         <v>Equip061201</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
@@ -12041,7 +12043,7 @@
         <v>Equip031202</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
@@ -12115,7 +12117,7 @@
         <v>Equip041202</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
@@ -12189,7 +12191,7 @@
         <v>Equip051202</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
@@ -12263,7 +12265,7 @@
         <v>Equip061202</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
@@ -12337,7 +12339,7 @@
         <v>Equip031203</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
@@ -12411,7 +12413,7 @@
         <v>Equip041203</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
@@ -12485,7 +12487,7 @@
         <v>Equip051203</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
@@ -12559,7 +12561,7 @@
         <v>Equip061203</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
@@ -12633,7 +12635,7 @@
         <v>Equip002001</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
@@ -12707,7 +12709,7 @@
         <v>Equip012001</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
@@ -12781,7 +12783,7 @@
         <v>Equip022001</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
@@ -12855,7 +12857,7 @@
         <v>Equip032001</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
@@ -12929,7 +12931,7 @@
         <v>Equip042001</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
@@ -13003,7 +13005,7 @@
         <v>Equip052001</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
@@ -13077,7 +13079,7 @@
         <v>Equip062001</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
@@ -13151,7 +13153,7 @@
         <v>Equip002002</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
@@ -13225,7 +13227,7 @@
         <v>Equip012002</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
@@ -13299,7 +13301,7 @@
         <v>Equip022002</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
@@ -13373,7 +13375,7 @@
         <v>Equip032002</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
@@ -13447,7 +13449,7 @@
         <v>Equip042002</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
@@ -13521,7 +13523,7 @@
         <v>Equip052002</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
@@ -13595,7 +13597,7 @@
         <v>Equip062002</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
@@ -13669,7 +13671,7 @@
         <v>Equip002003</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
@@ -13743,7 +13745,7 @@
         <v>Equip012003</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
@@ -13817,7 +13819,7 @@
         <v>Equip022003</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
@@ -13891,7 +13893,7 @@
         <v>Equip032003</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
@@ -13965,7 +13967,7 @@
         <v>Equip042003</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
@@ -14039,7 +14041,7 @@
         <v>Equip052003</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
@@ -14113,7 +14115,7 @@
         <v>Equip062003</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
@@ -14187,7 +14189,7 @@
         <v>Equip032101</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
@@ -14261,7 +14263,7 @@
         <v>Equip042101</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="5"/>
@@ -14335,7 +14337,7 @@
         <v>Equip052101</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="5"/>
@@ -14409,7 +14411,7 @@
         <v>Equip062101</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="5"/>
@@ -14483,7 +14485,7 @@
         <v>Equip032102</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="5"/>
@@ -14557,7 +14559,7 @@
         <v>Equip042102</v>
       </c>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="5"/>
@@ -14631,7 +14633,7 @@
         <v>Equip052102</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="5"/>
@@ -14705,7 +14707,7 @@
         <v>Equip062102</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="5"/>
@@ -14779,7 +14781,7 @@
         <v>Equip032201</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="5"/>
@@ -14853,7 +14855,7 @@
         <v>Equip042201</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="5"/>
@@ -14927,7 +14929,7 @@
         <v>Equip052201</v>
       </c>
       <c r="B111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="5"/>
@@ -15001,7 +15003,7 @@
         <v>Equip062201</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="5"/>
@@ -15075,7 +15077,7 @@
         <v>Equip032202</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="5"/>
@@ -15149,7 +15151,7 @@
         <v>Equip042202</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="5"/>
@@ -15223,7 +15225,7 @@
         <v>Equip052202</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="5"/>
@@ -15297,7 +15299,7 @@
         <v>Equip062202</v>
       </c>
       <c r="B116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="5"/>
@@ -15371,7 +15373,7 @@
         <v>Equip003001</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="5"/>
@@ -15432,7 +15434,7 @@
       </c>
       <c r="O117" t="str">
         <f ca="1">VLOOKUP($B117,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryAngSpear</v>
+        <v>ArmoryWand1</v>
       </c>
       <c r="P117">
         <f ca="1">VLOOKUP($B117,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -15445,7 +15447,7 @@
         <v>Equip013001</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="5"/>
@@ -15506,7 +15508,7 @@
       </c>
       <c r="O118" t="str">
         <f ca="1">VLOOKUP($B118,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryAngSpear</v>
+        <v>ArmoryWand1</v>
       </c>
       <c r="P118">
         <f ca="1">VLOOKUP($B118,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -15519,7 +15521,7 @@
         <v>Equip023001</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="5"/>
@@ -15580,7 +15582,7 @@
       </c>
       <c r="O119" t="str">
         <f ca="1">VLOOKUP($B119,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryAngSpear</v>
+        <v>ArmoryWand1</v>
       </c>
       <c r="P119">
         <f ca="1">VLOOKUP($B119,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -15593,7 +15595,7 @@
         <v>Equip033001</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="5"/>
@@ -15654,7 +15656,7 @@
       </c>
       <c r="O120" t="str">
         <f ca="1">VLOOKUP($B120,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryAngSpear</v>
+        <v>ArmoryWand1</v>
       </c>
       <c r="P120">
         <f ca="1">VLOOKUP($B120,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -15667,7 +15669,7 @@
         <v>Equip043001</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="5"/>
@@ -15728,7 +15730,7 @@
       </c>
       <c r="O121" t="str">
         <f ca="1">VLOOKUP($B121,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryAngSpear</v>
+        <v>ArmoryWand1</v>
       </c>
       <c r="P121">
         <f ca="1">VLOOKUP($B121,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -15741,7 +15743,7 @@
         <v>Equip053001</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="5"/>
@@ -15802,7 +15804,7 @@
       </c>
       <c r="O122" t="str">
         <f ca="1">VLOOKUP($B122,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryAngSpear</v>
+        <v>ArmoryWand1</v>
       </c>
       <c r="P122">
         <f ca="1">VLOOKUP($B122,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -15815,7 +15817,7 @@
         <v>Equip063001</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="5"/>
@@ -15876,7 +15878,7 @@
       </c>
       <c r="O123" t="str">
         <f ca="1">VLOOKUP($B123,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryAngSpear</v>
+        <v>ArmoryWand1</v>
       </c>
       <c r="P123">
         <f ca="1">VLOOKUP($B123,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -15889,7 +15891,7 @@
         <v>Equip003002</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="5"/>
@@ -15963,7 +15965,7 @@
         <v>Equip013002</v>
       </c>
       <c r="B125" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="5"/>
@@ -16037,7 +16039,7 @@
         <v>Equip023002</v>
       </c>
       <c r="B126" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="5"/>
@@ -16111,7 +16113,7 @@
         <v>Equip033002</v>
       </c>
       <c r="B127" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="5"/>
@@ -16185,7 +16187,7 @@
         <v>Equip043002</v>
       </c>
       <c r="B128" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="5"/>
@@ -16259,7 +16261,7 @@
         <v>Equip053002</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="5"/>
@@ -16333,7 +16335,7 @@
         <v>Equip063002</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C193" ca="1" si="9">IF(B130&lt;&gt;OFFSET(B130,-1,0),
@@ -16414,7 +16416,7 @@
         <v>Equip003003</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="9"/>
@@ -16488,7 +16490,7 @@
         <v>Equip013003</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="9"/>
@@ -16562,7 +16564,7 @@
         <v>Equip023003</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="9"/>
@@ -16636,7 +16638,7 @@
         <v>Equip033003</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="9"/>
@@ -16710,7 +16712,7 @@
         <v>Equip043003</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="9"/>
@@ -16784,7 +16786,7 @@
         <v>Equip053003</v>
       </c>
       <c r="B136" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="9"/>
@@ -16858,7 +16860,7 @@
         <v>Equip063003</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="9"/>
@@ -16932,7 +16934,7 @@
         <v>Equip033101</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="9"/>
@@ -16993,7 +16995,7 @@
       </c>
       <c r="O138" t="str">
         <f ca="1">VLOOKUP($B138,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryWand1</v>
+        <v>ArmoryAngSpear</v>
       </c>
       <c r="P138">
         <f ca="1">VLOOKUP($B138,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -17006,7 +17008,7 @@
         <v>Equip043101</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="9"/>
@@ -17067,7 +17069,7 @@
       </c>
       <c r="O139" t="str">
         <f ca="1">VLOOKUP($B139,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryWand1</v>
+        <v>ArmoryAngSpear</v>
       </c>
       <c r="P139">
         <f ca="1">VLOOKUP($B139,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -17080,7 +17082,7 @@
         <v>Equip053101</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="9"/>
@@ -17141,7 +17143,7 @@
       </c>
       <c r="O140" t="str">
         <f ca="1">VLOOKUP($B140,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryWand1</v>
+        <v>ArmoryAngSpear</v>
       </c>
       <c r="P140">
         <f ca="1">VLOOKUP($B140,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -17154,7 +17156,7 @@
         <v>Equip063101</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="9"/>
@@ -17215,7 +17217,7 @@
       </c>
       <c r="O141" t="str">
         <f ca="1">VLOOKUP($B141,EquipTable!$A:$Z,MATCH(SUBSTITUTE(O$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
-        <v>ArmoryWand1</v>
+        <v>ArmoryAngSpear</v>
       </c>
       <c r="P141">
         <f ca="1">VLOOKUP($B141,EquipTable!$A:$Z,MATCH(SUBSTITUTE(P$1,"참고",""),EquipTable!$A$1:$Z$1,0),0)</f>
@@ -17228,7 +17230,7 @@
         <v>Equip033102</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="9"/>
@@ -17302,7 +17304,7 @@
         <v>Equip043102</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="9"/>
@@ -17376,7 +17378,7 @@
         <v>Equip053102</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="9"/>
@@ -17450,7 +17452,7 @@
         <v>Equip063102</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="9"/>
@@ -17524,7 +17526,7 @@
         <v>Equip033201</v>
       </c>
       <c r="B146" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="9"/>
@@ -17598,7 +17600,7 @@
         <v>Equip043201</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="9"/>
@@ -17672,7 +17674,7 @@
         <v>Equip053201</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="9"/>
@@ -17746,7 +17748,7 @@
         <v>Equip063201</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="9"/>
@@ -17820,7 +17822,7 @@
         <v>Equip033202</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="9"/>
@@ -17894,7 +17896,7 @@
         <v>Equip043202</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="9"/>
@@ -17968,7 +17970,7 @@
         <v>Equip053202</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="9"/>
@@ -18042,7 +18044,7 @@
         <v>Equip063202</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="9"/>
@@ -18116,7 +18118,7 @@
         <v>Equip004001</v>
       </c>
       <c r="B154" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="9"/>
@@ -18190,7 +18192,7 @@
         <v>Equip014001</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="9"/>
@@ -18264,7 +18266,7 @@
         <v>Equip024001</v>
       </c>
       <c r="B156" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="9"/>
@@ -18338,7 +18340,7 @@
         <v>Equip034001</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="9"/>
@@ -18412,7 +18414,7 @@
         <v>Equip044001</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="9"/>
@@ -18486,7 +18488,7 @@
         <v>Equip054001</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="9"/>
@@ -18560,7 +18562,7 @@
         <v>Equip064001</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="9"/>
@@ -18634,7 +18636,7 @@
         <v>Equip004002</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="9"/>
@@ -18708,7 +18710,7 @@
         <v>Equip014002</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="9"/>
@@ -18782,7 +18784,7 @@
         <v>Equip024002</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="9"/>
@@ -18856,7 +18858,7 @@
         <v>Equip034002</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="9"/>
@@ -18930,7 +18932,7 @@
         <v>Equip044002</v>
       </c>
       <c r="B165" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="9"/>
@@ -19004,7 +19006,7 @@
         <v>Equip054002</v>
       </c>
       <c r="B166" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="9"/>
@@ -19078,7 +19080,7 @@
         <v>Equip064002</v>
       </c>
       <c r="B167" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="9"/>
@@ -19152,7 +19154,7 @@
         <v>Equip004003</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="9"/>
@@ -19226,7 +19228,7 @@
         <v>Equip014003</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="9"/>
@@ -19300,7 +19302,7 @@
         <v>Equip024003</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="9"/>
@@ -19374,7 +19376,7 @@
         <v>Equip034003</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="9"/>
@@ -19448,7 +19450,7 @@
         <v>Equip044003</v>
       </c>
       <c r="B172" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="9"/>
@@ -19522,7 +19524,7 @@
         <v>Equip054003</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="9"/>
@@ -19596,7 +19598,7 @@
         <v>Equip064003</v>
       </c>
       <c r="B174" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="9"/>
@@ -19670,7 +19672,7 @@
         <v>Equip034101</v>
       </c>
       <c r="B175" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="9"/>
@@ -19744,7 +19746,7 @@
         <v>Equip044101</v>
       </c>
       <c r="B176" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="9"/>
@@ -19818,7 +19820,7 @@
         <v>Equip054101</v>
       </c>
       <c r="B177" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="9"/>
@@ -19892,7 +19894,7 @@
         <v>Equip064101</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="9"/>
@@ -19966,7 +19968,7 @@
         <v>Equip034102</v>
       </c>
       <c r="B179" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="9"/>
@@ -20040,7 +20042,7 @@
         <v>Equip044102</v>
       </c>
       <c r="B180" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="9"/>
@@ -20114,7 +20116,7 @@
         <v>Equip054102</v>
       </c>
       <c r="B181" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="9"/>
@@ -20188,7 +20190,7 @@
         <v>Equip064102</v>
       </c>
       <c r="B182" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="9"/>
@@ -20262,7 +20264,7 @@
         <v>Equip034201</v>
       </c>
       <c r="B183" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="9"/>
@@ -20336,7 +20338,7 @@
         <v>Equip044201</v>
       </c>
       <c r="B184" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="9"/>
@@ -20410,7 +20412,7 @@
         <v>Equip054201</v>
       </c>
       <c r="B185" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="9"/>
@@ -20484,7 +20486,7 @@
         <v>Equip064201</v>
       </c>
       <c r="B186" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="9"/>
@@ -20558,7 +20560,7 @@
         <v>Equip034202</v>
       </c>
       <c r="B187" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="9"/>
@@ -20632,7 +20634,7 @@
         <v>Equip044202</v>
       </c>
       <c r="B188" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="9"/>
@@ -20706,7 +20708,7 @@
         <v>Equip054202</v>
       </c>
       <c r="B189" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="9"/>
@@ -20780,7 +20782,7 @@
         <v>Equip064202</v>
       </c>
       <c r="B190" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="9"/>
@@ -20854,7 +20856,7 @@
         <v>Equip034203</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="9"/>
@@ -20928,7 +20930,7 @@
         <v>Equip044203</v>
       </c>
       <c r="B192" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="9"/>
@@ -21002,7 +21004,7 @@
         <v>Equip054203</v>
       </c>
       <c r="B193" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="9"/>
@@ -21076,7 +21078,7 @@
         <v>Equip064203</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" ca="1" si="13">IF(B194&lt;&gt;OFFSET(B194,-1,0),
@@ -21157,7 +21159,7 @@
         <v>Equip005001</v>
       </c>
       <c r="B195" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="13"/>
@@ -21231,7 +21233,7 @@
         <v>Equip015001</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="13"/>
@@ -21305,7 +21307,7 @@
         <v>Equip025001</v>
       </c>
       <c r="B197" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="13"/>
@@ -21379,7 +21381,7 @@
         <v>Equip035001</v>
       </c>
       <c r="B198" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="13"/>
@@ -21453,7 +21455,7 @@
         <v>Equip045001</v>
       </c>
       <c r="B199" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="13"/>
@@ -21527,7 +21529,7 @@
         <v>Equip055001</v>
       </c>
       <c r="B200" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="13"/>
@@ -21601,7 +21603,7 @@
         <v>Equip065001</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="13"/>
@@ -21675,7 +21677,7 @@
         <v>Equip005002</v>
       </c>
       <c r="B202" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="13"/>
@@ -21749,7 +21751,7 @@
         <v>Equip015002</v>
       </c>
       <c r="B203" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="13"/>
@@ -21823,7 +21825,7 @@
         <v>Equip025002</v>
       </c>
       <c r="B204" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="13"/>
@@ -21897,7 +21899,7 @@
         <v>Equip035002</v>
       </c>
       <c r="B205" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="13"/>
@@ -21971,7 +21973,7 @@
         <v>Equip045002</v>
       </c>
       <c r="B206" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="13"/>
@@ -22045,7 +22047,7 @@
         <v>Equip055002</v>
       </c>
       <c r="B207" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="13"/>
@@ -22119,7 +22121,7 @@
         <v>Equip065002</v>
       </c>
       <c r="B208" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="13"/>
@@ -22193,7 +22195,7 @@
         <v>Equip005003</v>
       </c>
       <c r="B209" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="13"/>
@@ -22267,7 +22269,7 @@
         <v>Equip015003</v>
       </c>
       <c r="B210" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="13"/>
@@ -22341,7 +22343,7 @@
         <v>Equip025003</v>
       </c>
       <c r="B211" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="13"/>
@@ -22415,7 +22417,7 @@
         <v>Equip035003</v>
       </c>
       <c r="B212" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="13"/>
@@ -22489,7 +22491,7 @@
         <v>Equip045003</v>
       </c>
       <c r="B213" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="13"/>
@@ -22563,7 +22565,7 @@
         <v>Equip055003</v>
       </c>
       <c r="B214" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="13"/>
@@ -22637,7 +22639,7 @@
         <v>Equip065003</v>
       </c>
       <c r="B215" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="13"/>
@@ -22711,7 +22713,7 @@
         <v>Equip035101</v>
       </c>
       <c r="B216" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="13"/>
@@ -22785,7 +22787,7 @@
         <v>Equip045101</v>
       </c>
       <c r="B217" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="13"/>
@@ -22859,7 +22861,7 @@
         <v>Equip055101</v>
       </c>
       <c r="B218" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="13"/>
@@ -22933,7 +22935,7 @@
         <v>Equip065101</v>
       </c>
       <c r="B219" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="13"/>
@@ -23007,7 +23009,7 @@
         <v>Equip035102</v>
       </c>
       <c r="B220" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="13"/>
@@ -23081,7 +23083,7 @@
         <v>Equip045102</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="13"/>
@@ -23155,7 +23157,7 @@
         <v>Equip055102</v>
       </c>
       <c r="B222" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="13"/>
@@ -23229,7 +23231,7 @@
         <v>Equip065102</v>
       </c>
       <c r="B223" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="13"/>
@@ -23303,7 +23305,7 @@
         <v>Equip035201</v>
       </c>
       <c r="B224" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="13"/>
@@ -23377,7 +23379,7 @@
         <v>Equip045201</v>
       </c>
       <c r="B225" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="13"/>
@@ -23451,7 +23453,7 @@
         <v>Equip055201</v>
       </c>
       <c r="B226" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="13"/>
@@ -23525,7 +23527,7 @@
         <v>Equip065201</v>
       </c>
       <c r="B227" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="13"/>
@@ -23599,7 +23601,7 @@
         <v>Equip035202</v>
       </c>
       <c r="B228" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="13"/>
@@ -23673,7 +23675,7 @@
         <v>Equip045202</v>
       </c>
       <c r="B229" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="13"/>
@@ -23747,7 +23749,7 @@
         <v>Equip055202</v>
       </c>
       <c r="B230" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="13"/>
@@ -23821,7 +23823,7 @@
         <v>Equip065202</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="13"/>
@@ -23895,7 +23897,7 @@
         <v>Equip006001</v>
       </c>
       <c r="B232" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="13"/>
@@ -23969,7 +23971,7 @@
         <v>Equip016001</v>
       </c>
       <c r="B233" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="13"/>
@@ -24043,7 +24045,7 @@
         <v>Equip026001</v>
       </c>
       <c r="B234" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="13"/>
@@ -24117,7 +24119,7 @@
         <v>Equip036001</v>
       </c>
       <c r="B235" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="13"/>
@@ -24191,7 +24193,7 @@
         <v>Equip046001</v>
       </c>
       <c r="B236" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="13"/>
@@ -24265,7 +24267,7 @@
         <v>Equip056001</v>
       </c>
       <c r="B237" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="13"/>
@@ -24339,7 +24341,7 @@
         <v>Equip066001</v>
       </c>
       <c r="B238" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="13"/>
@@ -24413,7 +24415,7 @@
         <v>Equip006002</v>
       </c>
       <c r="B239" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="13"/>
@@ -24487,7 +24489,7 @@
         <v>Equip016002</v>
       </c>
       <c r="B240" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="13"/>
@@ -24561,7 +24563,7 @@
         <v>Equip026002</v>
       </c>
       <c r="B241" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="13"/>
@@ -24635,7 +24637,7 @@
         <v>Equip036002</v>
       </c>
       <c r="B242" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="13"/>
@@ -24709,7 +24711,7 @@
         <v>Equip046002</v>
       </c>
       <c r="B243" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="13"/>
@@ -24783,7 +24785,7 @@
         <v>Equip056002</v>
       </c>
       <c r="B244" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="13"/>
@@ -24857,7 +24859,7 @@
         <v>Equip066002</v>
       </c>
       <c r="B245" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="13"/>
@@ -24931,7 +24933,7 @@
         <v>Equip006003</v>
       </c>
       <c r="B246" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="13"/>
@@ -25005,7 +25007,7 @@
         <v>Equip016003</v>
       </c>
       <c r="B247" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="13"/>
@@ -25079,7 +25081,7 @@
         <v>Equip026003</v>
       </c>
       <c r="B248" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="13"/>
@@ -25153,7 +25155,7 @@
         <v>Equip036003</v>
       </c>
       <c r="B249" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="13"/>
@@ -25227,7 +25229,7 @@
         <v>Equip046003</v>
       </c>
       <c r="B250" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="13"/>
@@ -25301,7 +25303,7 @@
         <v>Equip056003</v>
       </c>
       <c r="B251" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="13"/>
@@ -25375,7 +25377,7 @@
         <v>Equip066003</v>
       </c>
       <c r="B252" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="13"/>
@@ -25449,7 +25451,7 @@
         <v>Equip036101</v>
       </c>
       <c r="B253" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="13"/>
@@ -25523,7 +25525,7 @@
         <v>Equip046101</v>
       </c>
       <c r="B254" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="13"/>
@@ -25597,7 +25599,7 @@
         <v>Equip056101</v>
       </c>
       <c r="B255" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="13"/>
@@ -25671,7 +25673,7 @@
         <v>Equip066101</v>
       </c>
       <c r="B256" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="13"/>
@@ -25745,7 +25747,7 @@
         <v>Equip036102</v>
       </c>
       <c r="B257" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="13"/>
@@ -25819,7 +25821,7 @@
         <v>Equip046102</v>
       </c>
       <c r="B258" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" ca="1" si="17">IF(B258&lt;&gt;OFFSET(B258,-1,0),
@@ -25900,7 +25902,7 @@
         <v>Equip056102</v>
       </c>
       <c r="B259" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="17"/>
@@ -25974,7 +25976,7 @@
         <v>Equip066102</v>
       </c>
       <c r="B260" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="17"/>
@@ -26048,7 +26050,7 @@
         <v>Equip036201</v>
       </c>
       <c r="B261" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="17"/>
@@ -26122,7 +26124,7 @@
         <v>Equip046201</v>
       </c>
       <c r="B262" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="17"/>
@@ -26196,7 +26198,7 @@
         <v>Equip056201</v>
       </c>
       <c r="B263" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="17"/>
@@ -26270,7 +26272,7 @@
         <v>Equip066201</v>
       </c>
       <c r="B264" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="17"/>
@@ -26344,7 +26346,7 @@
         <v>Equip036202</v>
       </c>
       <c r="B265" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="17"/>
@@ -26418,7 +26420,7 @@
         <v>Equip046202</v>
       </c>
       <c r="B266" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="17"/>
@@ -26492,7 +26494,7 @@
         <v>Equip056202</v>
       </c>
       <c r="B267" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="17"/>
@@ -26566,7 +26568,7 @@
         <v>Equip066202</v>
       </c>
       <c r="B268" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="17"/>
@@ -26640,7 +26642,7 @@
         <v>Equip007001</v>
       </c>
       <c r="B269" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="17"/>
@@ -26714,7 +26716,7 @@
         <v>Equip017001</v>
       </c>
       <c r="B270" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="17"/>
@@ -26788,7 +26790,7 @@
         <v>Equip027001</v>
       </c>
       <c r="B271" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="17"/>
@@ -26862,7 +26864,7 @@
         <v>Equip037001</v>
       </c>
       <c r="B272" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="17"/>
@@ -26936,7 +26938,7 @@
         <v>Equip047001</v>
       </c>
       <c r="B273" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="17"/>
@@ -27010,7 +27012,7 @@
         <v>Equip057001</v>
       </c>
       <c r="B274" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="17"/>
@@ -27084,7 +27086,7 @@
         <v>Equip067001</v>
       </c>
       <c r="B275" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="17"/>
@@ -27158,7 +27160,7 @@
         <v>Equip007002</v>
       </c>
       <c r="B276" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="17"/>
@@ -27232,7 +27234,7 @@
         <v>Equip017002</v>
       </c>
       <c r="B277" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="17"/>
@@ -27306,7 +27308,7 @@
         <v>Equip027002</v>
       </c>
       <c r="B278" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="17"/>
@@ -27380,7 +27382,7 @@
         <v>Equip037002</v>
       </c>
       <c r="B279" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="17"/>
@@ -27454,7 +27456,7 @@
         <v>Equip047002</v>
       </c>
       <c r="B280" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="17"/>
@@ -27528,7 +27530,7 @@
         <v>Equip057002</v>
       </c>
       <c r="B281" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="17"/>
@@ -27602,7 +27604,7 @@
         <v>Equip067002</v>
       </c>
       <c r="B282" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="17"/>
@@ -27676,7 +27678,7 @@
         <v>Equip007003</v>
       </c>
       <c r="B283" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="17"/>
@@ -27750,7 +27752,7 @@
         <v>Equip017003</v>
       </c>
       <c r="B284" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="17"/>
@@ -27824,7 +27826,7 @@
         <v>Equip027003</v>
       </c>
       <c r="B285" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="17"/>
@@ -27898,7 +27900,7 @@
         <v>Equip037003</v>
       </c>
       <c r="B286" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="17"/>
@@ -27972,7 +27974,7 @@
         <v>Equip047003</v>
       </c>
       <c r="B287" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="17"/>
@@ -28046,7 +28048,7 @@
         <v>Equip057003</v>
       </c>
       <c r="B288" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="17"/>
@@ -28120,7 +28122,7 @@
         <v>Equip067003</v>
       </c>
       <c r="B289" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="17"/>
@@ -28194,7 +28196,7 @@
         <v>Equip037101</v>
       </c>
       <c r="B290" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="17"/>
@@ -28268,7 +28270,7 @@
         <v>Equip047101</v>
       </c>
       <c r="B291" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="17"/>
@@ -28342,7 +28344,7 @@
         <v>Equip057101</v>
       </c>
       <c r="B292" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C292">
         <f t="shared" ca="1" si="17"/>
@@ -28416,7 +28418,7 @@
         <v>Equip067101</v>
       </c>
       <c r="B293" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="17"/>
@@ -28490,7 +28492,7 @@
         <v>Equip037102</v>
       </c>
       <c r="B294" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="17"/>
@@ -28564,7 +28566,7 @@
         <v>Equip047102</v>
       </c>
       <c r="B295" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="17"/>
@@ -28638,7 +28640,7 @@
         <v>Equip057102</v>
       </c>
       <c r="B296" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="17"/>
@@ -28712,7 +28714,7 @@
         <v>Equip067102</v>
       </c>
       <c r="B297" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C297">
         <f t="shared" ca="1" si="17"/>
@@ -28786,7 +28788,7 @@
         <v>Equip037201</v>
       </c>
       <c r="B298" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C298">
         <f t="shared" ca="1" si="17"/>
@@ -28860,7 +28862,7 @@
         <v>Equip047201</v>
       </c>
       <c r="B299" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="17"/>
@@ -28934,7 +28936,7 @@
         <v>Equip057201</v>
       </c>
       <c r="B300" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="17"/>
@@ -29008,7 +29010,7 @@
         <v>Equip067201</v>
       </c>
       <c r="B301" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="17"/>
@@ -29082,7 +29084,7 @@
         <v>Equip037202</v>
       </c>
       <c r="B302" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C302">
         <f t="shared" ca="1" si="17"/>
@@ -29156,7 +29158,7 @@
         <v>Equip047202</v>
       </c>
       <c r="B303" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="17"/>
@@ -29230,7 +29232,7 @@
         <v>Equip057202</v>
       </c>
       <c r="B304" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C304">
         <f t="shared" ca="1" si="17"/>
@@ -29304,7 +29306,7 @@
         <v>Equip067202</v>
       </c>
       <c r="B305" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="17"/>
@@ -29378,7 +29380,7 @@
         <v>Equip037203</v>
       </c>
       <c r="B306" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C306">
         <f t="shared" ca="1" si="17"/>
@@ -29452,7 +29454,7 @@
         <v>Equip047203</v>
       </c>
       <c r="B307" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="17"/>
@@ -29526,7 +29528,7 @@
         <v>Equip057203</v>
       </c>
       <c r="B308" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C308">
         <f t="shared" ca="1" si="17"/>
@@ -29600,7 +29602,7 @@
         <v>Equip067203</v>
       </c>
       <c r="B309" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="17"/>
@@ -29674,7 +29676,7 @@
         <v>Equip008001</v>
       </c>
       <c r="B310" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="17"/>
@@ -29748,7 +29750,7 @@
         <v>Equip018001</v>
       </c>
       <c r="B311" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="17"/>
@@ -29822,7 +29824,7 @@
         <v>Equip028001</v>
       </c>
       <c r="B312" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="17"/>
@@ -29896,7 +29898,7 @@
         <v>Equip038001</v>
       </c>
       <c r="B313" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="17"/>
@@ -29970,7 +29972,7 @@
         <v>Equip048001</v>
       </c>
       <c r="B314" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="17"/>
@@ -30044,7 +30046,7 @@
         <v>Equip058001</v>
       </c>
       <c r="B315" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="17"/>
@@ -30118,7 +30120,7 @@
         <v>Equip068001</v>
       </c>
       <c r="B316" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="17"/>
@@ -30192,7 +30194,7 @@
         <v>Equip008002</v>
       </c>
       <c r="B317" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="17"/>
@@ -30266,7 +30268,7 @@
         <v>Equip018002</v>
       </c>
       <c r="B318" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="17"/>
@@ -30340,7 +30342,7 @@
         <v>Equip028002</v>
       </c>
       <c r="B319" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="17"/>
@@ -30414,7 +30416,7 @@
         <v>Equip038002</v>
       </c>
       <c r="B320" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="17"/>
@@ -30488,7 +30490,7 @@
         <v>Equip048002</v>
       </c>
       <c r="B321" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="17"/>
@@ -30562,7 +30564,7 @@
         <v>Equip058002</v>
       </c>
       <c r="B322" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C322">
         <f t="shared" ref="C322:C346" ca="1" si="21">IF(B322&lt;&gt;OFFSET(B322,-1,0),
@@ -30643,7 +30645,7 @@
         <v>Equip068002</v>
       </c>
       <c r="B323" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="21"/>
@@ -30717,7 +30719,7 @@
         <v>Equip008003</v>
       </c>
       <c r="B324" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="21"/>
@@ -30791,7 +30793,7 @@
         <v>Equip018003</v>
       </c>
       <c r="B325" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="21"/>
@@ -30865,7 +30867,7 @@
         <v>Equip028003</v>
       </c>
       <c r="B326" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="21"/>
@@ -30939,7 +30941,7 @@
         <v>Equip038003</v>
       </c>
       <c r="B327" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="21"/>
@@ -31013,7 +31015,7 @@
         <v>Equip048003</v>
       </c>
       <c r="B328" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="21"/>
@@ -31087,7 +31089,7 @@
         <v>Equip058003</v>
       </c>
       <c r="B329" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="21"/>
@@ -31161,7 +31163,7 @@
         <v>Equip068003</v>
       </c>
       <c r="B330" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="21"/>
@@ -31235,7 +31237,7 @@
         <v>Equip038101</v>
       </c>
       <c r="B331" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="21"/>
@@ -31309,7 +31311,7 @@
         <v>Equip048101</v>
       </c>
       <c r="B332" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="21"/>
@@ -31383,7 +31385,7 @@
         <v>Equip058101</v>
       </c>
       <c r="B333" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="21"/>
@@ -31457,7 +31459,7 @@
         <v>Equip068101</v>
       </c>
       <c r="B334" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="21"/>
@@ -31531,7 +31533,7 @@
         <v>Equip038102</v>
       </c>
       <c r="B335" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="21"/>
@@ -31605,7 +31607,7 @@
         <v>Equip048102</v>
       </c>
       <c r="B336" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="21"/>
@@ -31679,7 +31681,7 @@
         <v>Equip058102</v>
       </c>
       <c r="B337" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="21"/>
@@ -31753,7 +31755,7 @@
         <v>Equip068102</v>
       </c>
       <c r="B338" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="21"/>
@@ -31827,7 +31829,7 @@
         <v>Equip038201</v>
       </c>
       <c r="B339" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="21"/>
@@ -31901,7 +31903,7 @@
         <v>Equip048201</v>
       </c>
       <c r="B340" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="21"/>
@@ -31975,7 +31977,7 @@
         <v>Equip058201</v>
       </c>
       <c r="B341" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C341">
         <f t="shared" ca="1" si="21"/>
@@ -32049,7 +32051,7 @@
         <v>Equip068201</v>
       </c>
       <c r="B342" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="21"/>
@@ -32123,7 +32125,7 @@
         <v>Equip038202</v>
       </c>
       <c r="B343" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="21"/>
@@ -32197,7 +32199,7 @@
         <v>Equip048202</v>
       </c>
       <c r="B344" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="21"/>
@@ -32271,7 +32273,7 @@
         <v>Equip058202</v>
       </c>
       <c r="B345" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="21"/>
@@ -32345,7 +32347,7 @@
         <v>Equip068202</v>
       </c>
       <c r="B346" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="21"/>
@@ -32454,25 +32456,25 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" t="s">
         <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
@@ -34351,10 +34353,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552F94B-BE4B-4A93-99AC-D6EC9E28012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E422BF-1A50-4245-8D2C-5A0C3E38010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -1183,7 +1183,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
@@ -6776,12 +6776,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P346"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -7024,10 +7024,10 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I4" t="str">
         <f ca="1">IF($C4&lt;=2,"",
@@ -7098,22 +7098,22 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I5">
         <f ca="1">IF($C5&lt;=2,"",
 IF(AND($C5&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C5,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I5,0,-1)+INT($H5/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J5">
         <f ca="1">IF($C5&lt;=2,"",
 IF(AND($C5&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C5,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J5,0,-1)+INT($H5/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K5" t="str">
         <f ca="1">IF($C5&lt;=2,"",
@@ -7172,28 +7172,28 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I6">
         <f ca="1">IF($C6&lt;=2,"",
 IF(AND($C6&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C6,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I6,0,-1)+INT($H6/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J6">
         <f ca="1">IF($C6&lt;=2,"",
 IF(AND($C6&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C6,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J6,0,-1)+INT($H6/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K6">
         <f ca="1">IF($C6&lt;=2,"",
 IF(AND($C6&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C6,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K6,0,-1)+INT($H6/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L6" t="str">
         <f ca="1">IF($C6&lt;=2,"",
@@ -7246,34 +7246,34 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H7">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I7">
         <f ca="1">IF($C7&lt;=2,"",
 IF(AND($C7&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C7,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I7,0,-1)+INT($H7/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J7">
         <f ca="1">IF($C7&lt;=2,"",
 IF(AND($C7&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C7,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J7,0,-1)+INT($H7/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K7">
         <f ca="1">IF($C7&lt;=2,"",
 IF(AND($C7&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C7,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K7,0,-1)+INT($H7/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L7">
         <f ca="1">IF($C7&lt;=2,"",
 IF(AND($C7&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C7,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L7,0,-1)+INT($H7/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">IF($C7&lt;=2,"",
@@ -7542,10 +7542,10 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I11" t="str">
         <f ca="1">IF($C11&lt;=2,"",
@@ -7616,22 +7616,22 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H12">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I12">
         <f ca="1">IF($C12&lt;=2,"",
 IF(AND($C12&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C12,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I12,0,-1)+INT($H12/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J12">
         <f ca="1">IF($C12&lt;=2,"",
 IF(AND($C12&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C12,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J12,0,-1)+INT($H12/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K12" t="str">
         <f ca="1">IF($C12&lt;=2,"",
@@ -7690,28 +7690,28 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H13">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I13">
         <f ca="1">IF($C13&lt;=2,"",
 IF(AND($C13&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C13,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I13,0,-1)+INT($H13/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J13">
         <f ca="1">IF($C13&lt;=2,"",
 IF(AND($C13&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C13,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J13,0,-1)+INT($H13/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K13">
         <f ca="1">IF($C13&lt;=2,"",
 IF(AND($C13&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C13,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K13,0,-1)+INT($H13/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L13" t="str">
         <f ca="1">IF($C13&lt;=2,"",
@@ -7764,34 +7764,34 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H14">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I14">
         <f ca="1">IF($C14&lt;=2,"",
 IF(AND($C14&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C14,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I14,0,-1)+INT($H14/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J14">
         <f ca="1">IF($C14&lt;=2,"",
 IF(AND($C14&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C14,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J14,0,-1)+INT($H14/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K14">
         <f ca="1">IF($C14&lt;=2,"",
 IF(AND($C14&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C14,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K14,0,-1)+INT($H14/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L14">
         <f ca="1">IF($C14&lt;=2,"",
 IF(AND($C14&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C14,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L14,0,-1)+INT($H14/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">IF($C14&lt;=2,"",
@@ -8060,10 +8060,10 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I18" t="str">
         <f ca="1">IF($C18&lt;=2,"",
@@ -8134,22 +8134,22 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H19">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I19">
         <f ca="1">IF($C19&lt;=2,"",
 IF(AND($C19&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C19,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I19,0,-1)+INT($H19/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J19">
         <f ca="1">IF($C19&lt;=2,"",
 IF(AND($C19&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C19,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J19,0,-1)+INT($H19/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K19" t="str">
         <f ca="1">IF($C19&lt;=2,"",
@@ -8208,28 +8208,28 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H20">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I20">
         <f ca="1">IF($C20&lt;=2,"",
 IF(AND($C20&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C20,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I20,0,-1)+INT($H20/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J20">
         <f ca="1">IF($C20&lt;=2,"",
 IF(AND($C20&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C20,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J20,0,-1)+INT($H20/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K20">
         <f ca="1">IF($C20&lt;=2,"",
 IF(AND($C20&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C20,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K20,0,-1)+INT($H20/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L20" t="str">
         <f ca="1">IF($C20&lt;=2,"",
@@ -8282,34 +8282,34 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H21">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I21">
         <f ca="1">IF($C21&lt;=2,"",
 IF(AND($C21&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C21,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I21,0,-1)+INT($H21/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J21">
         <f ca="1">IF($C21&lt;=2,"",
 IF(AND($C21&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C21,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J21,0,-1)+INT($H21/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K21">
         <f ca="1">IF($C21&lt;=2,"",
 IF(AND($C21&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C21,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K21,0,-1)+INT($H21/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L21">
         <f ca="1">IF($C21&lt;=2,"",
 IF(AND($C21&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C21,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L21,0,-1)+INT($H21/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M21" t="str">
         <f ca="1">IF($C21&lt;=2,"",
@@ -8430,22 +8430,22 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H23">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I23">
         <f ca="1">IF($C23&lt;=2,"",
 IF(AND($C23&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C23,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I23,0,-1)+INT($H23/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J23">
         <f ca="1">IF($C23&lt;=2,"",
 IF(AND($C23&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C23,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J23,0,-1)+INT($H23/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K23" t="str">
         <f ca="1">IF($C23&lt;=2,"",
@@ -8504,28 +8504,28 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H24">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I24">
         <f ca="1">IF($C24&lt;=2,"",
 IF(AND($C24&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C24,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I24,0,-1)+INT($H24/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J24">
         <f ca="1">IF($C24&lt;=2,"",
 IF(AND($C24&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C24,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J24,0,-1)+INT($H24/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K24">
         <f ca="1">IF($C24&lt;=2,"",
 IF(AND($C24&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C24,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K24,0,-1)+INT($H24/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L24" t="str">
         <f ca="1">IF($C24&lt;=2,"",
@@ -8578,34 +8578,34 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H25">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I25">
         <f ca="1">IF($C25&lt;=2,"",
 IF(AND($C25&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C25,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I25,0,-1)+INT($H25/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J25">
         <f ca="1">IF($C25&lt;=2,"",
 IF(AND($C25&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C25,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J25,0,-1)+INT($H25/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K25">
         <f ca="1">IF($C25&lt;=2,"",
 IF(AND($C25&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C25,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K25,0,-1)+INT($H25/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L25">
         <f ca="1">IF($C25&lt;=2,"",
 IF(AND($C25&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C25,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L25,0,-1)+INT($H25/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M25" t="str">
         <f ca="1">IF($C25&lt;=2,"",
@@ -8652,40 +8652,40 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H26">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I26">
         <f ca="1">IF($C26&lt;=2,"",
 IF(AND($C26&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C26,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I26,0,-1)+INT($H26/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J26">
         <f ca="1">IF($C26&lt;=2,"",
 IF(AND($C26&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C26,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J26,0,-1)+INT($H26/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K26">
         <f ca="1">IF($C26&lt;=2,"",
 IF(AND($C26&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C26,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K26,0,-1)+INT($H26/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L26">
         <f ca="1">IF($C26&lt;=2,"",
 IF(AND($C26&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C26,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L26,0,-1)+INT($H26/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M26">
         <f ca="1">IF($C26&lt;=2,"",
 IF(AND($C26&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C26,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M26,0,-1)+INT($H26/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="3"/>
@@ -8726,22 +8726,22 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H27">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I27">
         <f ca="1">IF($C27&lt;=2,"",
 IF(AND($C27&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C27,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I27,0,-1)+INT($H27/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J27">
         <f ca="1">IF($C27&lt;=2,"",
 IF(AND($C27&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C27,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J27,0,-1)+INT($H27/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K27" t="str">
         <f ca="1">IF($C27&lt;=2,"",
@@ -8800,28 +8800,28 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H28">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I28">
         <f ca="1">IF($C28&lt;=2,"",
 IF(AND($C28&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C28,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I28,0,-1)+INT($H28/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J28">
         <f ca="1">IF($C28&lt;=2,"",
 IF(AND($C28&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C28,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J28,0,-1)+INT($H28/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K28">
         <f ca="1">IF($C28&lt;=2,"",
 IF(AND($C28&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C28,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K28,0,-1)+INT($H28/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L28" t="str">
         <f ca="1">IF($C28&lt;=2,"",
@@ -8874,34 +8874,34 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H29">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I29">
         <f ca="1">IF($C29&lt;=2,"",
 IF(AND($C29&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C29,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I29,0,-1)+INT($H29/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J29">
         <f ca="1">IF($C29&lt;=2,"",
 IF(AND($C29&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C29,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J29,0,-1)+INT($H29/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K29">
         <f ca="1">IF($C29&lt;=2,"",
 IF(AND($C29&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C29,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K29,0,-1)+INT($H29/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L29">
         <f ca="1">IF($C29&lt;=2,"",
 IF(AND($C29&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C29,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L29,0,-1)+INT($H29/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M29" t="str">
         <f ca="1">IF($C29&lt;=2,"",
@@ -8948,40 +8948,40 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H30">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I30">
         <f ca="1">IF($C30&lt;=2,"",
 IF(AND($C30&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C30,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I30,0,-1)+INT($H30/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J30">
         <f ca="1">IF($C30&lt;=2,"",
 IF(AND($C30&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C30,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J30,0,-1)+INT($H30/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K30">
         <f ca="1">IF($C30&lt;=2,"",
 IF(AND($C30&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C30,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K30,0,-1)+INT($H30/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L30">
         <f ca="1">IF($C30&lt;=2,"",
 IF(AND($C30&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C30,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L30,0,-1)+INT($H30/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M30">
         <f ca="1">IF($C30&lt;=2,"",
 IF(AND($C30&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C30,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M30,0,-1)+INT($H30/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="3"/>
@@ -9022,22 +9022,22 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H31">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I31">
         <f ca="1">IF($C31&lt;=2,"",
 IF(AND($C31&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C31,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I31,0,-1)+INT($H31/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J31">
         <f ca="1">IF($C31&lt;=2,"",
 IF(AND($C31&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C31,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J31,0,-1)+INT($H31/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K31" t="str">
         <f ca="1">IF($C31&lt;=2,"",
@@ -9096,28 +9096,28 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H32">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I32">
         <f ca="1">IF($C32&lt;=2,"",
 IF(AND($C32&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C32,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I32,0,-1)+INT($H32/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J32">
         <f ca="1">IF($C32&lt;=2,"",
 IF(AND($C32&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C32,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J32,0,-1)+INT($H32/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K32">
         <f ca="1">IF($C32&lt;=2,"",
 IF(AND($C32&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C32,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K32,0,-1)+INT($H32/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L32" t="str">
         <f ca="1">IF($C32&lt;=2,"",
@@ -9170,34 +9170,34 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H33">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I33">
         <f ca="1">IF($C33&lt;=2,"",
 IF(AND($C33&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C33,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I33,0,-1)+INT($H33/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J33">
         <f ca="1">IF($C33&lt;=2,"",
 IF(AND($C33&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C33,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J33,0,-1)+INT($H33/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K33">
         <f ca="1">IF($C33&lt;=2,"",
 IF(AND($C33&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C33,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K33,0,-1)+INT($H33/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L33">
         <f ca="1">IF($C33&lt;=2,"",
 IF(AND($C33&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C33,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L33,0,-1)+INT($H33/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M33" t="str">
         <f ca="1">IF($C33&lt;=2,"",
@@ -9318,22 +9318,22 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H35">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I35">
         <f ca="1">IF($C35&lt;=2,"",
 IF(AND($C35&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C35,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I35,0,-1)+INT($H35/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J35">
         <f ca="1">IF($C35&lt;=2,"",
 IF(AND($C35&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C35,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J35,0,-1)+INT($H35/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K35" t="str">
         <f ca="1">IF($C35&lt;=2,"",
@@ -9392,28 +9392,28 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H36">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I36">
         <f ca="1">IF($C36&lt;=2,"",
 IF(AND($C36&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C36,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I36,0,-1)+INT($H36/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J36">
         <f ca="1">IF($C36&lt;=2,"",
 IF(AND($C36&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C36,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J36,0,-1)+INT($H36/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K36">
         <f ca="1">IF($C36&lt;=2,"",
 IF(AND($C36&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C36,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K36,0,-1)+INT($H36/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L36" t="str">
         <f ca="1">IF($C36&lt;=2,"",
@@ -9466,34 +9466,34 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H37">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I37">
         <f ca="1">IF($C37&lt;=2,"",
 IF(AND($C37&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C37,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I37,0,-1)+INT($H37/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J37">
         <f ca="1">IF($C37&lt;=2,"",
 IF(AND($C37&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C37,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J37,0,-1)+INT($H37/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K37">
         <f ca="1">IF($C37&lt;=2,"",
 IF(AND($C37&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C37,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K37,0,-1)+INT($H37/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L37">
         <f ca="1">IF($C37&lt;=2,"",
 IF(AND($C37&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C37,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L37,0,-1)+INT($H37/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M37" t="str">
         <f ca="1">IF($C37&lt;=2,"",
@@ -9762,10 +9762,10 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I41" t="str">
         <f ca="1">IF($C41&lt;=2,"",
@@ -9836,22 +9836,22 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H42">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I42">
         <f ca="1">IF($C42&lt;=2,"",
 IF(AND($C42&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C42,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I42,0,-1)+INT($H42/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <f ca="1">IF($C42&lt;=2,"",
 IF(AND($C42&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C42,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J42,0,-1)+INT($H42/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K42" t="str">
         <f ca="1">IF($C42&lt;=2,"",
@@ -9910,28 +9910,28 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H43">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I43">
         <f ca="1">IF($C43&lt;=2,"",
 IF(AND($C43&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C43,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I43,0,-1)+INT($H43/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J43">
         <f ca="1">IF($C43&lt;=2,"",
 IF(AND($C43&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C43,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J43,0,-1)+INT($H43/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K43">
         <f ca="1">IF($C43&lt;=2,"",
 IF(AND($C43&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C43,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K43,0,-1)+INT($H43/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L43" t="str">
         <f ca="1">IF($C43&lt;=2,"",
@@ -9984,34 +9984,34 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H44">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I44">
         <f ca="1">IF($C44&lt;=2,"",
 IF(AND($C44&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C44,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I44,0,-1)+INT($H44/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J44">
         <f ca="1">IF($C44&lt;=2,"",
 IF(AND($C44&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C44,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J44,0,-1)+INT($H44/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K44">
         <f ca="1">IF($C44&lt;=2,"",
 IF(AND($C44&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C44,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K44,0,-1)+INT($H44/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L44">
         <f ca="1">IF($C44&lt;=2,"",
 IF(AND($C44&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C44,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L44,0,-1)+INT($H44/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M44" t="str">
         <f ca="1">IF($C44&lt;=2,"",
@@ -10280,10 +10280,10 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I48" t="str">
         <f ca="1">IF($C48&lt;=2,"",
@@ -10354,22 +10354,22 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H49">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I49">
         <f ca="1">IF($C49&lt;=2,"",
 IF(AND($C49&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C49,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I49,0,-1)+INT($H49/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J49">
         <f ca="1">IF($C49&lt;=2,"",
 IF(AND($C49&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C49,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J49,0,-1)+INT($H49/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K49" t="str">
         <f ca="1">IF($C49&lt;=2,"",
@@ -10428,28 +10428,28 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H50">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I50">
         <f ca="1">IF($C50&lt;=2,"",
 IF(AND($C50&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C50,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I50,0,-1)+INT($H50/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J50">
         <f ca="1">IF($C50&lt;=2,"",
 IF(AND($C50&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C50,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J50,0,-1)+INT($H50/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K50">
         <f ca="1">IF($C50&lt;=2,"",
 IF(AND($C50&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C50,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K50,0,-1)+INT($H50/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L50" t="str">
         <f ca="1">IF($C50&lt;=2,"",
@@ -10502,34 +10502,34 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H51">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I51">
         <f ca="1">IF($C51&lt;=2,"",
 IF(AND($C51&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C51,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I51,0,-1)+INT($H51/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J51">
         <f ca="1">IF($C51&lt;=2,"",
 IF(AND($C51&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C51,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J51,0,-1)+INT($H51/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K51">
         <f ca="1">IF($C51&lt;=2,"",
 IF(AND($C51&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C51,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K51,0,-1)+INT($H51/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L51">
         <f ca="1">IF($C51&lt;=2,"",
 IF(AND($C51&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C51,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L51,0,-1)+INT($H51/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M51" t="str">
         <f ca="1">IF($C51&lt;=2,"",
@@ -10798,10 +10798,10 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H55">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I55" t="str">
         <f ca="1">IF($C55&lt;=2,"",
@@ -10872,22 +10872,22 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H56">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I56">
         <f ca="1">IF($C56&lt;=2,"",
 IF(AND($C56&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C56,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I56,0,-1)+INT($H56/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J56">
         <f ca="1">IF($C56&lt;=2,"",
 IF(AND($C56&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C56,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J56,0,-1)+INT($H56/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K56" t="str">
         <f ca="1">IF($C56&lt;=2,"",
@@ -10946,28 +10946,28 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H57">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I57">
         <f ca="1">IF($C57&lt;=2,"",
 IF(AND($C57&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C57,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I57,0,-1)+INT($H57/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J57">
         <f ca="1">IF($C57&lt;=2,"",
 IF(AND($C57&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C57,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J57,0,-1)+INT($H57/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K57">
         <f ca="1">IF($C57&lt;=2,"",
 IF(AND($C57&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C57,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K57,0,-1)+INT($H57/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L57" t="str">
         <f ca="1">IF($C57&lt;=2,"",
@@ -11020,34 +11020,34 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H58">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I58">
         <f ca="1">IF($C58&lt;=2,"",
 IF(AND($C58&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C58,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I58,0,-1)+INT($H58/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J58">
         <f ca="1">IF($C58&lt;=2,"",
 IF(AND($C58&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C58,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J58,0,-1)+INT($H58/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K58">
         <f ca="1">IF($C58&lt;=2,"",
 IF(AND($C58&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C58,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K58,0,-1)+INT($H58/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L58">
         <f ca="1">IF($C58&lt;=2,"",
 IF(AND($C58&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C58,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L58,0,-1)+INT($H58/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M58" t="str">
         <f ca="1">IF($C58&lt;=2,"",
@@ -11168,22 +11168,22 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H60">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I60">
         <f ca="1">IF($C60&lt;=2,"",
 IF(AND($C60&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C60,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I60,0,-1)+INT($H60/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J60">
         <f ca="1">IF($C60&lt;=2,"",
 IF(AND($C60&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C60,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J60,0,-1)+INT($H60/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K60" t="str">
         <f ca="1">IF($C60&lt;=2,"",
@@ -11242,28 +11242,28 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H61">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I61">
         <f ca="1">IF($C61&lt;=2,"",
 IF(AND($C61&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C61,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I61,0,-1)+INT($H61/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J61">
         <f ca="1">IF($C61&lt;=2,"",
 IF(AND($C61&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C61,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J61,0,-1)+INT($H61/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K61">
         <f ca="1">IF($C61&lt;=2,"",
 IF(AND($C61&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C61,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K61,0,-1)+INT($H61/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L61" t="str">
         <f ca="1">IF($C61&lt;=2,"",
@@ -11316,34 +11316,34 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H62">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I62">
         <f ca="1">IF($C62&lt;=2,"",
 IF(AND($C62&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C62,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I62,0,-1)+INT($H62/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J62">
         <f ca="1">IF($C62&lt;=2,"",
 IF(AND($C62&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C62,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J62,0,-1)+INT($H62/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K62">
         <f ca="1">IF($C62&lt;=2,"",
 IF(AND($C62&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C62,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K62,0,-1)+INT($H62/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L62">
         <f ca="1">IF($C62&lt;=2,"",
 IF(AND($C62&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C62,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L62,0,-1)+INT($H62/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M62" t="str">
         <f ca="1">IF($C62&lt;=2,"",
@@ -11390,40 +11390,40 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H63">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I63">
         <f ca="1">IF($C63&lt;=2,"",
 IF(AND($C63&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C63,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I63,0,-1)+INT($H63/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J63">
         <f ca="1">IF($C63&lt;=2,"",
 IF(AND($C63&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C63,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J63,0,-1)+INT($H63/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K63">
         <f ca="1">IF($C63&lt;=2,"",
 IF(AND($C63&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C63,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K63,0,-1)+INT($H63/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L63">
         <f ca="1">IF($C63&lt;=2,"",
 IF(AND($C63&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C63,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L63,0,-1)+INT($H63/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M63">
         <f ca="1">IF($C63&lt;=2,"",
 IF(AND($C63&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C63,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M63,0,-1)+INT($H63/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="3"/>
@@ -11464,22 +11464,22 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H64">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I64">
         <f ca="1">IF($C64&lt;=2,"",
 IF(AND($C64&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C64,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I64,0,-1)+INT($H64/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J64">
         <f ca="1">IF($C64&lt;=2,"",
 IF(AND($C64&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C64,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J64,0,-1)+INT($H64/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K64" t="str">
         <f ca="1">IF($C64&lt;=2,"",
@@ -11538,28 +11538,28 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H65">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I65">
         <f ca="1">IF($C65&lt;=2,"",
 IF(AND($C65&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C65,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I65,0,-1)+INT($H65/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J65">
         <f ca="1">IF($C65&lt;=2,"",
 IF(AND($C65&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C65,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J65,0,-1)+INT($H65/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K65">
         <f ca="1">IF($C65&lt;=2,"",
 IF(AND($C65&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C65,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K65,0,-1)+INT($H65/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L65" t="str">
         <f ca="1">IF($C65&lt;=2,"",
@@ -11619,34 +11619,34 @@
 IF(LEN(K66)=0,"",", "&amp;K66)&amp;
 IF(LEN(L66)=0,"",", "&amp;L66)&amp;
 IF(LEN(M66)=0,"",", "&amp;M66)</f>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H66">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I66">
         <f ca="1">IF($C66&lt;=2,"",
 IF(AND($C66&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C66,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I66,0,-1)+INT($H66/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J66">
         <f ca="1">IF($C66&lt;=2,"",
 IF(AND($C66&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C66,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J66,0,-1)+INT($H66/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K66">
         <f ca="1">IF($C66&lt;=2,"",
 IF(AND($C66&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C66,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K66,0,-1)+INT($H66/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L66">
         <f ca="1">IF($C66&lt;=2,"",
 IF(AND($C66&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C66,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L66,0,-1)+INT($H66/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M66" t="str">
         <f ca="1">IF($C66&lt;=2,"",
@@ -11693,40 +11693,40 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H67">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I67">
         <f ca="1">IF($C67&lt;=2,"",
 IF(AND($C67&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C67,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I67,0,-1)+INT($H67/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J67">
         <f ca="1">IF($C67&lt;=2,"",
 IF(AND($C67&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C67,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J67,0,-1)+INT($H67/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K67">
         <f ca="1">IF($C67&lt;=2,"",
 IF(AND($C67&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C67,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K67,0,-1)+INT($H67/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L67">
         <f ca="1">IF($C67&lt;=2,"",
 IF(AND($C67&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C67,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L67,0,-1)+INT($H67/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M67">
         <f ca="1">IF($C67&lt;=2,"",
 IF(AND($C67&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C67,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M67,0,-1)+INT($H67/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="7"/>
@@ -11767,22 +11767,22 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H68">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I68">
         <f ca="1">IF($C68&lt;=2,"",
 IF(AND($C68&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C68,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I68,0,-1)+INT($H68/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J68">
         <f ca="1">IF($C68&lt;=2,"",
 IF(AND($C68&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C68,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J68,0,-1)+INT($H68/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K68" t="str">
         <f ca="1">IF($C68&lt;=2,"",
@@ -11841,28 +11841,28 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H69">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I69">
         <f ca="1">IF($C69&lt;=2,"",
 IF(AND($C69&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C69,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I69,0,-1)+INT($H69/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J69">
         <f ca="1">IF($C69&lt;=2,"",
 IF(AND($C69&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C69,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J69,0,-1)+INT($H69/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K69">
         <f ca="1">IF($C69&lt;=2,"",
 IF(AND($C69&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C69,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K69,0,-1)+INT($H69/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L69" t="str">
         <f ca="1">IF($C69&lt;=2,"",
@@ -11915,34 +11915,34 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H70">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I70">
         <f ca="1">IF($C70&lt;=2,"",
 IF(AND($C70&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C70,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I70,0,-1)+INT($H70/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J70">
         <f ca="1">IF($C70&lt;=2,"",
 IF(AND($C70&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C70,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J70,0,-1)+INT($H70/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K70">
         <f ca="1">IF($C70&lt;=2,"",
 IF(AND($C70&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C70,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K70,0,-1)+INT($H70/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L70">
         <f ca="1">IF($C70&lt;=2,"",
 IF(AND($C70&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C70,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L70,0,-1)+INT($H70/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M70" t="str">
         <f ca="1">IF($C70&lt;=2,"",
@@ -12063,22 +12063,22 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H72">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I72">
         <f ca="1">IF($C72&lt;=2,"",
 IF(AND($C72&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C72,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I72,0,-1)+INT($H72/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J72">
         <f ca="1">IF($C72&lt;=2,"",
 IF(AND($C72&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C72,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J72,0,-1)+INT($H72/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K72" t="str">
         <f ca="1">IF($C72&lt;=2,"",
@@ -12137,28 +12137,28 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H73">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I73">
         <f ca="1">IF($C73&lt;=2,"",
 IF(AND($C73&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C73,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I73,0,-1)+INT($H73/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J73">
         <f ca="1">IF($C73&lt;=2,"",
 IF(AND($C73&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C73,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J73,0,-1)+INT($H73/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K73">
         <f ca="1">IF($C73&lt;=2,"",
 IF(AND($C73&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C73,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K73,0,-1)+INT($H73/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L73" t="str">
         <f ca="1">IF($C73&lt;=2,"",
@@ -12211,34 +12211,34 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H74">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I74">
         <f ca="1">IF($C74&lt;=2,"",
 IF(AND($C74&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C74,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I74,0,-1)+INT($H74/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J74">
         <f ca="1">IF($C74&lt;=2,"",
 IF(AND($C74&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C74,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J74,0,-1)+INT($H74/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K74">
         <f ca="1">IF($C74&lt;=2,"",
 IF(AND($C74&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C74,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K74,0,-1)+INT($H74/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L74">
         <f ca="1">IF($C74&lt;=2,"",
 IF(AND($C74&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C74,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L74,0,-1)+INT($H74/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M74" t="str">
         <f ca="1">IF($C74&lt;=2,"",
@@ -12359,22 +12359,22 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H76">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I76">
         <f ca="1">IF($C76&lt;=2,"",
 IF(AND($C76&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C76,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I76,0,-1)+INT($H76/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J76">
         <f ca="1">IF($C76&lt;=2,"",
 IF(AND($C76&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C76,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J76,0,-1)+INT($H76/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K76" t="str">
         <f ca="1">IF($C76&lt;=2,"",
@@ -12433,28 +12433,28 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H77">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I77">
         <f ca="1">IF($C77&lt;=2,"",
 IF(AND($C77&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C77,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I77,0,-1)+INT($H77/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J77">
         <f ca="1">IF($C77&lt;=2,"",
 IF(AND($C77&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C77,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J77,0,-1)+INT($H77/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K77">
         <f ca="1">IF($C77&lt;=2,"",
 IF(AND($C77&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C77,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K77,0,-1)+INT($H77/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L77" t="str">
         <f ca="1">IF($C77&lt;=2,"",
@@ -12507,34 +12507,34 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H78">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I78">
         <f ca="1">IF($C78&lt;=2,"",
 IF(AND($C78&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C78,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I78,0,-1)+INT($H78/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J78">
         <f ca="1">IF($C78&lt;=2,"",
 IF(AND($C78&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C78,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J78,0,-1)+INT($H78/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K78">
         <f ca="1">IF($C78&lt;=2,"",
 IF(AND($C78&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C78,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K78,0,-1)+INT($H78/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L78">
         <f ca="1">IF($C78&lt;=2,"",
 IF(AND($C78&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C78,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L78,0,-1)+INT($H78/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M78" t="str">
         <f ca="1">IF($C78&lt;=2,"",
@@ -12803,10 +12803,10 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I82" t="str">
         <f ca="1">IF($C82&lt;=2,"",
@@ -12877,22 +12877,22 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H83">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I83">
         <f ca="1">IF($C83&lt;=2,"",
 IF(AND($C83&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C83,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I83,0,-1)+INT($H83/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J83">
         <f ca="1">IF($C83&lt;=2,"",
 IF(AND($C83&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C83,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J83,0,-1)+INT($H83/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K83" t="str">
         <f ca="1">IF($C83&lt;=2,"",
@@ -12951,28 +12951,28 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H84">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I84">
         <f ca="1">IF($C84&lt;=2,"",
 IF(AND($C84&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C84,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I84,0,-1)+INT($H84/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J84">
         <f ca="1">IF($C84&lt;=2,"",
 IF(AND($C84&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C84,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J84,0,-1)+INT($H84/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K84">
         <f ca="1">IF($C84&lt;=2,"",
 IF(AND($C84&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C84,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K84,0,-1)+INT($H84/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L84" t="str">
         <f ca="1">IF($C84&lt;=2,"",
@@ -13025,34 +13025,34 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H85">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I85">
         <f ca="1">IF($C85&lt;=2,"",
 IF(AND($C85&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C85,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I85,0,-1)+INT($H85/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J85">
         <f ca="1">IF($C85&lt;=2,"",
 IF(AND($C85&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C85,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J85,0,-1)+INT($H85/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K85">
         <f ca="1">IF($C85&lt;=2,"",
 IF(AND($C85&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C85,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K85,0,-1)+INT($H85/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L85">
         <f ca="1">IF($C85&lt;=2,"",
 IF(AND($C85&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C85,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L85,0,-1)+INT($H85/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M85" t="str">
         <f ca="1">IF($C85&lt;=2,"",
@@ -13321,10 +13321,10 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I89" t="str">
         <f ca="1">IF($C89&lt;=2,"",
@@ -13395,22 +13395,22 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H90">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I90">
         <f ca="1">IF($C90&lt;=2,"",
 IF(AND($C90&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C90,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I90,0,-1)+INT($H90/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J90">
         <f ca="1">IF($C90&lt;=2,"",
 IF(AND($C90&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C90,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J90,0,-1)+INT($H90/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K90" t="str">
         <f ca="1">IF($C90&lt;=2,"",
@@ -13469,28 +13469,28 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H91">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I91">
         <f ca="1">IF($C91&lt;=2,"",
 IF(AND($C91&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C91,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I91,0,-1)+INT($H91/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J91">
         <f ca="1">IF($C91&lt;=2,"",
 IF(AND($C91&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C91,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J91,0,-1)+INT($H91/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K91">
         <f ca="1">IF($C91&lt;=2,"",
 IF(AND($C91&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C91,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K91,0,-1)+INT($H91/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L91" t="str">
         <f ca="1">IF($C91&lt;=2,"",
@@ -13543,34 +13543,34 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H92">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I92">
         <f ca="1">IF($C92&lt;=2,"",
 IF(AND($C92&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C92,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I92,0,-1)+INT($H92/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J92">
         <f ca="1">IF($C92&lt;=2,"",
 IF(AND($C92&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C92,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J92,0,-1)+INT($H92/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K92">
         <f ca="1">IF($C92&lt;=2,"",
 IF(AND($C92&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C92,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K92,0,-1)+INT($H92/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L92">
         <f ca="1">IF($C92&lt;=2,"",
 IF(AND($C92&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C92,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L92,0,-1)+INT($H92/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M92" t="str">
         <f ca="1">IF($C92&lt;=2,"",
@@ -13839,10 +13839,10 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H96">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I96" t="str">
         <f ca="1">IF($C96&lt;=2,"",
@@ -13913,22 +13913,22 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H97">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I97">
         <f ca="1">IF($C97&lt;=2,"",
 IF(AND($C97&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C97,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I97,0,-1)+INT($H97/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J97">
         <f ca="1">IF($C97&lt;=2,"",
 IF(AND($C97&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C97,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J97,0,-1)+INT($H97/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K97" t="str">
         <f ca="1">IF($C97&lt;=2,"",
@@ -13987,28 +13987,28 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H98">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I98">
         <f ca="1">IF($C98&lt;=2,"",
 IF(AND($C98&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C98,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I98,0,-1)+INT($H98/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J98">
         <f ca="1">IF($C98&lt;=2,"",
 IF(AND($C98&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C98,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J98,0,-1)+INT($H98/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K98">
         <f ca="1">IF($C98&lt;=2,"",
 IF(AND($C98&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C98,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K98,0,-1)+INT($H98/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L98" t="str">
         <f ca="1">IF($C98&lt;=2,"",
@@ -14061,34 +14061,34 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H99">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I99">
         <f ca="1">IF($C99&lt;=2,"",
 IF(AND($C99&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C99,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I99,0,-1)+INT($H99/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J99">
         <f ca="1">IF($C99&lt;=2,"",
 IF(AND($C99&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C99,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J99,0,-1)+INT($H99/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K99">
         <f ca="1">IF($C99&lt;=2,"",
 IF(AND($C99&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C99,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K99,0,-1)+INT($H99/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L99">
         <f ca="1">IF($C99&lt;=2,"",
 IF(AND($C99&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C99,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L99,0,-1)+INT($H99/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M99" t="str">
         <f ca="1">IF($C99&lt;=2,"",
@@ -14209,22 +14209,22 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H101">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I101">
         <f ca="1">IF($C101&lt;=2,"",
 IF(AND($C101&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C101,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I101,0,-1)+INT($H101/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J101">
         <f ca="1">IF($C101&lt;=2,"",
 IF(AND($C101&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C101,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J101,0,-1)+INT($H101/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K101" t="str">
         <f ca="1">IF($C101&lt;=2,"",
@@ -14283,28 +14283,28 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H102">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I102">
         <f ca="1">IF($C102&lt;=2,"",
 IF(AND($C102&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C102,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I102,0,-1)+INT($H102/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J102">
         <f ca="1">IF($C102&lt;=2,"",
 IF(AND($C102&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C102,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J102,0,-1)+INT($H102/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K102">
         <f ca="1">IF($C102&lt;=2,"",
 IF(AND($C102&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C102,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K102,0,-1)+INT($H102/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L102" t="str">
         <f ca="1">IF($C102&lt;=2,"",
@@ -14357,34 +14357,34 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H103">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I103">
         <f ca="1">IF($C103&lt;=2,"",
 IF(AND($C103&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C103,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I103,0,-1)+INT($H103/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J103">
         <f ca="1">IF($C103&lt;=2,"",
 IF(AND($C103&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C103,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J103,0,-1)+INT($H103/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K103">
         <f ca="1">IF($C103&lt;=2,"",
 IF(AND($C103&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C103,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K103,0,-1)+INT($H103/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L103">
         <f ca="1">IF($C103&lt;=2,"",
 IF(AND($C103&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C103,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L103,0,-1)+INT($H103/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M103" t="str">
         <f ca="1">IF($C103&lt;=2,"",
@@ -14431,40 +14431,40 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H104">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I104">
         <f ca="1">IF($C104&lt;=2,"",
 IF(AND($C104&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C104,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I104,0,-1)+INT($H104/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J104">
         <f ca="1">IF($C104&lt;=2,"",
 IF(AND($C104&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C104,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J104,0,-1)+INT($H104/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K104">
         <f ca="1">IF($C104&lt;=2,"",
 IF(AND($C104&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C104,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K104,0,-1)+INT($H104/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L104">
         <f ca="1">IF($C104&lt;=2,"",
 IF(AND($C104&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C104,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L104,0,-1)+INT($H104/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M104">
         <f ca="1">IF($C104&lt;=2,"",
 IF(AND($C104&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C104,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M104,0,-1)+INT($H104/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N104">
         <f t="shared" ca="1" si="7"/>
@@ -14505,22 +14505,22 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H105">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I105">
         <f ca="1">IF($C105&lt;=2,"",
 IF(AND($C105&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C105,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I105,0,-1)+INT($H105/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J105">
         <f ca="1">IF($C105&lt;=2,"",
 IF(AND($C105&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C105,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J105,0,-1)+INT($H105/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K105" t="str">
         <f ca="1">IF($C105&lt;=2,"",
@@ -14579,28 +14579,28 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H106">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I106">
         <f ca="1">IF($C106&lt;=2,"",
 IF(AND($C106&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C106,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I106,0,-1)+INT($H106/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J106">
         <f ca="1">IF($C106&lt;=2,"",
 IF(AND($C106&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C106,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J106,0,-1)+INT($H106/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K106">
         <f ca="1">IF($C106&lt;=2,"",
 IF(AND($C106&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C106,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K106,0,-1)+INT($H106/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L106" t="str">
         <f ca="1">IF($C106&lt;=2,"",
@@ -14653,34 +14653,34 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H107">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I107">
         <f ca="1">IF($C107&lt;=2,"",
 IF(AND($C107&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C107,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I107,0,-1)+INT($H107/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J107">
         <f ca="1">IF($C107&lt;=2,"",
 IF(AND($C107&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C107,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J107,0,-1)+INT($H107/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K107">
         <f ca="1">IF($C107&lt;=2,"",
 IF(AND($C107&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C107,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K107,0,-1)+INT($H107/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L107">
         <f ca="1">IF($C107&lt;=2,"",
 IF(AND($C107&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C107,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L107,0,-1)+INT($H107/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M107" t="str">
         <f ca="1">IF($C107&lt;=2,"",
@@ -14727,40 +14727,40 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H108">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I108">
         <f ca="1">IF($C108&lt;=2,"",
 IF(AND($C108&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C108,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I108,0,-1)+INT($H108/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J108">
         <f ca="1">IF($C108&lt;=2,"",
 IF(AND($C108&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C108,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J108,0,-1)+INT($H108/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K108">
         <f ca="1">IF($C108&lt;=2,"",
 IF(AND($C108&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C108,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K108,0,-1)+INT($H108/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L108">
         <f ca="1">IF($C108&lt;=2,"",
 IF(AND($C108&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C108,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L108,0,-1)+INT($H108/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M108">
         <f ca="1">IF($C108&lt;=2,"",
 IF(AND($C108&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C108,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M108,0,-1)+INT($H108/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N108">
         <f t="shared" ca="1" si="7"/>
@@ -14801,22 +14801,22 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H109">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I109">
         <f ca="1">IF($C109&lt;=2,"",
 IF(AND($C109&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C109,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I109,0,-1)+INT($H109/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J109">
         <f ca="1">IF($C109&lt;=2,"",
 IF(AND($C109&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C109,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J109,0,-1)+INT($H109/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K109" t="str">
         <f ca="1">IF($C109&lt;=2,"",
@@ -14875,28 +14875,28 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H110">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I110">
         <f ca="1">IF($C110&lt;=2,"",
 IF(AND($C110&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C110,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I110,0,-1)+INT($H110/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J110">
         <f ca="1">IF($C110&lt;=2,"",
 IF(AND($C110&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C110,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J110,0,-1)+INT($H110/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K110">
         <f ca="1">IF($C110&lt;=2,"",
 IF(AND($C110&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C110,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K110,0,-1)+INT($H110/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L110" t="str">
         <f ca="1">IF($C110&lt;=2,"",
@@ -14949,34 +14949,34 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H111">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I111">
         <f ca="1">IF($C111&lt;=2,"",
 IF(AND($C111&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C111,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I111,0,-1)+INT($H111/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J111">
         <f ca="1">IF($C111&lt;=2,"",
 IF(AND($C111&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C111,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J111,0,-1)+INT($H111/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K111">
         <f ca="1">IF($C111&lt;=2,"",
 IF(AND($C111&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C111,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K111,0,-1)+INT($H111/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L111">
         <f ca="1">IF($C111&lt;=2,"",
 IF(AND($C111&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C111,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L111,0,-1)+INT($H111/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M111" t="str">
         <f ca="1">IF($C111&lt;=2,"",
@@ -15097,22 +15097,22 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H113">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I113">
         <f ca="1">IF($C113&lt;=2,"",
 IF(AND($C113&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C113,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I113,0,-1)+INT($H113/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J113">
         <f ca="1">IF($C113&lt;=2,"",
 IF(AND($C113&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C113,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J113,0,-1)+INT($H113/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K113" t="str">
         <f ca="1">IF($C113&lt;=2,"",
@@ -15171,28 +15171,28 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H114">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I114">
         <f ca="1">IF($C114&lt;=2,"",
 IF(AND($C114&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C114,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I114,0,-1)+INT($H114/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J114">
         <f ca="1">IF($C114&lt;=2,"",
 IF(AND($C114&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C114,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J114,0,-1)+INT($H114/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K114">
         <f ca="1">IF($C114&lt;=2,"",
 IF(AND($C114&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C114,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K114,0,-1)+INT($H114/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L114" t="str">
         <f ca="1">IF($C114&lt;=2,"",
@@ -15245,34 +15245,34 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H115">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I115">
         <f ca="1">IF($C115&lt;=2,"",
 IF(AND($C115&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C115,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I115,0,-1)+INT($H115/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J115">
         <f ca="1">IF($C115&lt;=2,"",
 IF(AND($C115&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C115,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J115,0,-1)+INT($H115/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K115">
         <f ca="1">IF($C115&lt;=2,"",
 IF(AND($C115&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C115,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K115,0,-1)+INT($H115/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L115">
         <f ca="1">IF($C115&lt;=2,"",
 IF(AND($C115&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C115,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L115,0,-1)+INT($H115/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M115" t="str">
         <f ca="1">IF($C115&lt;=2,"",
@@ -15541,10 +15541,10 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H119">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I119" t="str">
         <f ca="1">IF($C119&lt;=2,"",
@@ -15615,22 +15615,22 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H120">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I120">
         <f ca="1">IF($C120&lt;=2,"",
 IF(AND($C120&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C120,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I120,0,-1)+INT($H120/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J120">
         <f ca="1">IF($C120&lt;=2,"",
 IF(AND($C120&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C120,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J120,0,-1)+INT($H120/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K120" t="str">
         <f ca="1">IF($C120&lt;=2,"",
@@ -15689,28 +15689,28 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H121">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I121">
         <f ca="1">IF($C121&lt;=2,"",
 IF(AND($C121&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C121,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I121,0,-1)+INT($H121/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J121">
         <f ca="1">IF($C121&lt;=2,"",
 IF(AND($C121&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C121,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J121,0,-1)+INT($H121/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K121">
         <f ca="1">IF($C121&lt;=2,"",
 IF(AND($C121&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C121,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K121,0,-1)+INT($H121/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L121" t="str">
         <f ca="1">IF($C121&lt;=2,"",
@@ -15763,34 +15763,34 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H122">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I122">
         <f ca="1">IF($C122&lt;=2,"",
 IF(AND($C122&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C122,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I122,0,-1)+INT($H122/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J122">
         <f ca="1">IF($C122&lt;=2,"",
 IF(AND($C122&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C122,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J122,0,-1)+INT($H122/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K122">
         <f ca="1">IF($C122&lt;=2,"",
 IF(AND($C122&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C122,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K122,0,-1)+INT($H122/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L122">
         <f ca="1">IF($C122&lt;=2,"",
 IF(AND($C122&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C122,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L122,0,-1)+INT($H122/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M122" t="str">
         <f ca="1">IF($C122&lt;=2,"",
@@ -16059,10 +16059,10 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H126">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I126" t="str">
         <f ca="1">IF($C126&lt;=2,"",
@@ -16133,22 +16133,22 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H127">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I127">
         <f ca="1">IF($C127&lt;=2,"",
 IF(AND($C127&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C127,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I127,0,-1)+INT($H127/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J127">
         <f ca="1">IF($C127&lt;=2,"",
 IF(AND($C127&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C127,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J127,0,-1)+INT($H127/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K127" t="str">
         <f ca="1">IF($C127&lt;=2,"",
@@ -16207,28 +16207,28 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H128">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I128">
         <f ca="1">IF($C128&lt;=2,"",
 IF(AND($C128&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C128,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I128,0,-1)+INT($H128/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J128">
         <f ca="1">IF($C128&lt;=2,"",
 IF(AND($C128&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C128,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J128,0,-1)+INT($H128/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K128">
         <f ca="1">IF($C128&lt;=2,"",
 IF(AND($C128&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C128,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K128,0,-1)+INT($H128/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L128" t="str">
         <f ca="1">IF($C128&lt;=2,"",
@@ -16281,34 +16281,34 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H129">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I129">
         <f ca="1">IF($C129&lt;=2,"",
 IF(AND($C129&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C129,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I129,0,-1)+INT($H129/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J129">
         <f ca="1">IF($C129&lt;=2,"",
 IF(AND($C129&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C129,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J129,0,-1)+INT($H129/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K129">
         <f ca="1">IF($C129&lt;=2,"",
 IF(AND($C129&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C129,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K129,0,-1)+INT($H129/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L129">
         <f ca="1">IF($C129&lt;=2,"",
 IF(AND($C129&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C129,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L129,0,-1)+INT($H129/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M129" t="str">
         <f ca="1">IF($C129&lt;=2,"",
@@ -16584,10 +16584,10 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H133">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I133" t="str">
         <f ca="1">IF($C133&lt;=2,"",
@@ -16658,22 +16658,22 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H134">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I134">
         <f ca="1">IF($C134&lt;=2,"",
 IF(AND($C134&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C134,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I134,0,-1)+INT($H134/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J134">
         <f ca="1">IF($C134&lt;=2,"",
 IF(AND($C134&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C134,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J134,0,-1)+INT($H134/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K134" t="str">
         <f ca="1">IF($C134&lt;=2,"",
@@ -16732,28 +16732,28 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H135">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I135">
         <f ca="1">IF($C135&lt;=2,"",
 IF(AND($C135&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C135,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I135,0,-1)+INT($H135/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J135">
         <f ca="1">IF($C135&lt;=2,"",
 IF(AND($C135&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C135,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J135,0,-1)+INT($H135/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K135">
         <f ca="1">IF($C135&lt;=2,"",
 IF(AND($C135&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C135,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K135,0,-1)+INT($H135/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L135" t="str">
         <f ca="1">IF($C135&lt;=2,"",
@@ -16806,34 +16806,34 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H136">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I136">
         <f ca="1">IF($C136&lt;=2,"",
 IF(AND($C136&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C136,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I136,0,-1)+INT($H136/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J136">
         <f ca="1">IF($C136&lt;=2,"",
 IF(AND($C136&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C136,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J136,0,-1)+INT($H136/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K136">
         <f ca="1">IF($C136&lt;=2,"",
 IF(AND($C136&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C136,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K136,0,-1)+INT($H136/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L136">
         <f ca="1">IF($C136&lt;=2,"",
 IF(AND($C136&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C136,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L136,0,-1)+INT($H136/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M136" t="str">
         <f ca="1">IF($C136&lt;=2,"",
@@ -16954,22 +16954,22 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H138">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I138">
         <f ca="1">IF($C138&lt;=2,"",
 IF(AND($C138&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C138,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I138,0,-1)+INT($H138/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J138">
         <f ca="1">IF($C138&lt;=2,"",
 IF(AND($C138&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C138,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J138,0,-1)+INT($H138/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K138" t="str">
         <f ca="1">IF($C138&lt;=2,"",
@@ -17028,28 +17028,28 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H139">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I139">
         <f ca="1">IF($C139&lt;=2,"",
 IF(AND($C139&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C139,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I139,0,-1)+INT($H139/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J139">
         <f ca="1">IF($C139&lt;=2,"",
 IF(AND($C139&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C139,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J139,0,-1)+INT($H139/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K139">
         <f ca="1">IF($C139&lt;=2,"",
 IF(AND($C139&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C139,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K139,0,-1)+INT($H139/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L139" t="str">
         <f ca="1">IF($C139&lt;=2,"",
@@ -17102,34 +17102,34 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H140">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I140">
         <f ca="1">IF($C140&lt;=2,"",
 IF(AND($C140&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C140,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I140,0,-1)+INT($H140/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J140">
         <f ca="1">IF($C140&lt;=2,"",
 IF(AND($C140&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C140,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J140,0,-1)+INT($H140/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K140">
         <f ca="1">IF($C140&lt;=2,"",
 IF(AND($C140&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C140,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K140,0,-1)+INT($H140/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L140">
         <f ca="1">IF($C140&lt;=2,"",
 IF(AND($C140&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C140,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L140,0,-1)+INT($H140/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M140" t="str">
         <f ca="1">IF($C140&lt;=2,"",
@@ -17176,40 +17176,40 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H141">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I141">
         <f ca="1">IF($C141&lt;=2,"",
 IF(AND($C141&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C141,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I141,0,-1)+INT($H141/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J141">
         <f ca="1">IF($C141&lt;=2,"",
 IF(AND($C141&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C141,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J141,0,-1)+INT($H141/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K141">
         <f ca="1">IF($C141&lt;=2,"",
 IF(AND($C141&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C141,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K141,0,-1)+INT($H141/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L141">
         <f ca="1">IF($C141&lt;=2,"",
 IF(AND($C141&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C141,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L141,0,-1)+INT($H141/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M141">
         <f ca="1">IF($C141&lt;=2,"",
 IF(AND($C141&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C141,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M141,0,-1)+INT($H141/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N141">
         <f t="shared" ca="1" si="11"/>
@@ -17250,22 +17250,22 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H142">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I142">
         <f ca="1">IF($C142&lt;=2,"",
 IF(AND($C142&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C142,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I142,0,-1)+INT($H142/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J142">
         <f ca="1">IF($C142&lt;=2,"",
 IF(AND($C142&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C142,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J142,0,-1)+INT($H142/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K142" t="str">
         <f ca="1">IF($C142&lt;=2,"",
@@ -17324,28 +17324,28 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H143">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I143">
         <f ca="1">IF($C143&lt;=2,"",
 IF(AND($C143&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C143,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I143,0,-1)+INT($H143/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J143">
         <f ca="1">IF($C143&lt;=2,"",
 IF(AND($C143&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C143,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J143,0,-1)+INT($H143/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K143">
         <f ca="1">IF($C143&lt;=2,"",
 IF(AND($C143&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C143,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K143,0,-1)+INT($H143/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L143" t="str">
         <f ca="1">IF($C143&lt;=2,"",
@@ -17398,34 +17398,34 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H144">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I144">
         <f ca="1">IF($C144&lt;=2,"",
 IF(AND($C144&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C144,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I144,0,-1)+INT($H144/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J144">
         <f ca="1">IF($C144&lt;=2,"",
 IF(AND($C144&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C144,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J144,0,-1)+INT($H144/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K144">
         <f ca="1">IF($C144&lt;=2,"",
 IF(AND($C144&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C144,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K144,0,-1)+INT($H144/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L144">
         <f ca="1">IF($C144&lt;=2,"",
 IF(AND($C144&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C144,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L144,0,-1)+INT($H144/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M144" t="str">
         <f ca="1">IF($C144&lt;=2,"",
@@ -17472,40 +17472,40 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H145">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I145">
         <f ca="1">IF($C145&lt;=2,"",
 IF(AND($C145&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C145,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I145,0,-1)+INT($H145/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J145">
         <f ca="1">IF($C145&lt;=2,"",
 IF(AND($C145&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C145,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J145,0,-1)+INT($H145/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K145">
         <f ca="1">IF($C145&lt;=2,"",
 IF(AND($C145&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C145,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K145,0,-1)+INT($H145/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L145">
         <f ca="1">IF($C145&lt;=2,"",
 IF(AND($C145&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C145,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L145,0,-1)+INT($H145/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M145">
         <f ca="1">IF($C145&lt;=2,"",
 IF(AND($C145&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C145,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M145,0,-1)+INT($H145/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N145">
         <f t="shared" ca="1" si="11"/>
@@ -17546,22 +17546,22 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H146">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I146">
         <f ca="1">IF($C146&lt;=2,"",
 IF(AND($C146&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C146,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I146,0,-1)+INT($H146/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J146">
         <f ca="1">IF($C146&lt;=2,"",
 IF(AND($C146&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C146,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J146,0,-1)+INT($H146/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K146" t="str">
         <f ca="1">IF($C146&lt;=2,"",
@@ -17620,28 +17620,28 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H147">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I147">
         <f ca="1">IF($C147&lt;=2,"",
 IF(AND($C147&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C147,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I147,0,-1)+INT($H147/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J147">
         <f ca="1">IF($C147&lt;=2,"",
 IF(AND($C147&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C147,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J147,0,-1)+INT($H147/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K147">
         <f ca="1">IF($C147&lt;=2,"",
 IF(AND($C147&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C147,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K147,0,-1)+INT($H147/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L147" t="str">
         <f ca="1">IF($C147&lt;=2,"",
@@ -17694,34 +17694,34 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H148">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I148">
         <f ca="1">IF($C148&lt;=2,"",
 IF(AND($C148&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C148,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I148,0,-1)+INT($H148/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J148">
         <f ca="1">IF($C148&lt;=2,"",
 IF(AND($C148&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C148,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J148,0,-1)+INT($H148/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K148">
         <f ca="1">IF($C148&lt;=2,"",
 IF(AND($C148&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C148,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K148,0,-1)+INT($H148/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L148">
         <f ca="1">IF($C148&lt;=2,"",
 IF(AND($C148&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C148,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L148,0,-1)+INT($H148/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M148" t="str">
         <f ca="1">IF($C148&lt;=2,"",
@@ -17842,22 +17842,22 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H150">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I150">
         <f ca="1">IF($C150&lt;=2,"",
 IF(AND($C150&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C150,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I150,0,-1)+INT($H150/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J150">
         <f ca="1">IF($C150&lt;=2,"",
 IF(AND($C150&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C150,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J150,0,-1)+INT($H150/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K150" t="str">
         <f ca="1">IF($C150&lt;=2,"",
@@ -17916,28 +17916,28 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H151">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I151">
         <f ca="1">IF($C151&lt;=2,"",
 IF(AND($C151&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C151,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I151,0,-1)+INT($H151/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J151">
         <f ca="1">IF($C151&lt;=2,"",
 IF(AND($C151&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C151,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J151,0,-1)+INT($H151/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K151">
         <f ca="1">IF($C151&lt;=2,"",
 IF(AND($C151&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C151,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K151,0,-1)+INT($H151/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L151" t="str">
         <f ca="1">IF($C151&lt;=2,"",
@@ -17990,34 +17990,34 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H152">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I152">
         <f ca="1">IF($C152&lt;=2,"",
 IF(AND($C152&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C152,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I152,0,-1)+INT($H152/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J152">
         <f ca="1">IF($C152&lt;=2,"",
 IF(AND($C152&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C152,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J152,0,-1)+INT($H152/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K152">
         <f ca="1">IF($C152&lt;=2,"",
 IF(AND($C152&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C152,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K152,0,-1)+INT($H152/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L152">
         <f ca="1">IF($C152&lt;=2,"",
 IF(AND($C152&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C152,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L152,0,-1)+INT($H152/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M152" t="str">
         <f ca="1">IF($C152&lt;=2,"",
@@ -18286,10 +18286,10 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H156">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I156" t="str">
         <f ca="1">IF($C156&lt;=2,"",
@@ -18360,22 +18360,22 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H157">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I157">
         <f ca="1">IF($C157&lt;=2,"",
 IF(AND($C157&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C157,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I157,0,-1)+INT($H157/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J157">
         <f ca="1">IF($C157&lt;=2,"",
 IF(AND($C157&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C157,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J157,0,-1)+INT($H157/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K157" t="str">
         <f ca="1">IF($C157&lt;=2,"",
@@ -18434,28 +18434,28 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H158">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I158">
         <f ca="1">IF($C158&lt;=2,"",
 IF(AND($C158&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C158,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I158,0,-1)+INT($H158/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J158">
         <f ca="1">IF($C158&lt;=2,"",
 IF(AND($C158&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C158,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J158,0,-1)+INT($H158/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K158">
         <f ca="1">IF($C158&lt;=2,"",
 IF(AND($C158&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C158,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K158,0,-1)+INT($H158/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L158" t="str">
         <f ca="1">IF($C158&lt;=2,"",
@@ -18508,34 +18508,34 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H159">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I159">
         <f ca="1">IF($C159&lt;=2,"",
 IF(AND($C159&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C159,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I159,0,-1)+INT($H159/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J159">
         <f ca="1">IF($C159&lt;=2,"",
 IF(AND($C159&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C159,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J159,0,-1)+INT($H159/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K159">
         <f ca="1">IF($C159&lt;=2,"",
 IF(AND($C159&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C159,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K159,0,-1)+INT($H159/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L159">
         <f ca="1">IF($C159&lt;=2,"",
 IF(AND($C159&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C159,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L159,0,-1)+INT($H159/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M159" t="str">
         <f ca="1">IF($C159&lt;=2,"",
@@ -18804,10 +18804,10 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H163">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I163" t="str">
         <f ca="1">IF($C163&lt;=2,"",
@@ -18878,22 +18878,22 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H164">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I164">
         <f ca="1">IF($C164&lt;=2,"",
 IF(AND($C164&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C164,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I164,0,-1)+INT($H164/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J164">
         <f ca="1">IF($C164&lt;=2,"",
 IF(AND($C164&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C164,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J164,0,-1)+INT($H164/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K164" t="str">
         <f ca="1">IF($C164&lt;=2,"",
@@ -18952,28 +18952,28 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H165">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I165">
         <f ca="1">IF($C165&lt;=2,"",
 IF(AND($C165&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C165,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I165,0,-1)+INT($H165/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J165">
         <f ca="1">IF($C165&lt;=2,"",
 IF(AND($C165&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C165,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J165,0,-1)+INT($H165/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K165">
         <f ca="1">IF($C165&lt;=2,"",
 IF(AND($C165&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C165,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K165,0,-1)+INT($H165/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L165" t="str">
         <f ca="1">IF($C165&lt;=2,"",
@@ -19026,34 +19026,34 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H166">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I166">
         <f ca="1">IF($C166&lt;=2,"",
 IF(AND($C166&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C166,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I166,0,-1)+INT($H166/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J166">
         <f ca="1">IF($C166&lt;=2,"",
 IF(AND($C166&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C166,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J166,0,-1)+INT($H166/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K166">
         <f ca="1">IF($C166&lt;=2,"",
 IF(AND($C166&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C166,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K166,0,-1)+INT($H166/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L166">
         <f ca="1">IF($C166&lt;=2,"",
 IF(AND($C166&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C166,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L166,0,-1)+INT($H166/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M166" t="str">
         <f ca="1">IF($C166&lt;=2,"",
@@ -19322,10 +19322,10 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H170">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I170" t="str">
         <f ca="1">IF($C170&lt;=2,"",
@@ -19396,22 +19396,22 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H171">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I171">
         <f ca="1">IF($C171&lt;=2,"",
 IF(AND($C171&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C171,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I171,0,-1)+INT($H171/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J171">
         <f ca="1">IF($C171&lt;=2,"",
 IF(AND($C171&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C171,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J171,0,-1)+INT($H171/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K171" t="str">
         <f ca="1">IF($C171&lt;=2,"",
@@ -19470,28 +19470,28 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H172">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I172">
         <f ca="1">IF($C172&lt;=2,"",
 IF(AND($C172&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C172,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I172,0,-1)+INT($H172/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J172">
         <f ca="1">IF($C172&lt;=2,"",
 IF(AND($C172&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C172,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J172,0,-1)+INT($H172/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K172">
         <f ca="1">IF($C172&lt;=2,"",
 IF(AND($C172&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C172,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K172,0,-1)+INT($H172/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L172" t="str">
         <f ca="1">IF($C172&lt;=2,"",
@@ -19544,34 +19544,34 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H173">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I173">
         <f ca="1">IF($C173&lt;=2,"",
 IF(AND($C173&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C173,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I173,0,-1)+INT($H173/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J173">
         <f ca="1">IF($C173&lt;=2,"",
 IF(AND($C173&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C173,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J173,0,-1)+INT($H173/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K173">
         <f ca="1">IF($C173&lt;=2,"",
 IF(AND($C173&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C173,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K173,0,-1)+INT($H173/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L173">
         <f ca="1">IF($C173&lt;=2,"",
 IF(AND($C173&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C173,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L173,0,-1)+INT($H173/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M173" t="str">
         <f ca="1">IF($C173&lt;=2,"",
@@ -19692,22 +19692,22 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H175">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I175">
         <f ca="1">IF($C175&lt;=2,"",
 IF(AND($C175&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C175,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I175,0,-1)+INT($H175/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J175">
         <f ca="1">IF($C175&lt;=2,"",
 IF(AND($C175&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C175,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J175,0,-1)+INT($H175/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K175" t="str">
         <f ca="1">IF($C175&lt;=2,"",
@@ -19766,28 +19766,28 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H176">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I176">
         <f ca="1">IF($C176&lt;=2,"",
 IF(AND($C176&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C176,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I176,0,-1)+INT($H176/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J176">
         <f ca="1">IF($C176&lt;=2,"",
 IF(AND($C176&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C176,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J176,0,-1)+INT($H176/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K176">
         <f ca="1">IF($C176&lt;=2,"",
 IF(AND($C176&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C176,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K176,0,-1)+INT($H176/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L176" t="str">
         <f ca="1">IF($C176&lt;=2,"",
@@ -19840,34 +19840,34 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H177">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I177">
         <f ca="1">IF($C177&lt;=2,"",
 IF(AND($C177&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C177,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I177,0,-1)+INT($H177/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J177">
         <f ca="1">IF($C177&lt;=2,"",
 IF(AND($C177&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C177,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J177,0,-1)+INT($H177/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K177">
         <f ca="1">IF($C177&lt;=2,"",
 IF(AND($C177&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C177,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K177,0,-1)+INT($H177/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L177">
         <f ca="1">IF($C177&lt;=2,"",
 IF(AND($C177&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C177,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L177,0,-1)+INT($H177/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M177" t="str">
         <f ca="1">IF($C177&lt;=2,"",
@@ -19914,40 +19914,40 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H178">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I178">
         <f ca="1">IF($C178&lt;=2,"",
 IF(AND($C178&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C178,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I178,0,-1)+INT($H178/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J178">
         <f ca="1">IF($C178&lt;=2,"",
 IF(AND($C178&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C178,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J178,0,-1)+INT($H178/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K178">
         <f ca="1">IF($C178&lt;=2,"",
 IF(AND($C178&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C178,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K178,0,-1)+INT($H178/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L178">
         <f ca="1">IF($C178&lt;=2,"",
 IF(AND($C178&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C178,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L178,0,-1)+INT($H178/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M178">
         <f ca="1">IF($C178&lt;=2,"",
 IF(AND($C178&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C178,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M178,0,-1)+INT($H178/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N178">
         <f t="shared" ca="1" si="11"/>
@@ -19988,22 +19988,22 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H179">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I179">
         <f ca="1">IF($C179&lt;=2,"",
 IF(AND($C179&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C179,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I179,0,-1)+INT($H179/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J179">
         <f ca="1">IF($C179&lt;=2,"",
 IF(AND($C179&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C179,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J179,0,-1)+INT($H179/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K179" t="str">
         <f ca="1">IF($C179&lt;=2,"",
@@ -20062,28 +20062,28 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H180">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I180">
         <f ca="1">IF($C180&lt;=2,"",
 IF(AND($C180&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C180,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I180,0,-1)+INT($H180/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J180">
         <f ca="1">IF($C180&lt;=2,"",
 IF(AND($C180&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C180,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J180,0,-1)+INT($H180/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K180">
         <f ca="1">IF($C180&lt;=2,"",
 IF(AND($C180&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C180,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K180,0,-1)+INT($H180/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L180" t="str">
         <f ca="1">IF($C180&lt;=2,"",
@@ -20136,34 +20136,34 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H181">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I181">
         <f ca="1">IF($C181&lt;=2,"",
 IF(AND($C181&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C181,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I181,0,-1)+INT($H181/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J181">
         <f ca="1">IF($C181&lt;=2,"",
 IF(AND($C181&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C181,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J181,0,-1)+INT($H181/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K181">
         <f ca="1">IF($C181&lt;=2,"",
 IF(AND($C181&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C181,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K181,0,-1)+INT($H181/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L181">
         <f ca="1">IF($C181&lt;=2,"",
 IF(AND($C181&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C181,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L181,0,-1)+INT($H181/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M181" t="str">
         <f ca="1">IF($C181&lt;=2,"",
@@ -20210,40 +20210,40 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H182">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I182">
         <f ca="1">IF($C182&lt;=2,"",
 IF(AND($C182&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C182,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I182,0,-1)+INT($H182/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J182">
         <f ca="1">IF($C182&lt;=2,"",
 IF(AND($C182&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C182,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J182,0,-1)+INT($H182/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K182">
         <f ca="1">IF($C182&lt;=2,"",
 IF(AND($C182&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C182,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K182,0,-1)+INT($H182/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L182">
         <f ca="1">IF($C182&lt;=2,"",
 IF(AND($C182&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C182,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L182,0,-1)+INT($H182/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M182">
         <f ca="1">IF($C182&lt;=2,"",
 IF(AND($C182&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C182,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M182,0,-1)+INT($H182/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N182">
         <f t="shared" ca="1" si="11"/>
@@ -20284,22 +20284,22 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H183">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I183">
         <f ca="1">IF($C183&lt;=2,"",
 IF(AND($C183&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C183,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I183,0,-1)+INT($H183/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J183">
         <f ca="1">IF($C183&lt;=2,"",
 IF(AND($C183&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C183,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J183,0,-1)+INT($H183/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K183" t="str">
         <f ca="1">IF($C183&lt;=2,"",
@@ -20358,28 +20358,28 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H184">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I184">
         <f ca="1">IF($C184&lt;=2,"",
 IF(AND($C184&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C184,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I184,0,-1)+INT($H184/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J184">
         <f ca="1">IF($C184&lt;=2,"",
 IF(AND($C184&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C184,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J184,0,-1)+INT($H184/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K184">
         <f ca="1">IF($C184&lt;=2,"",
 IF(AND($C184&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C184,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K184,0,-1)+INT($H184/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L184" t="str">
         <f ca="1">IF($C184&lt;=2,"",
@@ -20432,34 +20432,34 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H185">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I185">
         <f ca="1">IF($C185&lt;=2,"",
 IF(AND($C185&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C185,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I185,0,-1)+INT($H185/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J185">
         <f ca="1">IF($C185&lt;=2,"",
 IF(AND($C185&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C185,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J185,0,-1)+INT($H185/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K185">
         <f ca="1">IF($C185&lt;=2,"",
 IF(AND($C185&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C185,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K185,0,-1)+INT($H185/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L185">
         <f ca="1">IF($C185&lt;=2,"",
 IF(AND($C185&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C185,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L185,0,-1)+INT($H185/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M185" t="str">
         <f ca="1">IF($C185&lt;=2,"",
@@ -20580,22 +20580,22 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H187">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I187">
         <f ca="1">IF($C187&lt;=2,"",
 IF(AND($C187&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C187,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I187,0,-1)+INT($H187/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J187">
         <f ca="1">IF($C187&lt;=2,"",
 IF(AND($C187&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C187,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J187,0,-1)+INT($H187/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K187" t="str">
         <f ca="1">IF($C187&lt;=2,"",
@@ -20654,28 +20654,28 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H188">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I188">
         <f ca="1">IF($C188&lt;=2,"",
 IF(AND($C188&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C188,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I188,0,-1)+INT($H188/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J188">
         <f ca="1">IF($C188&lt;=2,"",
 IF(AND($C188&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C188,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J188,0,-1)+INT($H188/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K188">
         <f ca="1">IF($C188&lt;=2,"",
 IF(AND($C188&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C188,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K188,0,-1)+INT($H188/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L188" t="str">
         <f ca="1">IF($C188&lt;=2,"",
@@ -20728,34 +20728,34 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H189">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I189">
         <f ca="1">IF($C189&lt;=2,"",
 IF(AND($C189&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C189,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I189,0,-1)+INT($H189/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J189">
         <f ca="1">IF($C189&lt;=2,"",
 IF(AND($C189&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C189,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J189,0,-1)+INT($H189/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K189">
         <f ca="1">IF($C189&lt;=2,"",
 IF(AND($C189&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C189,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K189,0,-1)+INT($H189/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L189">
         <f ca="1">IF($C189&lt;=2,"",
 IF(AND($C189&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C189,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L189,0,-1)+INT($H189/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M189" t="str">
         <f ca="1">IF($C189&lt;=2,"",
@@ -20876,22 +20876,22 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H191">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I191">
         <f ca="1">IF($C191&lt;=2,"",
 IF(AND($C191&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C191,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I191,0,-1)+INT($H191/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J191">
         <f ca="1">IF($C191&lt;=2,"",
 IF(AND($C191&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C191,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J191,0,-1)+INT($H191/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K191" t="str">
         <f ca="1">IF($C191&lt;=2,"",
@@ -20950,28 +20950,28 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H192">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I192">
         <f ca="1">IF($C192&lt;=2,"",
 IF(AND($C192&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C192,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I192,0,-1)+INT($H192/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J192">
         <f ca="1">IF($C192&lt;=2,"",
 IF(AND($C192&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C192,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J192,0,-1)+INT($H192/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K192">
         <f ca="1">IF($C192&lt;=2,"",
 IF(AND($C192&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C192,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K192,0,-1)+INT($H192/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L192" t="str">
         <f ca="1">IF($C192&lt;=2,"",
@@ -21024,34 +21024,34 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H193">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I193">
         <f ca="1">IF($C193&lt;=2,"",
 IF(AND($C193&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C193,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I193,0,-1)+INT($H193/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J193">
         <f ca="1">IF($C193&lt;=2,"",
 IF(AND($C193&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C193,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J193,0,-1)+INT($H193/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K193">
         <f ca="1">IF($C193&lt;=2,"",
 IF(AND($C193&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C193,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K193,0,-1)+INT($H193/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L193">
         <f ca="1">IF($C193&lt;=2,"",
 IF(AND($C193&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C193,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L193,0,-1)+INT($H193/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M193" t="str">
         <f ca="1">IF($C193&lt;=2,"",
@@ -21327,10 +21327,10 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H197">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I197" t="str">
         <f ca="1">IF($C197&lt;=2,"",
@@ -21401,22 +21401,22 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H198">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I198">
         <f ca="1">IF($C198&lt;=2,"",
 IF(AND($C198&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C198,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I198,0,-1)+INT($H198/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J198">
         <f ca="1">IF($C198&lt;=2,"",
 IF(AND($C198&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C198,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J198,0,-1)+INT($H198/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K198" t="str">
         <f ca="1">IF($C198&lt;=2,"",
@@ -21475,28 +21475,28 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H199">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I199">
         <f ca="1">IF($C199&lt;=2,"",
 IF(AND($C199&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C199,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I199,0,-1)+INT($H199/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J199">
         <f ca="1">IF($C199&lt;=2,"",
 IF(AND($C199&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C199,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J199,0,-1)+INT($H199/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K199">
         <f ca="1">IF($C199&lt;=2,"",
 IF(AND($C199&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C199,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K199,0,-1)+INT($H199/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L199" t="str">
         <f ca="1">IF($C199&lt;=2,"",
@@ -21549,34 +21549,34 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H200">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I200">
         <f ca="1">IF($C200&lt;=2,"",
 IF(AND($C200&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C200,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I200,0,-1)+INT($H200/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J200">
         <f ca="1">IF($C200&lt;=2,"",
 IF(AND($C200&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C200,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J200,0,-1)+INT($H200/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K200">
         <f ca="1">IF($C200&lt;=2,"",
 IF(AND($C200&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C200,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K200,0,-1)+INT($H200/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L200">
         <f ca="1">IF($C200&lt;=2,"",
 IF(AND($C200&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C200,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L200,0,-1)+INT($H200/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M200" t="str">
         <f ca="1">IF($C200&lt;=2,"",
@@ -21845,10 +21845,10 @@
       </c>
       <c r="G204" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H204">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I204" t="str">
         <f ca="1">IF($C204&lt;=2,"",
@@ -21919,22 +21919,22 @@
       </c>
       <c r="G205" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H205">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I205">
         <f ca="1">IF($C205&lt;=2,"",
 IF(AND($C205&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C205,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I205,0,-1)+INT($H205/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J205">
         <f ca="1">IF($C205&lt;=2,"",
 IF(AND($C205&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C205,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J205,0,-1)+INT($H205/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K205" t="str">
         <f ca="1">IF($C205&lt;=2,"",
@@ -21993,28 +21993,28 @@
       </c>
       <c r="G206" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H206">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I206">
         <f ca="1">IF($C206&lt;=2,"",
 IF(AND($C206&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C206,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I206,0,-1)+INT($H206/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J206">
         <f ca="1">IF($C206&lt;=2,"",
 IF(AND($C206&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C206,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J206,0,-1)+INT($H206/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K206">
         <f ca="1">IF($C206&lt;=2,"",
 IF(AND($C206&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C206,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K206,0,-1)+INT($H206/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L206" t="str">
         <f ca="1">IF($C206&lt;=2,"",
@@ -22067,34 +22067,34 @@
       </c>
       <c r="G207" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H207">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I207">
         <f ca="1">IF($C207&lt;=2,"",
 IF(AND($C207&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C207,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I207,0,-1)+INT($H207/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J207">
         <f ca="1">IF($C207&lt;=2,"",
 IF(AND($C207&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C207,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J207,0,-1)+INT($H207/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K207">
         <f ca="1">IF($C207&lt;=2,"",
 IF(AND($C207&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C207,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K207,0,-1)+INT($H207/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L207">
         <f ca="1">IF($C207&lt;=2,"",
 IF(AND($C207&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C207,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L207,0,-1)+INT($H207/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M207" t="str">
         <f ca="1">IF($C207&lt;=2,"",
@@ -22363,10 +22363,10 @@
       </c>
       <c r="G211" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H211">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I211" t="str">
         <f ca="1">IF($C211&lt;=2,"",
@@ -22437,22 +22437,22 @@
       </c>
       <c r="G212" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H212">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I212">
         <f ca="1">IF($C212&lt;=2,"",
 IF(AND($C212&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C212,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I212,0,-1)+INT($H212/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J212">
         <f ca="1">IF($C212&lt;=2,"",
 IF(AND($C212&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C212,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J212,0,-1)+INT($H212/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K212" t="str">
         <f ca="1">IF($C212&lt;=2,"",
@@ -22511,28 +22511,28 @@
       </c>
       <c r="G213" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H213">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I213">
         <f ca="1">IF($C213&lt;=2,"",
 IF(AND($C213&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C213,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I213,0,-1)+INT($H213/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J213">
         <f ca="1">IF($C213&lt;=2,"",
 IF(AND($C213&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C213,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J213,0,-1)+INT($H213/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K213">
         <f ca="1">IF($C213&lt;=2,"",
 IF(AND($C213&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C213,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K213,0,-1)+INT($H213/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L213" t="str">
         <f ca="1">IF($C213&lt;=2,"",
@@ -22585,34 +22585,34 @@
       </c>
       <c r="G214" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H214">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I214">
         <f ca="1">IF($C214&lt;=2,"",
 IF(AND($C214&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C214,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I214,0,-1)+INT($H214/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J214">
         <f ca="1">IF($C214&lt;=2,"",
 IF(AND($C214&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C214,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J214,0,-1)+INT($H214/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K214">
         <f ca="1">IF($C214&lt;=2,"",
 IF(AND($C214&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C214,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K214,0,-1)+INT($H214/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L214">
         <f ca="1">IF($C214&lt;=2,"",
 IF(AND($C214&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C214,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L214,0,-1)+INT($H214/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M214" t="str">
         <f ca="1">IF($C214&lt;=2,"",
@@ -22733,22 +22733,22 @@
       </c>
       <c r="G216" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H216">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I216">
         <f ca="1">IF($C216&lt;=2,"",
 IF(AND($C216&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C216,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I216,0,-1)+INT($H216/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J216">
         <f ca="1">IF($C216&lt;=2,"",
 IF(AND($C216&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C216,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J216,0,-1)+INT($H216/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K216" t="str">
         <f ca="1">IF($C216&lt;=2,"",
@@ -22807,28 +22807,28 @@
       </c>
       <c r="G217" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H217">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I217">
         <f ca="1">IF($C217&lt;=2,"",
 IF(AND($C217&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C217,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I217,0,-1)+INT($H217/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J217">
         <f ca="1">IF($C217&lt;=2,"",
 IF(AND($C217&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C217,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J217,0,-1)+INT($H217/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K217">
         <f ca="1">IF($C217&lt;=2,"",
 IF(AND($C217&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C217,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K217,0,-1)+INT($H217/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L217" t="str">
         <f ca="1">IF($C217&lt;=2,"",
@@ -22881,34 +22881,34 @@
       </c>
       <c r="G218" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H218">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I218">
         <f ca="1">IF($C218&lt;=2,"",
 IF(AND($C218&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C218,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I218,0,-1)+INT($H218/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J218">
         <f ca="1">IF($C218&lt;=2,"",
 IF(AND($C218&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C218,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J218,0,-1)+INT($H218/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K218">
         <f ca="1">IF($C218&lt;=2,"",
 IF(AND($C218&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C218,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K218,0,-1)+INT($H218/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L218">
         <f ca="1">IF($C218&lt;=2,"",
 IF(AND($C218&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C218,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L218,0,-1)+INT($H218/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M218" t="str">
         <f ca="1">IF($C218&lt;=2,"",
@@ -22955,40 +22955,40 @@
       </c>
       <c r="G219" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H219">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I219">
         <f ca="1">IF($C219&lt;=2,"",
 IF(AND($C219&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C219,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I219,0,-1)+INT($H219/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J219">
         <f ca="1">IF($C219&lt;=2,"",
 IF(AND($C219&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C219,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J219,0,-1)+INT($H219/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K219">
         <f ca="1">IF($C219&lt;=2,"",
 IF(AND($C219&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C219,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K219,0,-1)+INT($H219/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L219">
         <f ca="1">IF($C219&lt;=2,"",
 IF(AND($C219&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C219,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L219,0,-1)+INT($H219/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M219">
         <f ca="1">IF($C219&lt;=2,"",
 IF(AND($C219&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C219,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M219,0,-1)+INT($H219/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N219">
         <f t="shared" ca="1" si="15"/>
@@ -23029,22 +23029,22 @@
       </c>
       <c r="G220" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H220">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I220">
         <f ca="1">IF($C220&lt;=2,"",
 IF(AND($C220&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C220,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I220,0,-1)+INT($H220/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J220">
         <f ca="1">IF($C220&lt;=2,"",
 IF(AND($C220&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C220,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J220,0,-1)+INT($H220/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K220" t="str">
         <f ca="1">IF($C220&lt;=2,"",
@@ -23103,28 +23103,28 @@
       </c>
       <c r="G221" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H221">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I221">
         <f ca="1">IF($C221&lt;=2,"",
 IF(AND($C221&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C221,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I221,0,-1)+INT($H221/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J221">
         <f ca="1">IF($C221&lt;=2,"",
 IF(AND($C221&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C221,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J221,0,-1)+INT($H221/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K221">
         <f ca="1">IF($C221&lt;=2,"",
 IF(AND($C221&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C221,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K221,0,-1)+INT($H221/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L221" t="str">
         <f ca="1">IF($C221&lt;=2,"",
@@ -23177,34 +23177,34 @@
       </c>
       <c r="G222" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H222">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I222">
         <f ca="1">IF($C222&lt;=2,"",
 IF(AND($C222&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C222,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I222,0,-1)+INT($H222/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J222">
         <f ca="1">IF($C222&lt;=2,"",
 IF(AND($C222&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C222,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J222,0,-1)+INT($H222/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K222">
         <f ca="1">IF($C222&lt;=2,"",
 IF(AND($C222&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C222,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K222,0,-1)+INT($H222/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L222">
         <f ca="1">IF($C222&lt;=2,"",
 IF(AND($C222&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C222,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L222,0,-1)+INT($H222/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M222" t="str">
         <f ca="1">IF($C222&lt;=2,"",
@@ -23251,40 +23251,40 @@
       </c>
       <c r="G223" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H223">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I223">
         <f ca="1">IF($C223&lt;=2,"",
 IF(AND($C223&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C223,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I223,0,-1)+INT($H223/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J223">
         <f ca="1">IF($C223&lt;=2,"",
 IF(AND($C223&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C223,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J223,0,-1)+INT($H223/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K223">
         <f ca="1">IF($C223&lt;=2,"",
 IF(AND($C223&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C223,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K223,0,-1)+INT($H223/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L223">
         <f ca="1">IF($C223&lt;=2,"",
 IF(AND($C223&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C223,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L223,0,-1)+INT($H223/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M223">
         <f ca="1">IF($C223&lt;=2,"",
 IF(AND($C223&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C223,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M223,0,-1)+INT($H223/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N223">
         <f t="shared" ca="1" si="15"/>
@@ -23325,22 +23325,22 @@
       </c>
       <c r="G224" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H224">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I224">
         <f ca="1">IF($C224&lt;=2,"",
 IF(AND($C224&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C224,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I224,0,-1)+INT($H224/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J224">
         <f ca="1">IF($C224&lt;=2,"",
 IF(AND($C224&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C224,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J224,0,-1)+INT($H224/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K224" t="str">
         <f ca="1">IF($C224&lt;=2,"",
@@ -23399,28 +23399,28 @@
       </c>
       <c r="G225" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H225">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I225">
         <f ca="1">IF($C225&lt;=2,"",
 IF(AND($C225&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C225,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I225,0,-1)+INT($H225/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J225">
         <f ca="1">IF($C225&lt;=2,"",
 IF(AND($C225&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C225,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J225,0,-1)+INT($H225/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K225">
         <f ca="1">IF($C225&lt;=2,"",
 IF(AND($C225&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C225,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K225,0,-1)+INT($H225/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L225" t="str">
         <f ca="1">IF($C225&lt;=2,"",
@@ -23473,34 +23473,34 @@
       </c>
       <c r="G226" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H226">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I226">
         <f ca="1">IF($C226&lt;=2,"",
 IF(AND($C226&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C226,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I226,0,-1)+INT($H226/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J226">
         <f ca="1">IF($C226&lt;=2,"",
 IF(AND($C226&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C226,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J226,0,-1)+INT($H226/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K226">
         <f ca="1">IF($C226&lt;=2,"",
 IF(AND($C226&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C226,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K226,0,-1)+INT($H226/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L226">
         <f ca="1">IF($C226&lt;=2,"",
 IF(AND($C226&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C226,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L226,0,-1)+INT($H226/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M226" t="str">
         <f ca="1">IF($C226&lt;=2,"",
@@ -23621,22 +23621,22 @@
       </c>
       <c r="G228" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H228">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I228">
         <f ca="1">IF($C228&lt;=2,"",
 IF(AND($C228&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C228,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I228,0,-1)+INT($H228/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J228">
         <f ca="1">IF($C228&lt;=2,"",
 IF(AND($C228&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C228,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J228,0,-1)+INT($H228/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K228" t="str">
         <f ca="1">IF($C228&lt;=2,"",
@@ -23695,28 +23695,28 @@
       </c>
       <c r="G229" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H229">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I229">
         <f ca="1">IF($C229&lt;=2,"",
 IF(AND($C229&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C229,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I229,0,-1)+INT($H229/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J229">
         <f ca="1">IF($C229&lt;=2,"",
 IF(AND($C229&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C229,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J229,0,-1)+INT($H229/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K229">
         <f ca="1">IF($C229&lt;=2,"",
 IF(AND($C229&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C229,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K229,0,-1)+INT($H229/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L229" t="str">
         <f ca="1">IF($C229&lt;=2,"",
@@ -23769,34 +23769,34 @@
       </c>
       <c r="G230" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H230">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I230">
         <f ca="1">IF($C230&lt;=2,"",
 IF(AND($C230&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C230,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I230,0,-1)+INT($H230/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J230">
         <f ca="1">IF($C230&lt;=2,"",
 IF(AND($C230&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C230,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J230,0,-1)+INT($H230/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K230">
         <f ca="1">IF($C230&lt;=2,"",
 IF(AND($C230&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C230,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K230,0,-1)+INT($H230/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L230">
         <f ca="1">IF($C230&lt;=2,"",
 IF(AND($C230&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C230,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L230,0,-1)+INT($H230/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M230" t="str">
         <f ca="1">IF($C230&lt;=2,"",
@@ -24065,10 +24065,10 @@
       </c>
       <c r="G234" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H234">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I234" t="str">
         <f ca="1">IF($C234&lt;=2,"",
@@ -24139,22 +24139,22 @@
       </c>
       <c r="G235" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H235">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I235">
         <f ca="1">IF($C235&lt;=2,"",
 IF(AND($C235&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C235,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I235,0,-1)+INT($H235/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J235">
         <f ca="1">IF($C235&lt;=2,"",
 IF(AND($C235&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C235,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J235,0,-1)+INT($H235/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K235" t="str">
         <f ca="1">IF($C235&lt;=2,"",
@@ -24213,28 +24213,28 @@
       </c>
       <c r="G236" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H236">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I236">
         <f ca="1">IF($C236&lt;=2,"",
 IF(AND($C236&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C236,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I236,0,-1)+INT($H236/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J236">
         <f ca="1">IF($C236&lt;=2,"",
 IF(AND($C236&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C236,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J236,0,-1)+INT($H236/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K236">
         <f ca="1">IF($C236&lt;=2,"",
 IF(AND($C236&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C236,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K236,0,-1)+INT($H236/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L236" t="str">
         <f ca="1">IF($C236&lt;=2,"",
@@ -24287,34 +24287,34 @@
       </c>
       <c r="G237" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H237">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I237">
         <f ca="1">IF($C237&lt;=2,"",
 IF(AND($C237&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C237,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I237,0,-1)+INT($H237/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J237">
         <f ca="1">IF($C237&lt;=2,"",
 IF(AND($C237&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C237,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J237,0,-1)+INT($H237/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K237">
         <f ca="1">IF($C237&lt;=2,"",
 IF(AND($C237&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C237,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K237,0,-1)+INT($H237/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L237">
         <f ca="1">IF($C237&lt;=2,"",
 IF(AND($C237&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C237,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L237,0,-1)+INT($H237/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M237" t="str">
         <f ca="1">IF($C237&lt;=2,"",
@@ -24583,10 +24583,10 @@
       </c>
       <c r="G241" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H241">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I241" t="str">
         <f ca="1">IF($C241&lt;=2,"",
@@ -24657,22 +24657,22 @@
       </c>
       <c r="G242" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H242">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I242">
         <f ca="1">IF($C242&lt;=2,"",
 IF(AND($C242&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C242,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I242,0,-1)+INT($H242/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J242">
         <f ca="1">IF($C242&lt;=2,"",
 IF(AND($C242&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C242,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J242,0,-1)+INT($H242/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K242" t="str">
         <f ca="1">IF($C242&lt;=2,"",
@@ -24731,28 +24731,28 @@
       </c>
       <c r="G243" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H243">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I243">
         <f ca="1">IF($C243&lt;=2,"",
 IF(AND($C243&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C243,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I243,0,-1)+INT($H243/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J243">
         <f ca="1">IF($C243&lt;=2,"",
 IF(AND($C243&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C243,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J243,0,-1)+INT($H243/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K243">
         <f ca="1">IF($C243&lt;=2,"",
 IF(AND($C243&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C243,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K243,0,-1)+INT($H243/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L243" t="str">
         <f ca="1">IF($C243&lt;=2,"",
@@ -24805,34 +24805,34 @@
       </c>
       <c r="G244" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H244">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I244">
         <f ca="1">IF($C244&lt;=2,"",
 IF(AND($C244&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C244,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I244,0,-1)+INT($H244/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J244">
         <f ca="1">IF($C244&lt;=2,"",
 IF(AND($C244&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C244,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J244,0,-1)+INT($H244/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K244">
         <f ca="1">IF($C244&lt;=2,"",
 IF(AND($C244&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C244,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K244,0,-1)+INT($H244/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L244">
         <f ca="1">IF($C244&lt;=2,"",
 IF(AND($C244&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C244,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L244,0,-1)+INT($H244/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M244" t="str">
         <f ca="1">IF($C244&lt;=2,"",
@@ -25101,10 +25101,10 @@
       </c>
       <c r="G248" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H248">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I248" t="str">
         <f ca="1">IF($C248&lt;=2,"",
@@ -25175,22 +25175,22 @@
       </c>
       <c r="G249" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H249">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I249">
         <f ca="1">IF($C249&lt;=2,"",
 IF(AND($C249&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C249,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I249,0,-1)+INT($H249/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J249">
         <f ca="1">IF($C249&lt;=2,"",
 IF(AND($C249&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C249,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J249,0,-1)+INT($H249/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K249" t="str">
         <f ca="1">IF($C249&lt;=2,"",
@@ -25249,28 +25249,28 @@
       </c>
       <c r="G250" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H250">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I250">
         <f ca="1">IF($C250&lt;=2,"",
 IF(AND($C250&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C250,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I250,0,-1)+INT($H250/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J250">
         <f ca="1">IF($C250&lt;=2,"",
 IF(AND($C250&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C250,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J250,0,-1)+INT($H250/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K250">
         <f ca="1">IF($C250&lt;=2,"",
 IF(AND($C250&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C250,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K250,0,-1)+INT($H250/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L250" t="str">
         <f ca="1">IF($C250&lt;=2,"",
@@ -25323,34 +25323,34 @@
       </c>
       <c r="G251" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H251">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I251">
         <f ca="1">IF($C251&lt;=2,"",
 IF(AND($C251&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C251,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I251,0,-1)+INT($H251/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J251">
         <f ca="1">IF($C251&lt;=2,"",
 IF(AND($C251&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C251,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J251,0,-1)+INT($H251/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K251">
         <f ca="1">IF($C251&lt;=2,"",
 IF(AND($C251&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C251,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K251,0,-1)+INT($H251/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L251">
         <f ca="1">IF($C251&lt;=2,"",
 IF(AND($C251&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C251,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L251,0,-1)+INT($H251/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M251" t="str">
         <f ca="1">IF($C251&lt;=2,"",
@@ -25471,22 +25471,22 @@
       </c>
       <c r="G253" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H253">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I253">
         <f ca="1">IF($C253&lt;=2,"",
 IF(AND($C253&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C253,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I253,0,-1)+INT($H253/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J253">
         <f ca="1">IF($C253&lt;=2,"",
 IF(AND($C253&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C253,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J253,0,-1)+INT($H253/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K253" t="str">
         <f ca="1">IF($C253&lt;=2,"",
@@ -25545,28 +25545,28 @@
       </c>
       <c r="G254" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H254">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I254">
         <f ca="1">IF($C254&lt;=2,"",
 IF(AND($C254&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C254,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I254,0,-1)+INT($H254/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J254">
         <f ca="1">IF($C254&lt;=2,"",
 IF(AND($C254&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C254,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J254,0,-1)+INT($H254/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K254">
         <f ca="1">IF($C254&lt;=2,"",
 IF(AND($C254&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C254,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K254,0,-1)+INT($H254/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L254" t="str">
         <f ca="1">IF($C254&lt;=2,"",
@@ -25619,34 +25619,34 @@
       </c>
       <c r="G255" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H255">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I255">
         <f ca="1">IF($C255&lt;=2,"",
 IF(AND($C255&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C255,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I255,0,-1)+INT($H255/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J255">
         <f ca="1">IF($C255&lt;=2,"",
 IF(AND($C255&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C255,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J255,0,-1)+INT($H255/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K255">
         <f ca="1">IF($C255&lt;=2,"",
 IF(AND($C255&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C255,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K255,0,-1)+INT($H255/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L255">
         <f ca="1">IF($C255&lt;=2,"",
 IF(AND($C255&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C255,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L255,0,-1)+INT($H255/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M255" t="str">
         <f ca="1">IF($C255&lt;=2,"",
@@ -25693,40 +25693,40 @@
       </c>
       <c r="G256" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H256">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I256">
         <f ca="1">IF($C256&lt;=2,"",
 IF(AND($C256&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C256,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I256,0,-1)+INT($H256/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J256">
         <f ca="1">IF($C256&lt;=2,"",
 IF(AND($C256&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C256,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J256,0,-1)+INT($H256/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K256">
         <f ca="1">IF($C256&lt;=2,"",
 IF(AND($C256&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C256,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K256,0,-1)+INT($H256/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L256">
         <f ca="1">IF($C256&lt;=2,"",
 IF(AND($C256&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C256,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L256,0,-1)+INT($H256/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M256">
         <f ca="1">IF($C256&lt;=2,"",
 IF(AND($C256&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C256,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M256,0,-1)+INT($H256/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N256">
         <f t="shared" ca="1" si="15"/>
@@ -25767,22 +25767,22 @@
       </c>
       <c r="G257" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H257">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I257">
         <f ca="1">IF($C257&lt;=2,"",
 IF(AND($C257&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C257,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I257,0,-1)+INT($H257/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J257">
         <f ca="1">IF($C257&lt;=2,"",
 IF(AND($C257&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C257,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J257,0,-1)+INT($H257/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K257" t="str">
         <f ca="1">IF($C257&lt;=2,"",
@@ -25848,28 +25848,28 @@
 IF(LEN(K258)=0,"",", "&amp;K258)&amp;
 IF(LEN(L258)=0,"",", "&amp;L258)&amp;
 IF(LEN(M258)=0,"",", "&amp;M258)</f>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H258">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I258">
         <f ca="1">IF($C258&lt;=2,"",
 IF(AND($C258&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C258,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I258,0,-1)+INT($H258/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J258">
         <f ca="1">IF($C258&lt;=2,"",
 IF(AND($C258&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C258,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J258,0,-1)+INT($H258/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K258">
         <f ca="1">IF($C258&lt;=2,"",
 IF(AND($C258&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C258,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K258,0,-1)+INT($H258/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L258" t="str">
         <f ca="1">IF($C258&lt;=2,"",
@@ -25922,34 +25922,34 @@
       </c>
       <c r="G259" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H259">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I259">
         <f ca="1">IF($C259&lt;=2,"",
 IF(AND($C259&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C259,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I259,0,-1)+INT($H259/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J259">
         <f ca="1">IF($C259&lt;=2,"",
 IF(AND($C259&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C259,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J259,0,-1)+INT($H259/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K259">
         <f ca="1">IF($C259&lt;=2,"",
 IF(AND($C259&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C259,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K259,0,-1)+INT($H259/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L259">
         <f ca="1">IF($C259&lt;=2,"",
 IF(AND($C259&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C259,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L259,0,-1)+INT($H259/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M259" t="str">
         <f ca="1">IF($C259&lt;=2,"",
@@ -25996,40 +25996,40 @@
       </c>
       <c r="G260" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H260">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I260">
         <f ca="1">IF($C260&lt;=2,"",
 IF(AND($C260&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C260,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I260,0,-1)+INT($H260/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J260">
         <f ca="1">IF($C260&lt;=2,"",
 IF(AND($C260&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C260,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J260,0,-1)+INT($H260/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K260">
         <f ca="1">IF($C260&lt;=2,"",
 IF(AND($C260&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C260,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K260,0,-1)+INT($H260/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L260">
         <f ca="1">IF($C260&lt;=2,"",
 IF(AND($C260&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C260,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L260,0,-1)+INT($H260/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M260">
         <f ca="1">IF($C260&lt;=2,"",
 IF(AND($C260&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C260,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M260,0,-1)+INT($H260/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N260">
         <f t="shared" ca="1" si="19"/>
@@ -26070,22 +26070,22 @@
       </c>
       <c r="G261" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H261">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I261">
         <f ca="1">IF($C261&lt;=2,"",
 IF(AND($C261&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C261,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I261,0,-1)+INT($H261/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J261">
         <f ca="1">IF($C261&lt;=2,"",
 IF(AND($C261&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C261,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J261,0,-1)+INT($H261/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K261" t="str">
         <f ca="1">IF($C261&lt;=2,"",
@@ -26144,28 +26144,28 @@
       </c>
       <c r="G262" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H262">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I262">
         <f ca="1">IF($C262&lt;=2,"",
 IF(AND($C262&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C262,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I262,0,-1)+INT($H262/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J262">
         <f ca="1">IF($C262&lt;=2,"",
 IF(AND($C262&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C262,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J262,0,-1)+INT($H262/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K262">
         <f ca="1">IF($C262&lt;=2,"",
 IF(AND($C262&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C262,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K262,0,-1)+INT($H262/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L262" t="str">
         <f ca="1">IF($C262&lt;=2,"",
@@ -26218,34 +26218,34 @@
       </c>
       <c r="G263" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H263">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I263">
         <f ca="1">IF($C263&lt;=2,"",
 IF(AND($C263&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C263,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I263,0,-1)+INT($H263/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J263">
         <f ca="1">IF($C263&lt;=2,"",
 IF(AND($C263&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C263,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J263,0,-1)+INT($H263/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K263">
         <f ca="1">IF($C263&lt;=2,"",
 IF(AND($C263&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C263,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K263,0,-1)+INT($H263/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L263">
         <f ca="1">IF($C263&lt;=2,"",
 IF(AND($C263&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C263,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L263,0,-1)+INT($H263/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M263" t="str">
         <f ca="1">IF($C263&lt;=2,"",
@@ -26366,22 +26366,22 @@
       </c>
       <c r="G265" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H265">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I265">
         <f ca="1">IF($C265&lt;=2,"",
 IF(AND($C265&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C265,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I265,0,-1)+INT($H265/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J265">
         <f ca="1">IF($C265&lt;=2,"",
 IF(AND($C265&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C265,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J265,0,-1)+INT($H265/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K265" t="str">
         <f ca="1">IF($C265&lt;=2,"",
@@ -26440,28 +26440,28 @@
       </c>
       <c r="G266" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H266">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I266">
         <f ca="1">IF($C266&lt;=2,"",
 IF(AND($C266&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C266,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I266,0,-1)+INT($H266/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J266">
         <f ca="1">IF($C266&lt;=2,"",
 IF(AND($C266&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C266,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J266,0,-1)+INT($H266/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K266">
         <f ca="1">IF($C266&lt;=2,"",
 IF(AND($C266&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C266,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K266,0,-1)+INT($H266/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L266" t="str">
         <f ca="1">IF($C266&lt;=2,"",
@@ -26514,34 +26514,34 @@
       </c>
       <c r="G267" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H267">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I267">
         <f ca="1">IF($C267&lt;=2,"",
 IF(AND($C267&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C267,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I267,0,-1)+INT($H267/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J267">
         <f ca="1">IF($C267&lt;=2,"",
 IF(AND($C267&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C267,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J267,0,-1)+INT($H267/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K267">
         <f ca="1">IF($C267&lt;=2,"",
 IF(AND($C267&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C267,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K267,0,-1)+INT($H267/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L267">
         <f ca="1">IF($C267&lt;=2,"",
 IF(AND($C267&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C267,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L267,0,-1)+INT($H267/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M267" t="str">
         <f ca="1">IF($C267&lt;=2,"",
@@ -26810,10 +26810,10 @@
       </c>
       <c r="G271" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H271">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I271" t="str">
         <f ca="1">IF($C271&lt;=2,"",
@@ -26884,22 +26884,22 @@
       </c>
       <c r="G272" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H272">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I272">
         <f ca="1">IF($C272&lt;=2,"",
 IF(AND($C272&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C272,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I272,0,-1)+INT($H272/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J272">
         <f ca="1">IF($C272&lt;=2,"",
 IF(AND($C272&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C272,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J272,0,-1)+INT($H272/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K272" t="str">
         <f ca="1">IF($C272&lt;=2,"",
@@ -26958,28 +26958,28 @@
       </c>
       <c r="G273" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H273">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I273">
         <f ca="1">IF($C273&lt;=2,"",
 IF(AND($C273&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C273,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I273,0,-1)+INT($H273/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J273">
         <f ca="1">IF($C273&lt;=2,"",
 IF(AND($C273&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C273,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J273,0,-1)+INT($H273/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K273">
         <f ca="1">IF($C273&lt;=2,"",
 IF(AND($C273&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C273,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K273,0,-1)+INT($H273/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L273" t="str">
         <f ca="1">IF($C273&lt;=2,"",
@@ -27032,34 +27032,34 @@
       </c>
       <c r="G274" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H274">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I274">
         <f ca="1">IF($C274&lt;=2,"",
 IF(AND($C274&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C274,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I274,0,-1)+INT($H274/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J274">
         <f ca="1">IF($C274&lt;=2,"",
 IF(AND($C274&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C274,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J274,0,-1)+INT($H274/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K274">
         <f ca="1">IF($C274&lt;=2,"",
 IF(AND($C274&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C274,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K274,0,-1)+INT($H274/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L274">
         <f ca="1">IF($C274&lt;=2,"",
 IF(AND($C274&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C274,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L274,0,-1)+INT($H274/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M274" t="str">
         <f ca="1">IF($C274&lt;=2,"",
@@ -27328,10 +27328,10 @@
       </c>
       <c r="G278" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H278">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I278" t="str">
         <f ca="1">IF($C278&lt;=2,"",
@@ -27402,22 +27402,22 @@
       </c>
       <c r="G279" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H279">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I279">
         <f ca="1">IF($C279&lt;=2,"",
 IF(AND($C279&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C279,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I279,0,-1)+INT($H279/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J279">
         <f ca="1">IF($C279&lt;=2,"",
 IF(AND($C279&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C279,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J279,0,-1)+INT($H279/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K279" t="str">
         <f ca="1">IF($C279&lt;=2,"",
@@ -27476,28 +27476,28 @@
       </c>
       <c r="G280" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H280">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I280">
         <f ca="1">IF($C280&lt;=2,"",
 IF(AND($C280&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C280,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I280,0,-1)+INT($H280/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J280">
         <f ca="1">IF($C280&lt;=2,"",
 IF(AND($C280&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C280,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J280,0,-1)+INT($H280/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K280">
         <f ca="1">IF($C280&lt;=2,"",
 IF(AND($C280&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C280,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K280,0,-1)+INT($H280/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L280" t="str">
         <f ca="1">IF($C280&lt;=2,"",
@@ -27550,34 +27550,34 @@
       </c>
       <c r="G281" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H281">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I281">
         <f ca="1">IF($C281&lt;=2,"",
 IF(AND($C281&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C281,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I281,0,-1)+INT($H281/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J281">
         <f ca="1">IF($C281&lt;=2,"",
 IF(AND($C281&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C281,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J281,0,-1)+INT($H281/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K281">
         <f ca="1">IF($C281&lt;=2,"",
 IF(AND($C281&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C281,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K281,0,-1)+INT($H281/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L281">
         <f ca="1">IF($C281&lt;=2,"",
 IF(AND($C281&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C281,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L281,0,-1)+INT($H281/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M281" t="str">
         <f ca="1">IF($C281&lt;=2,"",
@@ -27846,10 +27846,10 @@
       </c>
       <c r="G285" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H285">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I285" t="str">
         <f ca="1">IF($C285&lt;=2,"",
@@ -27920,22 +27920,22 @@
       </c>
       <c r="G286" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H286">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I286">
         <f ca="1">IF($C286&lt;=2,"",
 IF(AND($C286&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C286,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I286,0,-1)+INT($H286/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J286">
         <f ca="1">IF($C286&lt;=2,"",
 IF(AND($C286&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C286,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J286,0,-1)+INT($H286/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K286" t="str">
         <f ca="1">IF($C286&lt;=2,"",
@@ -27994,28 +27994,28 @@
       </c>
       <c r="G287" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H287">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I287">
         <f ca="1">IF($C287&lt;=2,"",
 IF(AND($C287&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C287,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I287,0,-1)+INT($H287/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J287">
         <f ca="1">IF($C287&lt;=2,"",
 IF(AND($C287&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C287,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J287,0,-1)+INT($H287/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K287">
         <f ca="1">IF($C287&lt;=2,"",
 IF(AND($C287&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C287,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K287,0,-1)+INT($H287/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L287" t="str">
         <f ca="1">IF($C287&lt;=2,"",
@@ -28068,34 +28068,34 @@
       </c>
       <c r="G288" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H288">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I288">
         <f ca="1">IF($C288&lt;=2,"",
 IF(AND($C288&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C288,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I288,0,-1)+INT($H288/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J288">
         <f ca="1">IF($C288&lt;=2,"",
 IF(AND($C288&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C288,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J288,0,-1)+INT($H288/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K288">
         <f ca="1">IF($C288&lt;=2,"",
 IF(AND($C288&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C288,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K288,0,-1)+INT($H288/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L288">
         <f ca="1">IF($C288&lt;=2,"",
 IF(AND($C288&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C288,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L288,0,-1)+INT($H288/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M288" t="str">
         <f ca="1">IF($C288&lt;=2,"",
@@ -28216,22 +28216,22 @@
       </c>
       <c r="G290" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H290">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I290">
         <f ca="1">IF($C290&lt;=2,"",
 IF(AND($C290&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C290,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I290,0,-1)+INT($H290/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J290">
         <f ca="1">IF($C290&lt;=2,"",
 IF(AND($C290&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C290,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J290,0,-1)+INT($H290/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K290" t="str">
         <f ca="1">IF($C290&lt;=2,"",
@@ -28290,28 +28290,28 @@
       </c>
       <c r="G291" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H291">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I291">
         <f ca="1">IF($C291&lt;=2,"",
 IF(AND($C291&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C291,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I291,0,-1)+INT($H291/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J291">
         <f ca="1">IF($C291&lt;=2,"",
 IF(AND($C291&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C291,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J291,0,-1)+INT($H291/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K291">
         <f ca="1">IF($C291&lt;=2,"",
 IF(AND($C291&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C291,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K291,0,-1)+INT($H291/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L291" t="str">
         <f ca="1">IF($C291&lt;=2,"",
@@ -28364,34 +28364,34 @@
       </c>
       <c r="G292" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H292">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I292">
         <f ca="1">IF($C292&lt;=2,"",
 IF(AND($C292&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C292,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I292,0,-1)+INT($H292/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J292">
         <f ca="1">IF($C292&lt;=2,"",
 IF(AND($C292&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C292,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J292,0,-1)+INT($H292/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K292">
         <f ca="1">IF($C292&lt;=2,"",
 IF(AND($C292&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C292,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K292,0,-1)+INT($H292/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L292">
         <f ca="1">IF($C292&lt;=2,"",
 IF(AND($C292&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C292,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L292,0,-1)+INT($H292/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M292" t="str">
         <f ca="1">IF($C292&lt;=2,"",
@@ -28438,40 +28438,40 @@
       </c>
       <c r="G293" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H293">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I293">
         <f ca="1">IF($C293&lt;=2,"",
 IF(AND($C293&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C293,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I293,0,-1)+INT($H293/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J293">
         <f ca="1">IF($C293&lt;=2,"",
 IF(AND($C293&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C293,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J293,0,-1)+INT($H293/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K293">
         <f ca="1">IF($C293&lt;=2,"",
 IF(AND($C293&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C293,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K293,0,-1)+INT($H293/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L293">
         <f ca="1">IF($C293&lt;=2,"",
 IF(AND($C293&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C293,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L293,0,-1)+INT($H293/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M293">
         <f ca="1">IF($C293&lt;=2,"",
 IF(AND($C293&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C293,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M293,0,-1)+INT($H293/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N293">
         <f t="shared" ca="1" si="19"/>
@@ -28512,22 +28512,22 @@
       </c>
       <c r="G294" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H294">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I294">
         <f ca="1">IF($C294&lt;=2,"",
 IF(AND($C294&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C294,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I294,0,-1)+INT($H294/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J294">
         <f ca="1">IF($C294&lt;=2,"",
 IF(AND($C294&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C294,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J294,0,-1)+INT($H294/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K294" t="str">
         <f ca="1">IF($C294&lt;=2,"",
@@ -28586,28 +28586,28 @@
       </c>
       <c r="G295" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H295">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I295">
         <f ca="1">IF($C295&lt;=2,"",
 IF(AND($C295&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C295,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I295,0,-1)+INT($H295/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J295">
         <f ca="1">IF($C295&lt;=2,"",
 IF(AND($C295&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C295,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J295,0,-1)+INT($H295/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K295">
         <f ca="1">IF($C295&lt;=2,"",
 IF(AND($C295&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C295,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K295,0,-1)+INT($H295/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L295" t="str">
         <f ca="1">IF($C295&lt;=2,"",
@@ -28660,34 +28660,34 @@
       </c>
       <c r="G296" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H296">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I296">
         <f ca="1">IF($C296&lt;=2,"",
 IF(AND($C296&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C296,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I296,0,-1)+INT($H296/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J296">
         <f ca="1">IF($C296&lt;=2,"",
 IF(AND($C296&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C296,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J296,0,-1)+INT($H296/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K296">
         <f ca="1">IF($C296&lt;=2,"",
 IF(AND($C296&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C296,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K296,0,-1)+INT($H296/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L296">
         <f ca="1">IF($C296&lt;=2,"",
 IF(AND($C296&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C296,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L296,0,-1)+INT($H296/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M296" t="str">
         <f ca="1">IF($C296&lt;=2,"",
@@ -28734,40 +28734,40 @@
       </c>
       <c r="G297" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H297">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I297">
         <f ca="1">IF($C297&lt;=2,"",
 IF(AND($C297&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C297,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I297,0,-1)+INT($H297/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J297">
         <f ca="1">IF($C297&lt;=2,"",
 IF(AND($C297&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C297,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J297,0,-1)+INT($H297/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K297">
         <f ca="1">IF($C297&lt;=2,"",
 IF(AND($C297&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C297,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K297,0,-1)+INT($H297/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L297">
         <f ca="1">IF($C297&lt;=2,"",
 IF(AND($C297&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C297,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L297,0,-1)+INT($H297/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M297">
         <f ca="1">IF($C297&lt;=2,"",
 IF(AND($C297&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C297,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M297,0,-1)+INT($H297/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N297">
         <f t="shared" ca="1" si="19"/>
@@ -28808,22 +28808,22 @@
       </c>
       <c r="G298" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H298">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I298">
         <f ca="1">IF($C298&lt;=2,"",
 IF(AND($C298&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C298,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I298,0,-1)+INT($H298/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J298">
         <f ca="1">IF($C298&lt;=2,"",
 IF(AND($C298&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C298,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J298,0,-1)+INT($H298/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K298" t="str">
         <f ca="1">IF($C298&lt;=2,"",
@@ -28882,28 +28882,28 @@
       </c>
       <c r="G299" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H299">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I299">
         <f ca="1">IF($C299&lt;=2,"",
 IF(AND($C299&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C299,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I299,0,-1)+INT($H299/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J299">
         <f ca="1">IF($C299&lt;=2,"",
 IF(AND($C299&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C299,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J299,0,-1)+INT($H299/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K299">
         <f ca="1">IF($C299&lt;=2,"",
 IF(AND($C299&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C299,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K299,0,-1)+INT($H299/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L299" t="str">
         <f ca="1">IF($C299&lt;=2,"",
@@ -28956,34 +28956,34 @@
       </c>
       <c r="G300" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H300">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I300">
         <f ca="1">IF($C300&lt;=2,"",
 IF(AND($C300&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C300,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I300,0,-1)+INT($H300/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J300">
         <f ca="1">IF($C300&lt;=2,"",
 IF(AND($C300&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C300,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J300,0,-1)+INT($H300/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K300">
         <f ca="1">IF($C300&lt;=2,"",
 IF(AND($C300&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C300,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K300,0,-1)+INT($H300/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L300">
         <f ca="1">IF($C300&lt;=2,"",
 IF(AND($C300&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C300,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L300,0,-1)+INT($H300/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M300" t="str">
         <f ca="1">IF($C300&lt;=2,"",
@@ -29104,22 +29104,22 @@
       </c>
       <c r="G302" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H302">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I302">
         <f ca="1">IF($C302&lt;=2,"",
 IF(AND($C302&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C302,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I302,0,-1)+INT($H302/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J302">
         <f ca="1">IF($C302&lt;=2,"",
 IF(AND($C302&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C302,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J302,0,-1)+INT($H302/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K302" t="str">
         <f ca="1">IF($C302&lt;=2,"",
@@ -29178,28 +29178,28 @@
       </c>
       <c r="G303" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H303">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I303">
         <f ca="1">IF($C303&lt;=2,"",
 IF(AND($C303&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C303,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I303,0,-1)+INT($H303/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J303">
         <f ca="1">IF($C303&lt;=2,"",
 IF(AND($C303&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C303,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J303,0,-1)+INT($H303/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K303">
         <f ca="1">IF($C303&lt;=2,"",
 IF(AND($C303&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C303,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K303,0,-1)+INT($H303/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L303" t="str">
         <f ca="1">IF($C303&lt;=2,"",
@@ -29252,34 +29252,34 @@
       </c>
       <c r="G304" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H304">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I304">
         <f ca="1">IF($C304&lt;=2,"",
 IF(AND($C304&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C304,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I304,0,-1)+INT($H304/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J304">
         <f ca="1">IF($C304&lt;=2,"",
 IF(AND($C304&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C304,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J304,0,-1)+INT($H304/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K304">
         <f ca="1">IF($C304&lt;=2,"",
 IF(AND($C304&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C304,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K304,0,-1)+INT($H304/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L304">
         <f ca="1">IF($C304&lt;=2,"",
 IF(AND($C304&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C304,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L304,0,-1)+INT($H304/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M304" t="str">
         <f ca="1">IF($C304&lt;=2,"",
@@ -29400,22 +29400,22 @@
       </c>
       <c r="G306" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H306">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I306">
         <f ca="1">IF($C306&lt;=2,"",
 IF(AND($C306&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C306,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I306,0,-1)+INT($H306/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J306">
         <f ca="1">IF($C306&lt;=2,"",
 IF(AND($C306&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C306,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J306,0,-1)+INT($H306/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K306" t="str">
         <f ca="1">IF($C306&lt;=2,"",
@@ -29474,28 +29474,28 @@
       </c>
       <c r="G307" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H307">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I307">
         <f ca="1">IF($C307&lt;=2,"",
 IF(AND($C307&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C307,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I307,0,-1)+INT($H307/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J307">
         <f ca="1">IF($C307&lt;=2,"",
 IF(AND($C307&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C307,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J307,0,-1)+INT($H307/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K307">
         <f ca="1">IF($C307&lt;=2,"",
 IF(AND($C307&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C307,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K307,0,-1)+INT($H307/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L307" t="str">
         <f ca="1">IF($C307&lt;=2,"",
@@ -29548,34 +29548,34 @@
       </c>
       <c r="G308" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H308">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I308">
         <f ca="1">IF($C308&lt;=2,"",
 IF(AND($C308&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C308,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I308,0,-1)+INT($H308/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J308">
         <f ca="1">IF($C308&lt;=2,"",
 IF(AND($C308&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C308,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J308,0,-1)+INT($H308/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K308">
         <f ca="1">IF($C308&lt;=2,"",
 IF(AND($C308&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C308,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K308,0,-1)+INT($H308/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L308">
         <f ca="1">IF($C308&lt;=2,"",
 IF(AND($C308&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C308,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L308,0,-1)+INT($H308/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M308" t="str">
         <f ca="1">IF($C308&lt;=2,"",
@@ -29844,10 +29844,10 @@
       </c>
       <c r="G312" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H312">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I312" t="str">
         <f ca="1">IF($C312&lt;=2,"",
@@ -29918,22 +29918,22 @@
       </c>
       <c r="G313" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H313">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I313">
         <f ca="1">IF($C313&lt;=2,"",
 IF(AND($C313&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C313,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I313,0,-1)+INT($H313/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J313">
         <f ca="1">IF($C313&lt;=2,"",
 IF(AND($C313&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C313,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J313,0,-1)+INT($H313/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K313" t="str">
         <f ca="1">IF($C313&lt;=2,"",
@@ -29992,28 +29992,28 @@
       </c>
       <c r="G314" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H314">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I314">
         <f ca="1">IF($C314&lt;=2,"",
 IF(AND($C314&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C314,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I314,0,-1)+INT($H314/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J314">
         <f ca="1">IF($C314&lt;=2,"",
 IF(AND($C314&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C314,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J314,0,-1)+INT($H314/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K314">
         <f ca="1">IF($C314&lt;=2,"",
 IF(AND($C314&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C314,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K314,0,-1)+INT($H314/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L314" t="str">
         <f ca="1">IF($C314&lt;=2,"",
@@ -30066,34 +30066,34 @@
       </c>
       <c r="G315" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H315">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I315">
         <f ca="1">IF($C315&lt;=2,"",
 IF(AND($C315&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C315,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I315,0,-1)+INT($H315/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J315">
         <f ca="1">IF($C315&lt;=2,"",
 IF(AND($C315&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C315,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J315,0,-1)+INT($H315/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K315">
         <f ca="1">IF($C315&lt;=2,"",
 IF(AND($C315&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C315,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K315,0,-1)+INT($H315/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L315">
         <f ca="1">IF($C315&lt;=2,"",
 IF(AND($C315&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C315,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L315,0,-1)+INT($H315/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M315" t="str">
         <f ca="1">IF($C315&lt;=2,"",
@@ -30362,10 +30362,10 @@
       </c>
       <c r="G319" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H319">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I319" t="str">
         <f ca="1">IF($C319&lt;=2,"",
@@ -30436,22 +30436,22 @@
       </c>
       <c r="G320" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H320">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I320">
         <f ca="1">IF($C320&lt;=2,"",
 IF(AND($C320&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C320,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I320,0,-1)+INT($H320/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J320">
         <f ca="1">IF($C320&lt;=2,"",
 IF(AND($C320&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C320,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J320,0,-1)+INT($H320/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K320" t="str">
         <f ca="1">IF($C320&lt;=2,"",
@@ -30510,28 +30510,28 @@
       </c>
       <c r="G321" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H321">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I321">
         <f ca="1">IF($C321&lt;=2,"",
 IF(AND($C321&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C321,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I321,0,-1)+INT($H321/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J321">
         <f ca="1">IF($C321&lt;=2,"",
 IF(AND($C321&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C321,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J321,0,-1)+INT($H321/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K321">
         <f ca="1">IF($C321&lt;=2,"",
 IF(AND($C321&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C321,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K321,0,-1)+INT($H321/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L321" t="str">
         <f ca="1">IF($C321&lt;=2,"",
@@ -30591,34 +30591,34 @@
 IF(LEN(K322)=0,"",", "&amp;K322)&amp;
 IF(LEN(L322)=0,"",", "&amp;L322)&amp;
 IF(LEN(M322)=0,"",", "&amp;M322)</f>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H322">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I322">
         <f ca="1">IF($C322&lt;=2,"",
 IF(AND($C322&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C322,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I322,0,-1)+INT($H322/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J322">
         <f ca="1">IF($C322&lt;=2,"",
 IF(AND($C322&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C322,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J322,0,-1)+INT($H322/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K322">
         <f ca="1">IF($C322&lt;=2,"",
 IF(AND($C322&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C322,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K322,0,-1)+INT($H322/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L322">
         <f ca="1">IF($C322&lt;=2,"",
 IF(AND($C322&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C322,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L322,0,-1)+INT($H322/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M322" t="str">
         <f ca="1">IF($C322&lt;=2,"",
@@ -30887,10 +30887,10 @@
       </c>
       <c r="G326" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H326">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I326" t="str">
         <f ca="1">IF($C326&lt;=2,"",
@@ -30961,22 +30961,22 @@
       </c>
       <c r="G327" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>300, 337, 374</v>
+        <v>150, 168, 186</v>
       </c>
       <c r="H327">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I327">
         <f ca="1">IF($C327&lt;=2,"",
 IF(AND($C327&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C327,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I327,0,-1)+INT($H327/8)))</f>
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="J327">
         <f ca="1">IF($C327&lt;=2,"",
 IF(AND($C327&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C327,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J327,0,-1)+INT($H327/8)))</f>
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="K327" t="str">
         <f ca="1">IF($C327&lt;=2,"",
@@ -31035,28 +31035,28 @@
       </c>
       <c r="G328" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>500, 562, 624, 686</v>
+        <v>300, 337, 374, 411</v>
       </c>
       <c r="H328">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I328">
         <f ca="1">IF($C328&lt;=2,"",
 IF(AND($C328&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C328,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I328,0,-1)+INT($H328/8)))</f>
-        <v>562</v>
+        <v>337</v>
       </c>
       <c r="J328">
         <f ca="1">IF($C328&lt;=2,"",
 IF(AND($C328&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C328,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J328,0,-1)+INT($H328/8)))</f>
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="K328">
         <f ca="1">IF($C328&lt;=2,"",
 IF(AND($C328&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C328,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K328,0,-1)+INT($H328/8)))</f>
-        <v>686</v>
+        <v>411</v>
       </c>
       <c r="L328" t="str">
         <f ca="1">IF($C328&lt;=2,"",
@@ -31109,34 +31109,34 @@
       </c>
       <c r="G329" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>750, 843, 936, 1029, 1122</v>
+        <v>580, 652, 724, 796, 868</v>
       </c>
       <c r="H329">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="I329">
         <f ca="1">IF($C329&lt;=2,"",
 IF(AND($C329&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C329,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I329,0,-1)+INT($H329/8)))</f>
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="J329">
         <f ca="1">IF($C329&lt;=2,"",
 IF(AND($C329&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C329,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J329,0,-1)+INT($H329/8)))</f>
-        <v>936</v>
+        <v>724</v>
       </c>
       <c r="K329">
         <f ca="1">IF($C329&lt;=2,"",
 IF(AND($C329&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C329,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K329,0,-1)+INT($H329/8)))</f>
-        <v>1029</v>
+        <v>796</v>
       </c>
       <c r="L329">
         <f ca="1">IF($C329&lt;=2,"",
 IF(AND($C329&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C329,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L329,0,-1)+INT($H329/8)))</f>
-        <v>1122</v>
+        <v>868</v>
       </c>
       <c r="M329" t="str">
         <f ca="1">IF($C329&lt;=2,"",
@@ -31257,22 +31257,22 @@
       </c>
       <c r="G331" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H331">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I331">
         <f ca="1">IF($C331&lt;=2,"",
 IF(AND($C331&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C331,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I331,0,-1)+INT($H331/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J331">
         <f ca="1">IF($C331&lt;=2,"",
 IF(AND($C331&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C331,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J331,0,-1)+INT($H331/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K331" t="str">
         <f ca="1">IF($C331&lt;=2,"",
@@ -31331,28 +31331,28 @@
       </c>
       <c r="G332" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H332">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I332">
         <f ca="1">IF($C332&lt;=2,"",
 IF(AND($C332&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C332,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I332,0,-1)+INT($H332/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J332">
         <f ca="1">IF($C332&lt;=2,"",
 IF(AND($C332&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C332,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J332,0,-1)+INT($H332/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K332">
         <f ca="1">IF($C332&lt;=2,"",
 IF(AND($C332&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C332,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K332,0,-1)+INT($H332/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L332" t="str">
         <f ca="1">IF($C332&lt;=2,"",
@@ -31405,34 +31405,34 @@
       </c>
       <c r="G333" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H333">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I333">
         <f ca="1">IF($C333&lt;=2,"",
 IF(AND($C333&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C333,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I333,0,-1)+INT($H333/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J333">
         <f ca="1">IF($C333&lt;=2,"",
 IF(AND($C333&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C333,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J333,0,-1)+INT($H333/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K333">
         <f ca="1">IF($C333&lt;=2,"",
 IF(AND($C333&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C333,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K333,0,-1)+INT($H333/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L333">
         <f ca="1">IF($C333&lt;=2,"",
 IF(AND($C333&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C333,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L333,0,-1)+INT($H333/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M333" t="str">
         <f ca="1">IF($C333&lt;=2,"",
@@ -31479,40 +31479,40 @@
       </c>
       <c r="G334" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H334">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I334">
         <f ca="1">IF($C334&lt;=2,"",
 IF(AND($C334&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C334,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I334,0,-1)+INT($H334/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J334">
         <f ca="1">IF($C334&lt;=2,"",
 IF(AND($C334&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C334,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J334,0,-1)+INT($H334/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K334">
         <f ca="1">IF($C334&lt;=2,"",
 IF(AND($C334&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C334,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K334,0,-1)+INT($H334/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L334">
         <f ca="1">IF($C334&lt;=2,"",
 IF(AND($C334&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C334,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L334,0,-1)+INT($H334/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M334">
         <f ca="1">IF($C334&lt;=2,"",
 IF(AND($C334&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C334,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M334,0,-1)+INT($H334/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N334">
         <f t="shared" ca="1" si="23"/>
@@ -31553,22 +31553,22 @@
       </c>
       <c r="G335" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>450, 506, 562</v>
+        <v>255, 286, 317</v>
       </c>
       <c r="H335">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="I335">
         <f ca="1">IF($C335&lt;=2,"",
 IF(AND($C335&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C335,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I335,0,-1)+INT($H335/8)))</f>
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="J335">
         <f ca="1">IF($C335&lt;=2,"",
 IF(AND($C335&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C335,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J335,0,-1)+INT($H335/8)))</f>
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="K335" t="str">
         <f ca="1">IF($C335&lt;=2,"",
@@ -31627,28 +31627,28 @@
       </c>
       <c r="G336" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>650, 731, 812, 893</v>
+        <v>510, 573, 636, 699</v>
       </c>
       <c r="H336">
-        <v>650</v>
+        <v>510</v>
       </c>
       <c r="I336">
         <f ca="1">IF($C336&lt;=2,"",
 IF(AND($C336&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C336,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I336,0,-1)+INT($H336/8)))</f>
-        <v>731</v>
+        <v>573</v>
       </c>
       <c r="J336">
         <f ca="1">IF($C336&lt;=2,"",
 IF(AND($C336&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C336,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J336,0,-1)+INT($H336/8)))</f>
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="K336">
         <f ca="1">IF($C336&lt;=2,"",
 IF(AND($C336&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C336,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K336,0,-1)+INT($H336/8)))</f>
-        <v>893</v>
+        <v>699</v>
       </c>
       <c r="L336" t="str">
         <f ca="1">IF($C336&lt;=2,"",
@@ -31701,34 +31701,34 @@
       </c>
       <c r="G337" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>900, 1012, 1124, 1236, 1348</v>
+        <v>985, 1108, 1231, 1354, 1477</v>
       </c>
       <c r="H337">
-        <v>900</v>
+        <v>985</v>
       </c>
       <c r="I337">
         <f ca="1">IF($C337&lt;=2,"",
 IF(AND($C337&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C337,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I337,0,-1)+INT($H337/8)))</f>
-        <v>1012</v>
+        <v>1108</v>
       </c>
       <c r="J337">
         <f ca="1">IF($C337&lt;=2,"",
 IF(AND($C337&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C337,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J337,0,-1)+INT($H337/8)))</f>
-        <v>1124</v>
+        <v>1231</v>
       </c>
       <c r="K337">
         <f ca="1">IF($C337&lt;=2,"",
 IF(AND($C337&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C337,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K337,0,-1)+INT($H337/8)))</f>
-        <v>1236</v>
+        <v>1354</v>
       </c>
       <c r="L337">
         <f ca="1">IF($C337&lt;=2,"",
 IF(AND($C337&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C337,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L337,0,-1)+INT($H337/8)))</f>
-        <v>1348</v>
+        <v>1477</v>
       </c>
       <c r="M337" t="str">
         <f ca="1">IF($C337&lt;=2,"",
@@ -31775,40 +31775,40 @@
       </c>
       <c r="G338" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1750, 1968, 2186, 2404, 2622, 2840</v>
+        <v>1700, 1912, 2124, 2336, 2548, 2760</v>
       </c>
       <c r="H338">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="I338">
         <f ca="1">IF($C338&lt;=2,"",
 IF(AND($C338&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C338,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I338,0,-1)+INT($H338/8)))</f>
-        <v>1968</v>
+        <v>1912</v>
       </c>
       <c r="J338">
         <f ca="1">IF($C338&lt;=2,"",
 IF(AND($C338&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C338,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J338,0,-1)+INT($H338/8)))</f>
-        <v>2186</v>
+        <v>2124</v>
       </c>
       <c r="K338">
         <f ca="1">IF($C338&lt;=2,"",
 IF(AND($C338&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C338,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K338,0,-1)+INT($H338/8)))</f>
-        <v>2404</v>
+        <v>2336</v>
       </c>
       <c r="L338">
         <f ca="1">IF($C338&lt;=2,"",
 IF(AND($C338&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C338,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L338,0,-1)+INT($H338/8)))</f>
-        <v>2622</v>
+        <v>2548</v>
       </c>
       <c r="M338">
         <f ca="1">IF($C338&lt;=2,"",
 IF(AND($C338&gt;=3,INT(RIGHT(M$1,1))&gt;VLOOKUP($C338,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(M338,0,-1)+INT($H338/8)))</f>
-        <v>2840</v>
+        <v>2760</v>
       </c>
       <c r="N338">
         <f t="shared" ca="1" si="23"/>
@@ -31849,22 +31849,22 @@
       </c>
       <c r="G339" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H339">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I339">
         <f ca="1">IF($C339&lt;=2,"",
 IF(AND($C339&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C339,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I339,0,-1)+INT($H339/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J339">
         <f ca="1">IF($C339&lt;=2,"",
 IF(AND($C339&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C339,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J339,0,-1)+INT($H339/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K339" t="str">
         <f ca="1">IF($C339&lt;=2,"",
@@ -31923,28 +31923,28 @@
       </c>
       <c r="G340" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H340">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I340">
         <f ca="1">IF($C340&lt;=2,"",
 IF(AND($C340&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C340,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I340,0,-1)+INT($H340/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J340">
         <f ca="1">IF($C340&lt;=2,"",
 IF(AND($C340&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C340,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J340,0,-1)+INT($H340/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K340">
         <f ca="1">IF($C340&lt;=2,"",
 IF(AND($C340&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C340,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K340,0,-1)+INT($H340/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L340" t="str">
         <f ca="1">IF($C340&lt;=2,"",
@@ -31997,34 +31997,34 @@
       </c>
       <c r="G341" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H341">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I341">
         <f ca="1">IF($C341&lt;=2,"",
 IF(AND($C341&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C341,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I341,0,-1)+INT($H341/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J341">
         <f ca="1">IF($C341&lt;=2,"",
 IF(AND($C341&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C341,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J341,0,-1)+INT($H341/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K341">
         <f ca="1">IF($C341&lt;=2,"",
 IF(AND($C341&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C341,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K341,0,-1)+INT($H341/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L341">
         <f ca="1">IF($C341&lt;=2,"",
 IF(AND($C341&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C341,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L341,0,-1)+INT($H341/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M341" t="str">
         <f ca="1">IF($C341&lt;=2,"",
@@ -32145,22 +32145,22 @@
       </c>
       <c r="G343" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>750, 843, 936</v>
+        <v>525, 590, 655</v>
       </c>
       <c r="H343">
-        <v>750</v>
+        <v>525</v>
       </c>
       <c r="I343">
         <f ca="1">IF($C343&lt;=2,"",
 IF(AND($C343&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C343,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I343,0,-1)+INT($H343/8)))</f>
-        <v>843</v>
+        <v>590</v>
       </c>
       <c r="J343">
         <f ca="1">IF($C343&lt;=2,"",
 IF(AND($C343&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C343,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J343,0,-1)+INT($H343/8)))</f>
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="K343" t="str">
         <f ca="1">IF($C343&lt;=2,"",
@@ -32219,28 +32219,28 @@
       </c>
       <c r="G344" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1000, 1125, 1250, 1375</v>
+        <v>1050, 1181, 1312, 1443</v>
       </c>
       <c r="H344">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="I344">
         <f ca="1">IF($C344&lt;=2,"",
 IF(AND($C344&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C344,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I344,0,-1)+INT($H344/8)))</f>
-        <v>1125</v>
+        <v>1181</v>
       </c>
       <c r="J344">
         <f ca="1">IF($C344&lt;=2,"",
 IF(AND($C344&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C344,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J344,0,-1)+INT($H344/8)))</f>
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="K344">
         <f ca="1">IF($C344&lt;=2,"",
 IF(AND($C344&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C344,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K344,0,-1)+INT($H344/8)))</f>
-        <v>1375</v>
+        <v>1443</v>
       </c>
       <c r="L344" t="str">
         <f ca="1">IF($C344&lt;=2,"",
@@ -32293,34 +32293,34 @@
       </c>
       <c r="G345" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>1500, 1687, 1874, 2061, 2248</v>
+        <v>2030, 2283, 2536, 2789, 3042</v>
       </c>
       <c r="H345">
-        <v>1500</v>
+        <v>2030</v>
       </c>
       <c r="I345">
         <f ca="1">IF($C345&lt;=2,"",
 IF(AND($C345&gt;=3,INT(RIGHT(I$1,1))&gt;VLOOKUP($C345,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(I345,0,-1)+INT($H345/8)))</f>
-        <v>1687</v>
+        <v>2283</v>
       </c>
       <c r="J345">
         <f ca="1">IF($C345&lt;=2,"",
 IF(AND($C345&gt;=3,INT(RIGHT(J$1,1))&gt;VLOOKUP($C345,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(J345,0,-1)+INT($H345/8)))</f>
-        <v>1874</v>
+        <v>2536</v>
       </c>
       <c r="K345">
         <f ca="1">IF($C345&lt;=2,"",
 IF(AND($C345&gt;=3,INT(RIGHT(K$1,1))&gt;VLOOKUP($C345,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(K345,0,-1)+INT($H345/8)))</f>
-        <v>2061</v>
+        <v>2789</v>
       </c>
       <c r="L345">
         <f ca="1">IF($C345&lt;=2,"",
 IF(AND($C345&gt;=3,INT(RIGHT(L$1,1))&gt;VLOOKUP($C345,EquipGradeTable!$A:$B,MATCH(EquipGradeTable!$B$1,EquipGradeTable!$A$1:$B$1,0),0)),"",
 OFFSET(L345,0,-1)+INT($H345/8)))</f>
-        <v>2248</v>
+        <v>3042</v>
       </c>
       <c r="M345" t="str">
         <f ca="1">IF($C345&lt;=2,"",

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E422BF-1A50-4245-8D2C-5A0C3E38010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963323D4-F192-4AD4-8122-AB7735AD7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,6 @@
     <t>ArsenalBigSword</t>
   </si>
   <si>
-    <t>Weapon0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업데이트순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,14 +450,6 @@
   </si>
   <si>
     <t>atk|Int!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon0004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,6 +805,15 @@
   <si>
     <t>ArmoryWand1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon0002</t>
+  </si>
+  <si>
+    <t>Weapon0003</t>
+  </si>
+  <si>
+    <t>Weapon0004</t>
   </si>
 </sst>
 </file>
@@ -1181,40 +1178,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECD02AC-A572-4237-AAB5-CDCD8164017D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" collapsed="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" collapsed="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="18" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" collapsed="1"/>
     <col min="24" max="24" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="29" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="32" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="37.25" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="36" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" collapsed="1"/>
+    <col min="28" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" collapsed="1"/>
+    <col min="31" max="32" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" collapsed="1"/>
+    <col min="34" max="34" width="37.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="36" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1247,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
@@ -1256,16 +1263,16 @@
         <v>33</v>
       </c>
       <c r="O1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q1" t="s">
         <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="S1" t="s">
         <v>35</v>
@@ -1274,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="U1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V1" t="s">
         <v>37</v>
@@ -1289,7 +1296,7 @@
         <v>40</v>
       </c>
       <c r="Z1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB1" t="s">
         <v>4</v>
@@ -1304,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="AI1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AJ1" t="s">
         <v>5</v>
@@ -1333,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H33" si="3">COUNTIF(G:G,G2)</f>
@@ -1351,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M65" ca="1" si="6">VLOOKUP(L2,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1361,7 +1368,7 @@
         <v>0.05</v>
       </c>
       <c r="O2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P65" ca="1" si="7">VLOOKUP(O2,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1371,7 +1378,7 @@
         <v>0.03</v>
       </c>
       <c r="R2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S65" ca="1" si="8">VLOOKUP(R2,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1381,7 +1388,7 @@
         <v>0.2</v>
       </c>
       <c r="U2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V65" ca="1" si="9">VLOOKUP(U2,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -1390,12 +1397,6 @@
       <c r="W2">
         <v>0.01</v>
       </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
@@ -1412,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AI2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AJ2">
         <v>12</v>
@@ -1462,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="6"/>
@@ -1472,7 +1473,7 @@
         <v>0.2</v>
       </c>
       <c r="O3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="7"/>
@@ -1482,7 +1483,7 @@
         <v>0.03</v>
       </c>
       <c r="R3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="8"/>
@@ -1492,7 +1493,7 @@
         <v>0.01</v>
       </c>
       <c r="U3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="9"/>
@@ -1517,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AI3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AJ3">
         <v>13</v>
@@ -1549,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
@@ -1567,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="6"/>
@@ -1577,7 +1578,7 @@
         <v>0.01</v>
       </c>
       <c r="O4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="7"/>
@@ -1587,7 +1588,7 @@
         <v>0.2</v>
       </c>
       <c r="R4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="8"/>
@@ -1597,7 +1598,7 @@
         <v>0.05</v>
       </c>
       <c r="U4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="9"/>
@@ -1622,10 +1623,10 @@
         <v>2</v>
       </c>
       <c r="AH4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AI4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AJ4">
         <v>15</v>
@@ -1654,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
@@ -1672,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="6"/>
@@ -1682,7 +1683,7 @@
         <v>0.02</v>
       </c>
       <c r="O5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="7"/>
@@ -1692,7 +1693,7 @@
         <v>0.05</v>
       </c>
       <c r="R5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="8"/>
@@ -1702,7 +1703,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="U5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="9"/>
@@ -1721,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="AH5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AI5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AJ5">
         <v>17</v>
@@ -1771,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="6"/>
@@ -1781,7 +1782,7 @@
         <v>0.1</v>
       </c>
       <c r="O6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="7"/>
@@ -1791,7 +1792,7 @@
         <v>0.05</v>
       </c>
       <c r="R6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="8"/>
@@ -1801,7 +1802,7 @@
         <v>0.02</v>
       </c>
       <c r="U6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="9"/>
@@ -1820,10 +1821,10 @@
         <v>4</v>
       </c>
       <c r="AH6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AI6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AJ6">
         <v>19</v>
@@ -1870,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="6"/>
@@ -1880,7 +1881,7 @@
         <v>0.25</v>
       </c>
       <c r="O7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="7"/>
@@ -1890,7 +1891,7 @@
         <v>0.02</v>
       </c>
       <c r="R7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="8"/>
@@ -1900,7 +1901,7 @@
         <v>0.05</v>
       </c>
       <c r="U7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="9"/>
@@ -1919,10 +1920,10 @@
         <v>5</v>
       </c>
       <c r="AH7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AI7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AJ7">
         <v>20</v>
@@ -1994,10 +1995,10 @@
         <v>6</v>
       </c>
       <c r="AH8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AI8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AJ8">
         <v>21</v>
@@ -2044,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="6"/>
@@ -2054,7 +2055,7 @@
         <v>0.1</v>
       </c>
       <c r="O9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="7"/>
@@ -2064,7 +2065,7 @@
         <v>0.01</v>
       </c>
       <c r="R9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="8"/>
@@ -2074,7 +2075,7 @@
         <v>0.01</v>
       </c>
       <c r="U9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="9"/>
@@ -2093,10 +2094,10 @@
         <v>7</v>
       </c>
       <c r="AH9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AI9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AJ9">
         <v>22</v>
@@ -2143,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="6"/>
@@ -2153,7 +2154,7 @@
         <v>0.03</v>
       </c>
       <c r="O10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="7"/>
@@ -2163,7 +2164,7 @@
         <v>0.01</v>
       </c>
       <c r="R10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="8"/>
@@ -2173,7 +2174,7 @@
         <v>0.1</v>
       </c>
       <c r="U10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="9"/>
@@ -2192,10 +2193,10 @@
         <v>8</v>
       </c>
       <c r="AH10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AI10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AJ10">
         <v>23</v>
@@ -2242,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="6"/>
@@ -2252,7 +2253,7 @@
         <v>0.01</v>
       </c>
       <c r="O11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="7"/>
@@ -2262,7 +2263,7 @@
         <v>0.1</v>
       </c>
       <c r="R11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="8"/>
@@ -2272,7 +2273,7 @@
         <v>0.01</v>
       </c>
       <c r="U11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="9"/>
@@ -2285,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AI11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AJ11">
         <v>24</v>
@@ -2335,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="6"/>
@@ -2345,7 +2346,7 @@
         <v>0.1</v>
       </c>
       <c r="O12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="7"/>
@@ -2355,7 +2356,7 @@
         <v>0.15</v>
       </c>
       <c r="R12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="8"/>
@@ -2365,7 +2366,7 @@
         <v>0.05</v>
       </c>
       <c r="U12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="9"/>
@@ -2419,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="6"/>
@@ -2429,7 +2430,7 @@
         <v>0.15</v>
       </c>
       <c r="O13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="7"/>
@@ -2439,7 +2440,7 @@
         <v>0.05</v>
       </c>
       <c r="R13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="8"/>
@@ -2449,7 +2450,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="9"/>
@@ -2503,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="6"/>
@@ -2513,7 +2514,7 @@
         <v>0.05</v>
       </c>
       <c r="O14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="7"/>
@@ -2523,7 +2524,7 @@
         <v>0.2</v>
       </c>
       <c r="R14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="8"/>
@@ -2533,7 +2534,7 @@
         <v>0.2</v>
       </c>
       <c r="U14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="9"/>
@@ -2541,6 +2542,12 @@
       </c>
       <c r="W14">
         <v>0.02</v>
+      </c>
+      <c r="X14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2707,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="6"/>
@@ -2717,7 +2724,7 @@
         <v>0.01</v>
       </c>
       <c r="O17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="7"/>
@@ -2727,7 +2734,7 @@
         <v>0.05</v>
       </c>
       <c r="R17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="8"/>
@@ -2737,7 +2744,7 @@
         <v>0.01</v>
       </c>
       <c r="U17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="9"/>
@@ -2745,12 +2752,6 @@
       </c>
       <c r="W17">
         <v>0.05</v>
-      </c>
-      <c r="X17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y17">
-        <v>4</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2797,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="6"/>
@@ -2807,7 +2808,7 @@
         <v>0.05</v>
       </c>
       <c r="O18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="7"/>
@@ -2817,7 +2818,7 @@
         <v>0.05</v>
       </c>
       <c r="R18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="8"/>
@@ -2827,7 +2828,7 @@
         <v>0.1</v>
       </c>
       <c r="U18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="9"/>
@@ -2881,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="6"/>
@@ -2891,7 +2892,7 @@
         <v>0.01</v>
       </c>
       <c r="O19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="7"/>
@@ -2901,7 +2902,7 @@
         <v>0.01</v>
       </c>
       <c r="R19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="8"/>
@@ -2911,7 +2912,7 @@
         <v>0.05</v>
       </c>
       <c r="U19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="9"/>
@@ -2965,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="6"/>
@@ -2975,7 +2976,7 @@
         <v>0.2</v>
       </c>
       <c r="O20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="7"/>
@@ -2985,7 +2986,7 @@
         <v>0.06</v>
       </c>
       <c r="R20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="8"/>
@@ -2995,7 +2996,7 @@
         <v>0.1</v>
       </c>
       <c r="U20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="9"/>
@@ -3049,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="6"/>
@@ -3059,7 +3060,7 @@
         <v>0.06</v>
       </c>
       <c r="O21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="7"/>
@@ -3069,7 +3070,7 @@
         <v>0.1</v>
       </c>
       <c r="R21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="8"/>
@@ -3079,7 +3080,7 @@
         <v>0.02</v>
       </c>
       <c r="U21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="9"/>
@@ -3133,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="6"/>
@@ -3143,7 +3144,7 @@
         <v>0.02</v>
       </c>
       <c r="O22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="7"/>
@@ -3153,7 +3154,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="8"/>
@@ -3163,7 +3164,7 @@
         <v>0.2</v>
       </c>
       <c r="U22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="9"/>
@@ -3171,6 +3172,12 @@
       </c>
       <c r="W22">
         <v>0.1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3259,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
@@ -3277,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="6"/>
@@ -3287,7 +3294,7 @@
         <v>0.01</v>
       </c>
       <c r="O24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="7"/>
@@ -3297,7 +3304,7 @@
         <v>0.01</v>
       </c>
       <c r="R24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="8"/>
@@ -3307,7 +3314,7 @@
         <v>0.05</v>
       </c>
       <c r="U24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="9"/>
@@ -3315,12 +3322,6 @@
       </c>
       <c r="W24">
         <v>0.02</v>
-      </c>
-      <c r="X24" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y24">
-        <v>4</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3367,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="6"/>
@@ -3377,7 +3378,7 @@
         <v>0.1</v>
       </c>
       <c r="O25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="7"/>
@@ -3387,7 +3388,7 @@
         <v>0.05</v>
       </c>
       <c r="R25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="8"/>
@@ -3397,7 +3398,7 @@
         <v>0.02</v>
       </c>
       <c r="U25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="9"/>
@@ -3451,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="6"/>
@@ -3461,7 +3462,7 @@
         <v>0.03</v>
       </c>
       <c r="O26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="7"/>
@@ -3471,7 +3472,7 @@
         <v>0.02</v>
       </c>
       <c r="R26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="8"/>
@@ -3481,7 +3482,7 @@
         <v>0.01</v>
       </c>
       <c r="U26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="9"/>
@@ -3517,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
@@ -3535,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="6"/>
@@ -3545,7 +3546,7 @@
         <v>0.1</v>
       </c>
       <c r="O27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="7"/>
@@ -3555,7 +3556,7 @@
         <v>0.02</v>
       </c>
       <c r="R27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="8"/>
@@ -3565,7 +3566,7 @@
         <v>0.2</v>
       </c>
       <c r="U27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="9"/>
@@ -3619,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="6"/>
@@ -3629,7 +3630,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="O28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="7"/>
@@ -3639,7 +3640,7 @@
         <v>0.05</v>
       </c>
       <c r="R28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="8"/>
@@ -3649,7 +3650,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="9"/>
@@ -3703,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="6"/>
@@ -3713,7 +3714,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="7"/>
@@ -3723,7 +3724,7 @@
         <v>0.02</v>
       </c>
       <c r="R29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="8"/>
@@ -3733,7 +3734,7 @@
         <v>0.03</v>
       </c>
       <c r="U29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="9"/>
@@ -3847,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="6"/>
@@ -3857,7 +3858,7 @@
         <v>0.03</v>
       </c>
       <c r="O31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="7"/>
@@ -3867,7 +3868,7 @@
         <v>0.1</v>
       </c>
       <c r="R31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="8"/>
@@ -3877,7 +3878,7 @@
         <v>0.01</v>
       </c>
       <c r="U31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="9"/>
@@ -3885,12 +3886,6 @@
       </c>
       <c r="W31">
         <v>0.1</v>
-      </c>
-      <c r="X31" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3937,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="6"/>
@@ -3947,7 +3942,7 @@
         <v>0.05</v>
       </c>
       <c r="O32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="7"/>
@@ -3957,7 +3952,7 @@
         <v>0.01</v>
       </c>
       <c r="R32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="8"/>
@@ -3967,7 +3962,7 @@
         <v>0.1</v>
       </c>
       <c r="U32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="9"/>
@@ -4021,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="6"/>
@@ -4031,7 +4026,7 @@
         <v>0.1</v>
       </c>
       <c r="O33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="7"/>
@@ -4041,7 +4036,7 @@
         <v>0.03</v>
       </c>
       <c r="R33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="8"/>
@@ -4051,7 +4046,7 @@
         <v>0.05</v>
       </c>
       <c r="U33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="9"/>
@@ -4105,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="6"/>
@@ -4115,7 +4110,7 @@
         <v>0.1</v>
       </c>
       <c r="O34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="7"/>
@@ -4125,7 +4120,7 @@
         <v>0.15</v>
       </c>
       <c r="R34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S34">
         <f t="shared" ca="1" si="8"/>
@@ -4135,7 +4130,7 @@
         <v>0.05</v>
       </c>
       <c r="U34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="9"/>
@@ -4189,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="6"/>
@@ -4199,7 +4194,7 @@
         <v>0.15</v>
       </c>
       <c r="O35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="7"/>
@@ -4209,7 +4204,7 @@
         <v>0.2</v>
       </c>
       <c r="R35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="8"/>
@@ -4219,7 +4214,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="9"/>
@@ -4273,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="6"/>
@@ -4283,7 +4278,7 @@
         <v>0.2</v>
       </c>
       <c r="O36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="7"/>
@@ -4293,7 +4288,7 @@
         <v>0.2</v>
       </c>
       <c r="R36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="8"/>
@@ -4303,7 +4298,7 @@
         <v>0.02</v>
       </c>
       <c r="U36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="9"/>
@@ -4477,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="6"/>
@@ -4487,7 +4482,7 @@
         <v>0.03</v>
       </c>
       <c r="O39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="7"/>
@@ -4497,7 +4492,7 @@
         <v>0.05</v>
       </c>
       <c r="R39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="8"/>
@@ -4507,7 +4502,7 @@
         <v>0.01</v>
       </c>
       <c r="U39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="9"/>
@@ -4561,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="6"/>
@@ -4571,7 +4566,7 @@
         <v>0.01</v>
       </c>
       <c r="O40" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="7"/>
@@ -4581,7 +4576,7 @@
         <v>0.01</v>
       </c>
       <c r="R40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="8"/>
@@ -4591,7 +4586,7 @@
         <v>0.01</v>
       </c>
       <c r="U40" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="9"/>
@@ -4645,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="6"/>
@@ -4655,7 +4650,7 @@
         <v>0.05</v>
       </c>
       <c r="O41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="7"/>
@@ -4665,7 +4660,7 @@
         <v>0.05</v>
       </c>
       <c r="R41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="8"/>
@@ -4675,7 +4670,7 @@
         <v>0.03</v>
       </c>
       <c r="U41" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="9"/>
@@ -4729,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="6"/>
@@ -4739,7 +4734,7 @@
         <v>0.1</v>
       </c>
       <c r="O42" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="7"/>
@@ -4749,7 +4744,7 @@
         <v>0.02</v>
       </c>
       <c r="R42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="8"/>
@@ -4759,7 +4754,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="9"/>
@@ -4813,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="6"/>
@@ -4823,7 +4818,7 @@
         <v>0.1</v>
       </c>
       <c r="O43" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="7"/>
@@ -4833,7 +4828,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R43" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="8"/>
@@ -4843,7 +4838,7 @@
         <v>0.02</v>
       </c>
       <c r="U43" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="9"/>
@@ -4897,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="6"/>
@@ -4907,7 +4902,7 @@
         <v>0.2</v>
       </c>
       <c r="O44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="7"/>
@@ -4917,7 +4912,7 @@
         <v>0.02</v>
       </c>
       <c r="R44" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S44">
         <f t="shared" ca="1" si="8"/>
@@ -4927,7 +4922,7 @@
         <v>0.03</v>
       </c>
       <c r="U44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V44">
         <f t="shared" ca="1" si="9"/>
@@ -5041,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="6"/>
@@ -5051,7 +5046,7 @@
         <v>0.01</v>
       </c>
       <c r="O46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="7"/>
@@ -5061,7 +5056,7 @@
         <v>0.01</v>
       </c>
       <c r="R46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="8"/>
@@ -5071,7 +5066,7 @@
         <v>0.2</v>
       </c>
       <c r="U46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="9"/>
@@ -5125,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="6"/>
@@ -5135,7 +5130,7 @@
         <v>0.03</v>
       </c>
       <c r="O47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="7"/>
@@ -5145,7 +5140,7 @@
         <v>0.05</v>
       </c>
       <c r="R47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="8"/>
@@ -5155,7 +5150,7 @@
         <v>0.05</v>
       </c>
       <c r="U47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="9"/>
@@ -5209,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="6"/>
@@ -5219,7 +5214,7 @@
         <v>0.05</v>
       </c>
       <c r="O48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="7"/>
@@ -5229,7 +5224,7 @@
         <v>0.2</v>
       </c>
       <c r="R48" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="8"/>
@@ -5239,7 +5234,7 @@
         <v>0.01</v>
       </c>
       <c r="U48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="9"/>
@@ -5293,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="6"/>
@@ -5303,7 +5298,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O49" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="7"/>
@@ -5313,7 +5308,7 @@
         <v>0.02</v>
       </c>
       <c r="R49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S49">
         <f t="shared" ca="1" si="8"/>
@@ -5323,7 +5318,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="U49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="9"/>
@@ -5377,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="6"/>
@@ -5387,7 +5382,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="O50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P50">
         <f t="shared" ca="1" si="7"/>
@@ -5397,7 +5392,7 @@
         <v>0.1</v>
       </c>
       <c r="R50" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S50">
         <f t="shared" ca="1" si="8"/>
@@ -5407,7 +5402,7 @@
         <v>0.01</v>
       </c>
       <c r="U50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="9"/>
@@ -5461,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="6"/>
@@ -5471,7 +5466,7 @@
         <v>0.05</v>
       </c>
       <c r="O51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P51">
         <f t="shared" ca="1" si="7"/>
@@ -5481,7 +5476,7 @@
         <v>0.1</v>
       </c>
       <c r="R51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S51">
         <f t="shared" ca="1" si="8"/>
@@ -5491,7 +5486,7 @@
         <v>0.25</v>
       </c>
       <c r="U51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="9"/>
@@ -5499,6 +5494,12 @@
       </c>
       <c r="W51">
         <v>0.02</v>
+      </c>
+      <c r="X51" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y51">
+        <v>4</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5605,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="6"/>
@@ -5615,7 +5616,7 @@
         <v>0.05</v>
       </c>
       <c r="O53" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="7"/>
@@ -5625,7 +5626,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S53">
         <f t="shared" ca="1" si="8"/>
@@ -5635,7 +5636,7 @@
         <v>0.05</v>
       </c>
       <c r="U53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V53">
         <f t="shared" ca="1" si="9"/>
@@ -5689,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="6"/>
@@ -5699,7 +5700,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P54">
         <f t="shared" ca="1" si="7"/>
@@ -5709,7 +5710,7 @@
         <v>0.03</v>
       </c>
       <c r="R54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S54">
         <f t="shared" ca="1" si="8"/>
@@ -5719,7 +5720,7 @@
         <v>0.05</v>
       </c>
       <c r="U54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="9"/>
@@ -5773,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="6"/>
@@ -5783,7 +5784,7 @@
         <v>0.05</v>
       </c>
       <c r="O55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P55">
         <f t="shared" ca="1" si="7"/>
@@ -5793,7 +5794,7 @@
         <v>0.01</v>
       </c>
       <c r="R55" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S55">
         <f t="shared" ca="1" si="8"/>
@@ -5803,7 +5804,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V55">
         <f t="shared" ca="1" si="9"/>
@@ -5857,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="6"/>
@@ -5867,7 +5868,7 @@
         <v>0.05</v>
       </c>
       <c r="O56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P56">
         <f t="shared" ca="1" si="7"/>
@@ -5877,7 +5878,7 @@
         <v>0.1</v>
       </c>
       <c r="R56" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S56">
         <f t="shared" ca="1" si="8"/>
@@ -5887,7 +5888,7 @@
         <v>0.02</v>
       </c>
       <c r="U56" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V56">
         <f t="shared" ca="1" si="9"/>
@@ -5941,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="6"/>
@@ -5951,7 +5952,7 @@
         <v>0.02</v>
       </c>
       <c r="O57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P57">
         <f t="shared" ca="1" si="7"/>
@@ -5961,7 +5962,7 @@
         <v>0.1</v>
       </c>
       <c r="R57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S57">
         <f t="shared" ca="1" si="8"/>
@@ -5971,7 +5972,7 @@
         <v>0.05</v>
       </c>
       <c r="U57" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V57">
         <f t="shared" ca="1" si="9"/>
@@ -6025,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="6"/>
@@ -6035,7 +6036,7 @@
         <v>0.1</v>
       </c>
       <c r="O58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P58">
         <f t="shared" ca="1" si="7"/>
@@ -6045,7 +6046,7 @@
         <v>0.03</v>
       </c>
       <c r="R58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S58">
         <f t="shared" ca="1" si="8"/>
@@ -6055,7 +6056,7 @@
         <v>0.02</v>
       </c>
       <c r="U58" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="V58">
         <f t="shared" ca="1" si="9"/>
@@ -6063,6 +6064,12 @@
       </c>
       <c r="W58">
         <v>0.1</v>
+      </c>
+      <c r="X58" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y58">
+        <v>4</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6229,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="6"/>
@@ -6239,7 +6246,7 @@
         <v>0.01</v>
       </c>
       <c r="O61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P61">
         <f t="shared" ca="1" si="7"/>
@@ -6249,7 +6256,7 @@
         <v>0.1</v>
       </c>
       <c r="R61" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S61">
         <f t="shared" ca="1" si="8"/>
@@ -6259,7 +6266,7 @@
         <v>0.05</v>
       </c>
       <c r="U61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="V61">
         <f t="shared" ca="1" si="9"/>
@@ -6313,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="6"/>
@@ -6323,7 +6330,7 @@
         <v>0.05</v>
       </c>
       <c r="O62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P62">
         <f t="shared" ca="1" si="7"/>
@@ -6333,7 +6340,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S62">
         <f t="shared" ca="1" si="8"/>
@@ -6343,7 +6350,7 @@
         <v>0.03</v>
       </c>
       <c r="U62" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V62">
         <f t="shared" ca="1" si="9"/>
@@ -6379,7 +6386,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H63">
         <f t="shared" si="45"/>
@@ -6397,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="6"/>
@@ -6407,7 +6414,7 @@
         <v>0.05</v>
       </c>
       <c r="O63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P63">
         <f t="shared" ca="1" si="7"/>
@@ -6417,7 +6424,7 @@
         <v>0.03</v>
       </c>
       <c r="R63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S63">
         <f t="shared" ca="1" si="8"/>
@@ -6427,7 +6434,7 @@
         <v>0.01</v>
       </c>
       <c r="U63" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="V63">
         <f t="shared" ca="1" si="9"/>
@@ -6463,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H64">
         <f t="shared" si="45"/>
@@ -6481,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="6"/>
@@ -6491,7 +6498,7 @@
         <v>0.1</v>
       </c>
       <c r="O64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P64">
         <f t="shared" ca="1" si="7"/>
@@ -6501,7 +6508,7 @@
         <v>0.05</v>
       </c>
       <c r="R64" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S64">
         <f t="shared" ca="1" si="8"/>
@@ -6511,7 +6518,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V64">
         <f t="shared" ca="1" si="9"/>
@@ -6547,7 +6554,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H65">
         <f t="shared" si="45"/>
@@ -6565,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="6"/>
@@ -6575,7 +6582,7 @@
         <v>0.02</v>
       </c>
       <c r="O65" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="7"/>
@@ -6585,7 +6592,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R65" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S65">
         <f t="shared" ca="1" si="8"/>
@@ -6595,7 +6602,7 @@
         <v>0.02</v>
       </c>
       <c r="U65" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="V65">
         <f t="shared" ca="1" si="9"/>
@@ -6649,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M66">
         <f t="shared" ref="M66:M67" ca="1" si="85">VLOOKUP(L66,OFFSET(INDIRECT("$A:$B"),0,MATCH(L$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6659,7 +6666,7 @@
         <v>0.03</v>
       </c>
       <c r="O66" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P66">
         <f t="shared" ref="P66:P67" ca="1" si="86">VLOOKUP(O66,OFFSET(INDIRECT("$A:$B"),0,MATCH(O$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6669,7 +6676,7 @@
         <v>0.02</v>
       </c>
       <c r="R66" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S66">
         <f t="shared" ref="S66:S67" ca="1" si="87">VLOOKUP(R66,OFFSET(INDIRECT("$A:$B"),0,MATCH(R$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6679,7 +6686,7 @@
         <v>0.2</v>
       </c>
       <c r="U66" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="V66">
         <f t="shared" ref="V66:V67" ca="1" si="88">VLOOKUP(U66,OFFSET(INDIRECT("$A:$B"),0,MATCH(U$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -6761,7 +6768,7 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D66 B2:B66 L2:L67 O2:O67 R2:R67 U2:U67" xr:uid="{5A0C6A56-06C4-409A-9688-67CF5E80A796}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
@@ -6776,7 +6783,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
@@ -6798,49 +6805,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>119</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>122</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -6849,7 +6856,7 @@
         <v>Equip000001</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" ca="1" si="1">IF(B2&lt;&gt;OFFSET(B2,-1,0),
@@ -6930,7 +6937,7 @@
         <v>Equip010001</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
@@ -7004,7 +7011,7 @@
         <v>Equip020001</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
@@ -7078,7 +7085,7 @@
         <v>Equip030001</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
@@ -7152,7 +7159,7 @@
         <v>Equip040001</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
@@ -7226,7 +7233,7 @@
         <v>Equip050001</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
@@ -7300,7 +7307,7 @@
         <v>Equip060001</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
@@ -7374,7 +7381,7 @@
         <v>Equip000002</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
@@ -7448,7 +7455,7 @@
         <v>Equip010002</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
@@ -7522,7 +7529,7 @@
         <v>Equip020002</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
@@ -7596,7 +7603,7 @@
         <v>Equip030002</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
@@ -7670,7 +7677,7 @@
         <v>Equip040002</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
@@ -7744,7 +7751,7 @@
         <v>Equip050002</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
@@ -7818,7 +7825,7 @@
         <v>Equip060002</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
@@ -7892,7 +7899,7 @@
         <v>Equip000003</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
@@ -7966,7 +7973,7 @@
         <v>Equip010003</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
@@ -8040,7 +8047,7 @@
         <v>Equip020003</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
@@ -8114,7 +8121,7 @@
         <v>Equip030003</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
@@ -8188,7 +8195,7 @@
         <v>Equip040003</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
@@ -8262,7 +8269,7 @@
         <v>Equip050003</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
@@ -8336,7 +8343,7 @@
         <v>Equip060003</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
@@ -8410,7 +8417,7 @@
         <v>Equip030101</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
@@ -8484,7 +8491,7 @@
         <v>Equip040101</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
@@ -8558,7 +8565,7 @@
         <v>Equip050101</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
@@ -8632,7 +8639,7 @@
         <v>Equip060101</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
@@ -8706,7 +8713,7 @@
         <v>Equip030102</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
@@ -8780,7 +8787,7 @@
         <v>Equip040102</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
@@ -8854,7 +8861,7 @@
         <v>Equip050102</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
@@ -8928,7 +8935,7 @@
         <v>Equip060102</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
@@ -9002,7 +9009,7 @@
         <v>Equip030201</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
@@ -9076,7 +9083,7 @@
         <v>Equip040201</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
@@ -9150,7 +9157,7 @@
         <v>Equip050201</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
@@ -9224,7 +9231,7 @@
         <v>Equip060201</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
@@ -9298,7 +9305,7 @@
         <v>Equip030202</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
@@ -9372,7 +9379,7 @@
         <v>Equip040202</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
@@ -9446,7 +9453,7 @@
         <v>Equip050202</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
@@ -9520,7 +9527,7 @@
         <v>Equip060202</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
@@ -9594,7 +9601,7 @@
         <v>Equip001001</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
@@ -9668,7 +9675,7 @@
         <v>Equip011001</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
@@ -9742,7 +9749,7 @@
         <v>Equip021001</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
@@ -9816,7 +9823,7 @@
         <v>Equip031001</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
@@ -9890,7 +9897,7 @@
         <v>Equip041001</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
@@ -9964,7 +9971,7 @@
         <v>Equip051001</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
@@ -10038,7 +10045,7 @@
         <v>Equip061001</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
@@ -10112,7 +10119,7 @@
         <v>Equip001002</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
@@ -10186,7 +10193,7 @@
         <v>Equip011002</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
@@ -10260,7 +10267,7 @@
         <v>Equip021002</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
@@ -10334,7 +10341,7 @@
         <v>Equip031002</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
@@ -10408,7 +10415,7 @@
         <v>Equip041002</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
@@ -10482,7 +10489,7 @@
         <v>Equip051002</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
@@ -10556,7 +10563,7 @@
         <v>Equip061002</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
@@ -10630,7 +10637,7 @@
         <v>Equip001003</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
@@ -10704,7 +10711,7 @@
         <v>Equip011003</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
@@ -10778,7 +10785,7 @@
         <v>Equip021003</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
@@ -10852,7 +10859,7 @@
         <v>Equip031003</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
@@ -10926,7 +10933,7 @@
         <v>Equip041003</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
@@ -11000,7 +11007,7 @@
         <v>Equip051003</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
@@ -11074,7 +11081,7 @@
         <v>Equip061003</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
@@ -11148,7 +11155,7 @@
         <v>Equip031101</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
@@ -11222,7 +11229,7 @@
         <v>Equip041101</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
@@ -11296,7 +11303,7 @@
         <v>Equip051101</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
@@ -11370,7 +11377,7 @@
         <v>Equip061101</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
@@ -11444,7 +11451,7 @@
         <v>Equip031102</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
@@ -11518,7 +11525,7 @@
         <v>Equip041102</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
@@ -11592,7 +11599,7 @@
         <v>Equip051102</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C129" ca="1" si="5">IF(B66&lt;&gt;OFFSET(B66,-1,0),
@@ -11673,7 +11680,7 @@
         <v>Equip061102</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
@@ -11747,7 +11754,7 @@
         <v>Equip031201</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
@@ -11821,7 +11828,7 @@
         <v>Equip041201</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
@@ -11895,7 +11902,7 @@
         <v>Equip051201</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
@@ -11969,7 +11976,7 @@
         <v>Equip061201</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
@@ -12043,7 +12050,7 @@
         <v>Equip031202</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
@@ -12117,7 +12124,7 @@
         <v>Equip041202</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
@@ -12191,7 +12198,7 @@
         <v>Equip051202</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
@@ -12265,7 +12272,7 @@
         <v>Equip061202</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
@@ -12339,7 +12346,7 @@
         <v>Equip031203</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
@@ -12413,7 +12420,7 @@
         <v>Equip041203</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
@@ -12487,7 +12494,7 @@
         <v>Equip051203</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
@@ -12561,7 +12568,7 @@
         <v>Equip061203</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
@@ -12635,7 +12642,7 @@
         <v>Equip002001</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
@@ -12709,7 +12716,7 @@
         <v>Equip012001</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
@@ -12783,7 +12790,7 @@
         <v>Equip022001</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
@@ -12857,7 +12864,7 @@
         <v>Equip032001</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
@@ -12931,7 +12938,7 @@
         <v>Equip042001</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
@@ -13005,7 +13012,7 @@
         <v>Equip052001</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
@@ -13079,7 +13086,7 @@
         <v>Equip062001</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
@@ -13153,7 +13160,7 @@
         <v>Equip002002</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
@@ -13227,7 +13234,7 @@
         <v>Equip012002</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
@@ -13301,7 +13308,7 @@
         <v>Equip022002</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
@@ -13375,7 +13382,7 @@
         <v>Equip032002</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
@@ -13449,7 +13456,7 @@
         <v>Equip042002</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
@@ -13523,7 +13530,7 @@
         <v>Equip052002</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
@@ -13597,7 +13604,7 @@
         <v>Equip062002</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
@@ -13671,7 +13678,7 @@
         <v>Equip002003</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
@@ -13745,7 +13752,7 @@
         <v>Equip012003</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
@@ -13819,7 +13826,7 @@
         <v>Equip022003</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
@@ -13893,7 +13900,7 @@
         <v>Equip032003</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
@@ -13967,7 +13974,7 @@
         <v>Equip042003</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
@@ -14041,7 +14048,7 @@
         <v>Equip052003</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
@@ -14115,7 +14122,7 @@
         <v>Equip062003</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
@@ -14189,7 +14196,7 @@
         <v>Equip032101</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
@@ -14263,7 +14270,7 @@
         <v>Equip042101</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="5"/>
@@ -14337,7 +14344,7 @@
         <v>Equip052101</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="5"/>
@@ -14411,7 +14418,7 @@
         <v>Equip062101</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="5"/>
@@ -14485,7 +14492,7 @@
         <v>Equip032102</v>
       </c>
       <c r="B105" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="5"/>
@@ -14559,7 +14566,7 @@
         <v>Equip042102</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="5"/>
@@ -14633,7 +14640,7 @@
         <v>Equip052102</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="5"/>
@@ -14707,7 +14714,7 @@
         <v>Equip062102</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="5"/>
@@ -14781,7 +14788,7 @@
         <v>Equip032201</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="5"/>
@@ -14855,7 +14862,7 @@
         <v>Equip042201</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="5"/>
@@ -14929,7 +14936,7 @@
         <v>Equip052201</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="5"/>
@@ -15003,7 +15010,7 @@
         <v>Equip062201</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="5"/>
@@ -15077,7 +15084,7 @@
         <v>Equip032202</v>
       </c>
       <c r="B113" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="5"/>
@@ -15151,7 +15158,7 @@
         <v>Equip042202</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="5"/>
@@ -15225,7 +15232,7 @@
         <v>Equip052202</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="5"/>
@@ -15299,7 +15306,7 @@
         <v>Equip062202</v>
       </c>
       <c r="B116" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="5"/>
@@ -15373,7 +15380,7 @@
         <v>Equip003001</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="5"/>
@@ -15447,7 +15454,7 @@
         <v>Equip013001</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="5"/>
@@ -15521,7 +15528,7 @@
         <v>Equip023001</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="5"/>
@@ -15595,7 +15602,7 @@
         <v>Equip033001</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="5"/>
@@ -15669,7 +15676,7 @@
         <v>Equip043001</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="5"/>
@@ -15743,7 +15750,7 @@
         <v>Equip053001</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="5"/>
@@ -15817,7 +15824,7 @@
         <v>Equip063001</v>
       </c>
       <c r="B123" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="5"/>
@@ -15891,7 +15898,7 @@
         <v>Equip003002</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="5"/>
@@ -15965,7 +15972,7 @@
         <v>Equip013002</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="5"/>
@@ -16039,7 +16046,7 @@
         <v>Equip023002</v>
       </c>
       <c r="B126" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="5"/>
@@ -16113,7 +16120,7 @@
         <v>Equip033002</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="5"/>
@@ -16187,7 +16194,7 @@
         <v>Equip043002</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="5"/>
@@ -16261,7 +16268,7 @@
         <v>Equip053002</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="5"/>
@@ -16335,7 +16342,7 @@
         <v>Equip063002</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C193" ca="1" si="9">IF(B130&lt;&gt;OFFSET(B130,-1,0),
@@ -16416,7 +16423,7 @@
         <v>Equip003003</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="9"/>
@@ -16490,7 +16497,7 @@
         <v>Equip013003</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="9"/>
@@ -16564,7 +16571,7 @@
         <v>Equip023003</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="9"/>
@@ -16638,7 +16645,7 @@
         <v>Equip033003</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="9"/>
@@ -16712,7 +16719,7 @@
         <v>Equip043003</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="9"/>
@@ -16786,7 +16793,7 @@
         <v>Equip053003</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="9"/>
@@ -16860,7 +16867,7 @@
         <v>Equip063003</v>
       </c>
       <c r="B137" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="9"/>
@@ -16934,7 +16941,7 @@
         <v>Equip033101</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="9"/>
@@ -17008,7 +17015,7 @@
         <v>Equip043101</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="9"/>
@@ -17082,7 +17089,7 @@
         <v>Equip053101</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="9"/>
@@ -17156,7 +17163,7 @@
         <v>Equip063101</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="9"/>
@@ -17230,7 +17237,7 @@
         <v>Equip033102</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="9"/>
@@ -17304,7 +17311,7 @@
         <v>Equip043102</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="9"/>
@@ -17378,7 +17385,7 @@
         <v>Equip053102</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="9"/>
@@ -17452,7 +17459,7 @@
         <v>Equip063102</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="9"/>
@@ -17526,7 +17533,7 @@
         <v>Equip033201</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="9"/>
@@ -17600,7 +17607,7 @@
         <v>Equip043201</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="9"/>
@@ -17674,7 +17681,7 @@
         <v>Equip053201</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="9"/>
@@ -17748,7 +17755,7 @@
         <v>Equip063201</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="9"/>
@@ -17822,7 +17829,7 @@
         <v>Equip033202</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="9"/>
@@ -17896,7 +17903,7 @@
         <v>Equip043202</v>
       </c>
       <c r="B151" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="9"/>
@@ -17970,7 +17977,7 @@
         <v>Equip053202</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="9"/>
@@ -18044,7 +18051,7 @@
         <v>Equip063202</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="9"/>
@@ -18118,7 +18125,7 @@
         <v>Equip004001</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="9"/>
@@ -18192,7 +18199,7 @@
         <v>Equip014001</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="9"/>
@@ -18266,7 +18273,7 @@
         <v>Equip024001</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="9"/>
@@ -18340,7 +18347,7 @@
         <v>Equip034001</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="9"/>
@@ -18414,7 +18421,7 @@
         <v>Equip044001</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="9"/>
@@ -18488,7 +18495,7 @@
         <v>Equip054001</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="9"/>
@@ -18562,7 +18569,7 @@
         <v>Equip064001</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="9"/>
@@ -18636,7 +18643,7 @@
         <v>Equip004002</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="9"/>
@@ -18710,7 +18717,7 @@
         <v>Equip014002</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="9"/>
@@ -18784,7 +18791,7 @@
         <v>Equip024002</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="9"/>
@@ -18858,7 +18865,7 @@
         <v>Equip034002</v>
       </c>
       <c r="B164" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="9"/>
@@ -18932,7 +18939,7 @@
         <v>Equip044002</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="9"/>
@@ -19006,7 +19013,7 @@
         <v>Equip054002</v>
       </c>
       <c r="B166" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="9"/>
@@ -19080,7 +19087,7 @@
         <v>Equip064002</v>
       </c>
       <c r="B167" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="9"/>
@@ -19154,7 +19161,7 @@
         <v>Equip004003</v>
       </c>
       <c r="B168" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="9"/>
@@ -19228,7 +19235,7 @@
         <v>Equip014003</v>
       </c>
       <c r="B169" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="9"/>
@@ -19302,7 +19309,7 @@
         <v>Equip024003</v>
       </c>
       <c r="B170" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="9"/>
@@ -19376,7 +19383,7 @@
         <v>Equip034003</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="9"/>
@@ -19450,7 +19457,7 @@
         <v>Equip044003</v>
       </c>
       <c r="B172" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="9"/>
@@ -19524,7 +19531,7 @@
         <v>Equip054003</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="9"/>
@@ -19598,7 +19605,7 @@
         <v>Equip064003</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="9"/>
@@ -19672,7 +19679,7 @@
         <v>Equip034101</v>
       </c>
       <c r="B175" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="9"/>
@@ -19746,7 +19753,7 @@
         <v>Equip044101</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="9"/>
@@ -19820,7 +19827,7 @@
         <v>Equip054101</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="9"/>
@@ -19894,7 +19901,7 @@
         <v>Equip064101</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="9"/>
@@ -19968,7 +19975,7 @@
         <v>Equip034102</v>
       </c>
       <c r="B179" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="9"/>
@@ -20042,7 +20049,7 @@
         <v>Equip044102</v>
       </c>
       <c r="B180" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="9"/>
@@ -20116,7 +20123,7 @@
         <v>Equip054102</v>
       </c>
       <c r="B181" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="9"/>
@@ -20190,7 +20197,7 @@
         <v>Equip064102</v>
       </c>
       <c r="B182" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="9"/>
@@ -20264,7 +20271,7 @@
         <v>Equip034201</v>
       </c>
       <c r="B183" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="9"/>
@@ -20338,7 +20345,7 @@
         <v>Equip044201</v>
       </c>
       <c r="B184" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="9"/>
@@ -20412,7 +20419,7 @@
         <v>Equip054201</v>
       </c>
       <c r="B185" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="9"/>
@@ -20486,7 +20493,7 @@
         <v>Equip064201</v>
       </c>
       <c r="B186" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="9"/>
@@ -20560,7 +20567,7 @@
         <v>Equip034202</v>
       </c>
       <c r="B187" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="9"/>
@@ -20634,7 +20641,7 @@
         <v>Equip044202</v>
       </c>
       <c r="B188" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="9"/>
@@ -20708,7 +20715,7 @@
         <v>Equip054202</v>
       </c>
       <c r="B189" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="9"/>
@@ -20782,7 +20789,7 @@
         <v>Equip064202</v>
       </c>
       <c r="B190" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="9"/>
@@ -20856,7 +20863,7 @@
         <v>Equip034203</v>
       </c>
       <c r="B191" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="9"/>
@@ -20930,7 +20937,7 @@
         <v>Equip044203</v>
       </c>
       <c r="B192" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="9"/>
@@ -21004,7 +21011,7 @@
         <v>Equip054203</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="9"/>
@@ -21078,7 +21085,7 @@
         <v>Equip064203</v>
       </c>
       <c r="B194" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" ca="1" si="13">IF(B194&lt;&gt;OFFSET(B194,-1,0),
@@ -21159,7 +21166,7 @@
         <v>Equip005001</v>
       </c>
       <c r="B195" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="13"/>
@@ -21233,7 +21240,7 @@
         <v>Equip015001</v>
       </c>
       <c r="B196" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="13"/>
@@ -21307,7 +21314,7 @@
         <v>Equip025001</v>
       </c>
       <c r="B197" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="13"/>
@@ -21381,7 +21388,7 @@
         <v>Equip035001</v>
       </c>
       <c r="B198" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="13"/>
@@ -21455,7 +21462,7 @@
         <v>Equip045001</v>
       </c>
       <c r="B199" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="13"/>
@@ -21529,7 +21536,7 @@
         <v>Equip055001</v>
       </c>
       <c r="B200" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="13"/>
@@ -21603,7 +21610,7 @@
         <v>Equip065001</v>
       </c>
       <c r="B201" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="13"/>
@@ -21677,7 +21684,7 @@
         <v>Equip005002</v>
       </c>
       <c r="B202" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="13"/>
@@ -21751,7 +21758,7 @@
         <v>Equip015002</v>
       </c>
       <c r="B203" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="13"/>
@@ -21825,7 +21832,7 @@
         <v>Equip025002</v>
       </c>
       <c r="B204" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="13"/>
@@ -21899,7 +21906,7 @@
         <v>Equip035002</v>
       </c>
       <c r="B205" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="13"/>
@@ -21973,7 +21980,7 @@
         <v>Equip045002</v>
       </c>
       <c r="B206" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="13"/>
@@ -22047,7 +22054,7 @@
         <v>Equip055002</v>
       </c>
       <c r="B207" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="13"/>
@@ -22121,7 +22128,7 @@
         <v>Equip065002</v>
       </c>
       <c r="B208" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="13"/>
@@ -22195,7 +22202,7 @@
         <v>Equip005003</v>
       </c>
       <c r="B209" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="13"/>
@@ -22269,7 +22276,7 @@
         <v>Equip015003</v>
       </c>
       <c r="B210" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="13"/>
@@ -22343,7 +22350,7 @@
         <v>Equip025003</v>
       </c>
       <c r="B211" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="13"/>
@@ -22417,7 +22424,7 @@
         <v>Equip035003</v>
       </c>
       <c r="B212" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="13"/>
@@ -22491,7 +22498,7 @@
         <v>Equip045003</v>
       </c>
       <c r="B213" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="13"/>
@@ -22565,7 +22572,7 @@
         <v>Equip055003</v>
       </c>
       <c r="B214" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="13"/>
@@ -22639,7 +22646,7 @@
         <v>Equip065003</v>
       </c>
       <c r="B215" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="13"/>
@@ -22713,7 +22720,7 @@
         <v>Equip035101</v>
       </c>
       <c r="B216" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="13"/>
@@ -22787,7 +22794,7 @@
         <v>Equip045101</v>
       </c>
       <c r="B217" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="13"/>
@@ -22861,7 +22868,7 @@
         <v>Equip055101</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="13"/>
@@ -22935,7 +22942,7 @@
         <v>Equip065101</v>
       </c>
       <c r="B219" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="13"/>
@@ -23009,7 +23016,7 @@
         <v>Equip035102</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="13"/>
@@ -23083,7 +23090,7 @@
         <v>Equip045102</v>
       </c>
       <c r="B221" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="13"/>
@@ -23157,7 +23164,7 @@
         <v>Equip055102</v>
       </c>
       <c r="B222" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="13"/>
@@ -23231,7 +23238,7 @@
         <v>Equip065102</v>
       </c>
       <c r="B223" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="13"/>
@@ -23305,7 +23312,7 @@
         <v>Equip035201</v>
       </c>
       <c r="B224" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="13"/>
@@ -23379,7 +23386,7 @@
         <v>Equip045201</v>
       </c>
       <c r="B225" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="13"/>
@@ -23453,7 +23460,7 @@
         <v>Equip055201</v>
       </c>
       <c r="B226" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="13"/>
@@ -23527,7 +23534,7 @@
         <v>Equip065201</v>
       </c>
       <c r="B227" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="13"/>
@@ -23601,7 +23608,7 @@
         <v>Equip035202</v>
       </c>
       <c r="B228" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="13"/>
@@ -23675,7 +23682,7 @@
         <v>Equip045202</v>
       </c>
       <c r="B229" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="13"/>
@@ -23749,7 +23756,7 @@
         <v>Equip055202</v>
       </c>
       <c r="B230" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="13"/>
@@ -23823,7 +23830,7 @@
         <v>Equip065202</v>
       </c>
       <c r="B231" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="13"/>
@@ -23897,7 +23904,7 @@
         <v>Equip006001</v>
       </c>
       <c r="B232" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="13"/>
@@ -23971,7 +23978,7 @@
         <v>Equip016001</v>
       </c>
       <c r="B233" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="13"/>
@@ -24045,7 +24052,7 @@
         <v>Equip026001</v>
       </c>
       <c r="B234" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="13"/>
@@ -24119,7 +24126,7 @@
         <v>Equip036001</v>
       </c>
       <c r="B235" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="13"/>
@@ -24193,7 +24200,7 @@
         <v>Equip046001</v>
       </c>
       <c r="B236" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="13"/>
@@ -24267,7 +24274,7 @@
         <v>Equip056001</v>
       </c>
       <c r="B237" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="13"/>
@@ -24341,7 +24348,7 @@
         <v>Equip066001</v>
       </c>
       <c r="B238" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="13"/>
@@ -24415,7 +24422,7 @@
         <v>Equip006002</v>
       </c>
       <c r="B239" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="13"/>
@@ -24489,7 +24496,7 @@
         <v>Equip016002</v>
       </c>
       <c r="B240" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="13"/>
@@ -24563,7 +24570,7 @@
         <v>Equip026002</v>
       </c>
       <c r="B241" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="13"/>
@@ -24637,7 +24644,7 @@
         <v>Equip036002</v>
       </c>
       <c r="B242" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="13"/>
@@ -24711,7 +24718,7 @@
         <v>Equip046002</v>
       </c>
       <c r="B243" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="13"/>
@@ -24785,7 +24792,7 @@
         <v>Equip056002</v>
       </c>
       <c r="B244" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="13"/>
@@ -24859,7 +24866,7 @@
         <v>Equip066002</v>
       </c>
       <c r="B245" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="13"/>
@@ -24933,7 +24940,7 @@
         <v>Equip006003</v>
       </c>
       <c r="B246" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="13"/>
@@ -25007,7 +25014,7 @@
         <v>Equip016003</v>
       </c>
       <c r="B247" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="13"/>
@@ -25081,7 +25088,7 @@
         <v>Equip026003</v>
       </c>
       <c r="B248" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="13"/>
@@ -25155,7 +25162,7 @@
         <v>Equip036003</v>
       </c>
       <c r="B249" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="13"/>
@@ -25229,7 +25236,7 @@
         <v>Equip046003</v>
       </c>
       <c r="B250" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="13"/>
@@ -25303,7 +25310,7 @@
         <v>Equip056003</v>
       </c>
       <c r="B251" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="13"/>
@@ -25377,7 +25384,7 @@
         <v>Equip066003</v>
       </c>
       <c r="B252" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="13"/>
@@ -25451,7 +25458,7 @@
         <v>Equip036101</v>
       </c>
       <c r="B253" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="13"/>
@@ -25525,7 +25532,7 @@
         <v>Equip046101</v>
       </c>
       <c r="B254" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="13"/>
@@ -25599,7 +25606,7 @@
         <v>Equip056101</v>
       </c>
       <c r="B255" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="13"/>
@@ -25673,7 +25680,7 @@
         <v>Equip066101</v>
       </c>
       <c r="B256" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="13"/>
@@ -25747,7 +25754,7 @@
         <v>Equip036102</v>
       </c>
       <c r="B257" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="13"/>
@@ -25821,7 +25828,7 @@
         <v>Equip046102</v>
       </c>
       <c r="B258" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" ca="1" si="17">IF(B258&lt;&gt;OFFSET(B258,-1,0),
@@ -25902,7 +25909,7 @@
         <v>Equip056102</v>
       </c>
       <c r="B259" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="17"/>
@@ -25976,7 +25983,7 @@
         <v>Equip066102</v>
       </c>
       <c r="B260" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="17"/>
@@ -26050,7 +26057,7 @@
         <v>Equip036201</v>
       </c>
       <c r="B261" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="17"/>
@@ -26124,7 +26131,7 @@
         <v>Equip046201</v>
       </c>
       <c r="B262" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="17"/>
@@ -26198,7 +26205,7 @@
         <v>Equip056201</v>
       </c>
       <c r="B263" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="17"/>
@@ -26272,7 +26279,7 @@
         <v>Equip066201</v>
       </c>
       <c r="B264" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="17"/>
@@ -26346,7 +26353,7 @@
         <v>Equip036202</v>
       </c>
       <c r="B265" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="17"/>
@@ -26420,7 +26427,7 @@
         <v>Equip046202</v>
       </c>
       <c r="B266" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="17"/>
@@ -26494,7 +26501,7 @@
         <v>Equip056202</v>
       </c>
       <c r="B267" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="17"/>
@@ -26568,7 +26575,7 @@
         <v>Equip066202</v>
       </c>
       <c r="B268" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="17"/>
@@ -26642,7 +26649,7 @@
         <v>Equip007001</v>
       </c>
       <c r="B269" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="17"/>
@@ -26716,7 +26723,7 @@
         <v>Equip017001</v>
       </c>
       <c r="B270" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="17"/>
@@ -26790,7 +26797,7 @@
         <v>Equip027001</v>
       </c>
       <c r="B271" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="17"/>
@@ -26864,7 +26871,7 @@
         <v>Equip037001</v>
       </c>
       <c r="B272" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="17"/>
@@ -26938,7 +26945,7 @@
         <v>Equip047001</v>
       </c>
       <c r="B273" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="17"/>
@@ -27012,7 +27019,7 @@
         <v>Equip057001</v>
       </c>
       <c r="B274" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="17"/>
@@ -27086,7 +27093,7 @@
         <v>Equip067001</v>
       </c>
       <c r="B275" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="17"/>
@@ -27160,7 +27167,7 @@
         <v>Equip007002</v>
       </c>
       <c r="B276" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="17"/>
@@ -27234,7 +27241,7 @@
         <v>Equip017002</v>
       </c>
       <c r="B277" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="17"/>
@@ -27308,7 +27315,7 @@
         <v>Equip027002</v>
       </c>
       <c r="B278" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="17"/>
@@ -27382,7 +27389,7 @@
         <v>Equip037002</v>
       </c>
       <c r="B279" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="17"/>
@@ -27456,7 +27463,7 @@
         <v>Equip047002</v>
       </c>
       <c r="B280" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="17"/>
@@ -27530,7 +27537,7 @@
         <v>Equip057002</v>
       </c>
       <c r="B281" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="17"/>
@@ -27604,7 +27611,7 @@
         <v>Equip067002</v>
       </c>
       <c r="B282" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="17"/>
@@ -27678,7 +27685,7 @@
         <v>Equip007003</v>
       </c>
       <c r="B283" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="17"/>
@@ -27752,7 +27759,7 @@
         <v>Equip017003</v>
       </c>
       <c r="B284" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="17"/>
@@ -27826,7 +27833,7 @@
         <v>Equip027003</v>
       </c>
       <c r="B285" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="17"/>
@@ -27900,7 +27907,7 @@
         <v>Equip037003</v>
       </c>
       <c r="B286" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="17"/>
@@ -27974,7 +27981,7 @@
         <v>Equip047003</v>
       </c>
       <c r="B287" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="17"/>
@@ -28048,7 +28055,7 @@
         <v>Equip057003</v>
       </c>
       <c r="B288" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="17"/>
@@ -28122,7 +28129,7 @@
         <v>Equip067003</v>
       </c>
       <c r="B289" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="17"/>
@@ -28196,7 +28203,7 @@
         <v>Equip037101</v>
       </c>
       <c r="B290" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="17"/>
@@ -28270,7 +28277,7 @@
         <v>Equip047101</v>
       </c>
       <c r="B291" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="17"/>
@@ -28344,7 +28351,7 @@
         <v>Equip057101</v>
       </c>
       <c r="B292" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C292">
         <f t="shared" ca="1" si="17"/>
@@ -28418,7 +28425,7 @@
         <v>Equip067101</v>
       </c>
       <c r="B293" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="17"/>
@@ -28492,7 +28499,7 @@
         <v>Equip037102</v>
       </c>
       <c r="B294" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="17"/>
@@ -28566,7 +28573,7 @@
         <v>Equip047102</v>
       </c>
       <c r="B295" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="17"/>
@@ -28640,7 +28647,7 @@
         <v>Equip057102</v>
       </c>
       <c r="B296" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="17"/>
@@ -28714,7 +28721,7 @@
         <v>Equip067102</v>
       </c>
       <c r="B297" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C297">
         <f t="shared" ca="1" si="17"/>
@@ -28788,7 +28795,7 @@
         <v>Equip037201</v>
       </c>
       <c r="B298" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C298">
         <f t="shared" ca="1" si="17"/>
@@ -28862,7 +28869,7 @@
         <v>Equip047201</v>
       </c>
       <c r="B299" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="17"/>
@@ -28936,7 +28943,7 @@
         <v>Equip057201</v>
       </c>
       <c r="B300" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="17"/>
@@ -29010,7 +29017,7 @@
         <v>Equip067201</v>
       </c>
       <c r="B301" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="17"/>
@@ -29084,7 +29091,7 @@
         <v>Equip037202</v>
       </c>
       <c r="B302" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C302">
         <f t="shared" ca="1" si="17"/>
@@ -29158,7 +29165,7 @@
         <v>Equip047202</v>
       </c>
       <c r="B303" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="17"/>
@@ -29232,7 +29239,7 @@
         <v>Equip057202</v>
       </c>
       <c r="B304" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C304">
         <f t="shared" ca="1" si="17"/>
@@ -29306,7 +29313,7 @@
         <v>Equip067202</v>
       </c>
       <c r="B305" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="17"/>
@@ -29380,7 +29387,7 @@
         <v>Equip037203</v>
       </c>
       <c r="B306" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C306">
         <f t="shared" ca="1" si="17"/>
@@ -29454,7 +29461,7 @@
         <v>Equip047203</v>
       </c>
       <c r="B307" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="17"/>
@@ -29528,7 +29535,7 @@
         <v>Equip057203</v>
       </c>
       <c r="B308" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C308">
         <f t="shared" ca="1" si="17"/>
@@ -29602,7 +29609,7 @@
         <v>Equip067203</v>
       </c>
       <c r="B309" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="17"/>
@@ -29676,7 +29683,7 @@
         <v>Equip008001</v>
       </c>
       <c r="B310" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="17"/>
@@ -29750,7 +29757,7 @@
         <v>Equip018001</v>
       </c>
       <c r="B311" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="17"/>
@@ -29824,7 +29831,7 @@
         <v>Equip028001</v>
       </c>
       <c r="B312" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="17"/>
@@ -29898,7 +29905,7 @@
         <v>Equip038001</v>
       </c>
       <c r="B313" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="17"/>
@@ -29972,7 +29979,7 @@
         <v>Equip048001</v>
       </c>
       <c r="B314" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="17"/>
@@ -30046,7 +30053,7 @@
         <v>Equip058001</v>
       </c>
       <c r="B315" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="17"/>
@@ -30120,7 +30127,7 @@
         <v>Equip068001</v>
       </c>
       <c r="B316" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="17"/>
@@ -30194,7 +30201,7 @@
         <v>Equip008002</v>
       </c>
       <c r="B317" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="17"/>
@@ -30268,7 +30275,7 @@
         <v>Equip018002</v>
       </c>
       <c r="B318" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="17"/>
@@ -30342,7 +30349,7 @@
         <v>Equip028002</v>
       </c>
       <c r="B319" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="17"/>
@@ -30416,7 +30423,7 @@
         <v>Equip038002</v>
       </c>
       <c r="B320" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="17"/>
@@ -30490,7 +30497,7 @@
         <v>Equip048002</v>
       </c>
       <c r="B321" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="17"/>
@@ -30564,7 +30571,7 @@
         <v>Equip058002</v>
       </c>
       <c r="B322" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C322">
         <f t="shared" ref="C322:C346" ca="1" si="21">IF(B322&lt;&gt;OFFSET(B322,-1,0),
@@ -30645,7 +30652,7 @@
         <v>Equip068002</v>
       </c>
       <c r="B323" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C323">
         <f t="shared" ca="1" si="21"/>
@@ -30719,7 +30726,7 @@
         <v>Equip008003</v>
       </c>
       <c r="B324" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="21"/>
@@ -30793,7 +30800,7 @@
         <v>Equip018003</v>
       </c>
       <c r="B325" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="21"/>
@@ -30867,7 +30874,7 @@
         <v>Equip028003</v>
       </c>
       <c r="B326" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="21"/>
@@ -30941,7 +30948,7 @@
         <v>Equip038003</v>
       </c>
       <c r="B327" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="21"/>
@@ -31015,7 +31022,7 @@
         <v>Equip048003</v>
       </c>
       <c r="B328" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="21"/>
@@ -31089,7 +31096,7 @@
         <v>Equip058003</v>
       </c>
       <c r="B329" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="21"/>
@@ -31163,7 +31170,7 @@
         <v>Equip068003</v>
       </c>
       <c r="B330" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="21"/>
@@ -31237,7 +31244,7 @@
         <v>Equip038101</v>
       </c>
       <c r="B331" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="21"/>
@@ -31311,7 +31318,7 @@
         <v>Equip048101</v>
       </c>
       <c r="B332" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="21"/>
@@ -31385,7 +31392,7 @@
         <v>Equip058101</v>
       </c>
       <c r="B333" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="21"/>
@@ -31459,7 +31466,7 @@
         <v>Equip068101</v>
       </c>
       <c r="B334" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="21"/>
@@ -31533,7 +31540,7 @@
         <v>Equip038102</v>
       </c>
       <c r="B335" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="21"/>
@@ -31607,7 +31614,7 @@
         <v>Equip048102</v>
       </c>
       <c r="B336" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="21"/>
@@ -31681,7 +31688,7 @@
         <v>Equip058102</v>
       </c>
       <c r="B337" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="21"/>
@@ -31755,7 +31762,7 @@
         <v>Equip068102</v>
       </c>
       <c r="B338" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="21"/>
@@ -31829,7 +31836,7 @@
         <v>Equip038201</v>
       </c>
       <c r="B339" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="21"/>
@@ -31903,7 +31910,7 @@
         <v>Equip048201</v>
       </c>
       <c r="B340" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="21"/>
@@ -31977,7 +31984,7 @@
         <v>Equip058201</v>
       </c>
       <c r="B341" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C341">
         <f t="shared" ca="1" si="21"/>
@@ -32051,7 +32058,7 @@
         <v>Equip068201</v>
       </c>
       <c r="B342" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="21"/>
@@ -32125,7 +32132,7 @@
         <v>Equip038202</v>
       </c>
       <c r="B343" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="21"/>
@@ -32199,7 +32206,7 @@
         <v>Equip048202</v>
       </c>
       <c r="B344" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="21"/>
@@ -32273,7 +32280,7 @@
         <v>Equip058202</v>
       </c>
       <c r="B345" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="21"/>
@@ -32347,7 +32354,7 @@
         <v>Equip068202</v>
       </c>
       <c r="B346" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="21"/>
@@ -32456,25 +32463,25 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
         <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
@@ -34353,10 +34360,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963323D4-F192-4AD4-8122-AB7735AD7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04074B4-5CD5-4CBA-9254-8586C6A6FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
@@ -1181,11 +1181,11 @@
   <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3536,24 +3536,24 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N27">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="O27" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q27">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="R27" t="s">
         <v>216</v>
@@ -6768,7 +6768,7 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D66 B2:B66 L2:L67 O2:O67 R2:R67 U2:U67" xr:uid="{5A0C6A56-06C4-409A-9688-67CF5E80A796}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(B$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>

--- a/Excel/작업Equip.xlsx
+++ b/Excel/작업Equip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F32E57-EDC4-44F8-B522-35AD5401183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3DC48-B3FD-4407-A5DF-0B01999F007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDFA0471-B5F4-423D-8F9C-44E1C36087DA}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipTable" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="240">
   <si>
     <t>equipId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,6 +823,10 @@
     <t>증가량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Weapon0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1186,35 +1190,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECD02AC-A572-4237-AAB5-CDCD8164017D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" collapsed="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" collapsed="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9" collapsed="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="18" max="18" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="21" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" collapsed="1"/>
     <col min="24" max="24" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="29" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="32" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="37.25" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="36" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9" collapsed="1"/>
+    <col min="28" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" collapsed="1"/>
+    <col min="31" max="32" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" collapsed="1"/>
+    <col min="34" max="34" width="37.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="36" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4844,6 +4858,12 @@
       </c>
       <c r="W43">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X43" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -6781,12 +6801,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q220" sqref="A220:XFD220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
